--- a/showcase_binaries_and_assets/IQ_circuit_solver_stats.xlsx
+++ b/showcase_binaries_and_assets/IQ_circuit_solver_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projets_persos\Prog\C\IQ_circuit_solver\showcase assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projets_persos\Prog\C\IQ_circuit_solver\showcase_binaries_and_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3550C20A-B31E-40D6-964D-DCE2D4FA3499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0856B1-4154-40F5-9314-B7F4B87B39FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22D5D88B-9009-499F-A617-719D769432EB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22D5D88B-9009-499F-A617-719D769432EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup comments" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Level_num</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>V4</t>
+  </si>
+  <si>
+    <t>v6 : reworked double missing connection post-adding check</t>
+  </si>
+  <si>
+    <t>V6</t>
   </si>
 </sst>
 </file>
@@ -875,12 +881,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,6 +888,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,17 +986,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1272,16 +1278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>22859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62865</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1296,8 +1302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11734800" y="30870525"/>
-          <a:ext cx="1466850" cy="666750"/>
+          <a:off x="11582400" y="30217109"/>
+          <a:ext cx="891540" cy="1243965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,6 +1344,81 @@
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
             <a:t> is compared to V3.2 B, as V3.2 B is the V3.2 kept version)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418FAEEC-9DFA-4D2A-BB46-17614D3F57CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12546330" y="30184726"/>
+          <a:ext cx="796290" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>(V6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> is compared to V3.2 B)</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1100"/>
         </a:p>
@@ -2644,6 +2725,215 @@
             <a:t>And when the algorithm run to try solving the level in the less possible time, this check won't be enabled.</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1316355</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C285364B-4AA6-27F8-8C1F-4484C5A653E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28594050" y="15207614"/>
+          <a:ext cx="3326130" cy="8261985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>V4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> -&gt; V6 comments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>(Remark : V5 was all about user interface upgrades)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Test : I reworked the implementation of this check, hopefully to make it more lightweight, and it now invalidates more board state (because it also verifies that we can't have 2 of the same double missing connection type at the same time on the board)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Supposition : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>The rework is good enough to make this check worth doing. (invalidates more board + faster implementation (?)).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>This has to be compared to the results of V3.2B.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Results :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Total number of valid boards : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>V3.2B = 53k -&gt; V6 = 50k (about -6%)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Total solving time with no display (for my laptop):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>V3.2B = 396ms -&gt; V6 = 460ms (about + 16%)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>but</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Total solving time with display (for my laptop):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>V3.2B = 54050ms -&gt; V6 = 51938ms (about -4%)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Thus the computations for this check are not worth doing when we try to solve the level without display, but it is when we solve it and visualize it at the same time.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>In display mode, each new valid board found has a non-negligible display time, which we take into account for the time efficiency evaluation. The check might be worth doing for my particular pc setup and not worth doing for other pc, where display time of each board is less.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Anyway, the solving time with display has become more important to me, especially with the V5 update, thus I'm keeping this check implementation.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3143,7 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC46C79C-8D6A-4FFB-B893-72DF3CB341BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3161,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EA32E1-4AE2-41F3-A97D-46388028FF7D}">
-  <dimension ref="B1:L161"/>
+  <dimension ref="B1:M161"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="R83" sqref="R82:R83"/>
+    <sheetView topLeftCell="C140" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3177,7 +3467,7 @@
     <col min="8" max="8" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
@@ -3185,23 +3475,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="91" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="93"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3226,11 +3517,14 @@
       <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D5" s="86" t="s">
         <v>14</v>
       </c>
@@ -3255,11 +3549,14 @@
       <c r="K5" s="1">
         <v>37</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D6" s="86"/>
       <c r="E6" s="1">
         <v>50</v>
@@ -3282,11 +3579,14 @@
       <c r="K6" s="1">
         <v>117</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D7" s="86"/>
       <c r="E7" s="1">
         <v>51</v>
@@ -3309,11 +3609,14 @@
       <c r="K7" s="1">
         <v>15</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D8" s="86"/>
       <c r="E8" s="1">
         <v>52</v>
@@ -3336,11 +3639,14 @@
       <c r="K8" s="1">
         <v>37</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D9" s="86"/>
       <c r="E9" s="1">
         <v>53</v>
@@ -3363,11 +3669,14 @@
       <c r="K9" s="1">
         <v>80</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D10" s="86"/>
       <c r="E10" s="1">
         <v>54</v>
@@ -3390,11 +3699,14 @@
       <c r="K10" s="1">
         <v>70</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D11" s="86"/>
       <c r="E11" s="1">
         <v>55</v>
@@ -3417,11 +3729,14 @@
       <c r="K11" s="1">
         <v>69</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D12" s="86"/>
       <c r="E12" s="1">
         <v>56</v>
@@ -3444,11 +3759,14 @@
       <c r="K12" s="1">
         <v>64</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D13" s="86"/>
       <c r="E13" s="1">
         <v>57</v>
@@ -3471,11 +3789,14 @@
       <c r="K13" s="1">
         <v>51</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D14" s="86"/>
       <c r="E14" s="1">
         <v>58</v>
@@ -3498,11 +3819,14 @@
       <c r="K14" s="1">
         <v>26</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D15" s="86"/>
       <c r="E15" s="1">
         <v>59</v>
@@ -3525,11 +3849,14 @@
       <c r="K15" s="1">
         <v>85</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D16" s="86"/>
       <c r="E16" s="1">
         <v>60</v>
@@ -3552,11 +3879,14 @@
       <c r="K16" s="1">
         <v>59</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D17" s="86"/>
       <c r="E17" s="1">
         <v>61</v>
@@ -3579,11 +3909,14 @@
       <c r="K17" s="1">
         <v>17</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" s="86"/>
       <c r="E18" s="1">
         <v>62</v>
@@ -3606,11 +3939,14 @@
       <c r="K18" s="1">
         <v>44</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" s="86"/>
       <c r="E19" s="1">
         <v>63</v>
@@ -3633,11 +3969,14 @@
       <c r="K19" s="1">
         <v>11</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" s="86"/>
       <c r="E20" s="1">
         <v>64</v>
@@ -3660,11 +3999,14 @@
       <c r="K20" s="1">
         <v>73</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" s="86"/>
       <c r="E21" s="1">
         <v>65</v>
@@ -3687,11 +4029,14 @@
       <c r="K21" s="1">
         <v>55</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" s="86"/>
       <c r="E22" s="1">
         <v>66</v>
@@ -3714,11 +4059,14 @@
       <c r="K22" s="1">
         <v>93</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" s="86"/>
       <c r="E23" s="1">
         <v>67</v>
@@ -3741,11 +4089,14 @@
       <c r="K23" s="1">
         <v>12</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D24" s="86"/>
       <c r="E24" s="1">
         <v>68</v>
@@ -3768,11 +4119,14 @@
       <c r="K24" s="1">
         <v>16</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D25" s="86"/>
       <c r="E25" s="1">
         <v>69</v>
@@ -3795,11 +4149,14 @@
       <c r="K25" s="1">
         <v>16</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D26" s="86"/>
       <c r="E26" s="1">
         <v>70</v>
@@ -3822,11 +4179,14 @@
       <c r="K26" s="1">
         <v>34</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D27" s="86"/>
       <c r="E27" s="1">
         <v>71</v>
@@ -3849,11 +4209,14 @@
       <c r="K27" s="1">
         <v>14</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D28" s="86"/>
       <c r="E28" s="1">
         <v>72</v>
@@ -3876,11 +4239,14 @@
       <c r="K28" s="1">
         <v>14</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D29" s="86"/>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -3909,12 +4275,16 @@
         <f t="shared" si="0"/>
         <v>46.208333333333336</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L29" s="72">
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="51">
+        <f t="shared" ref="M29" si="1">AVERAGE(M5:M28)</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D30" s="86" t="s">
         <v>15</v>
       </c>
@@ -3939,11 +4309,14 @@
       <c r="K30" s="1">
         <v>10</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D31" s="86"/>
       <c r="E31" s="1">
         <v>74</v>
@@ -3966,11 +4339,14 @@
       <c r="K31" s="1">
         <v>7</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D32" s="86"/>
       <c r="E32" s="1">
         <v>75</v>
@@ -3993,11 +4369,14 @@
       <c r="K32" s="1">
         <v>26</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D33" s="86"/>
       <c r="E33" s="1">
         <v>76</v>
@@ -4020,11 +4399,14 @@
       <c r="K33" s="1">
         <v>23</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D34" s="86"/>
       <c r="E34" s="1">
         <v>77</v>
@@ -4047,11 +4429,14 @@
       <c r="K34" s="1">
         <v>12</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D35" s="86"/>
       <c r="E35" s="1">
         <v>78</v>
@@ -4074,11 +4459,14 @@
       <c r="K35" s="1">
         <v>21</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D36" s="86"/>
       <c r="E36" s="1">
         <v>79</v>
@@ -4101,11 +4489,14 @@
       <c r="K36" s="1">
         <v>114</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D37" s="86"/>
       <c r="E37" s="1">
         <v>80</v>
@@ -4128,11 +4519,14 @@
       <c r="K37" s="1">
         <v>21</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D38" s="86"/>
       <c r="E38" s="1">
         <v>81</v>
@@ -4155,11 +4549,14 @@
       <c r="K38" s="1">
         <v>245</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D39" s="86"/>
       <c r="E39" s="1">
         <v>82</v>
@@ -4182,11 +4579,14 @@
       <c r="K39" s="1">
         <v>26</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D40" s="86"/>
       <c r="E40" s="1">
         <v>83</v>
@@ -4209,11 +4609,14 @@
       <c r="K40" s="1">
         <v>36</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D41" s="86"/>
       <c r="E41" s="1">
         <v>84</v>
@@ -4236,11 +4639,14 @@
       <c r="K41" s="1">
         <v>25</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D42" s="86"/>
       <c r="E42" s="1">
         <v>85</v>
@@ -4263,11 +4669,14 @@
       <c r="K42" s="1">
         <v>109</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D43" s="86"/>
       <c r="E43" s="1">
         <v>86</v>
@@ -4290,11 +4699,14 @@
       <c r="K43" s="1">
         <v>124</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D44" s="86"/>
       <c r="E44" s="1">
         <v>87</v>
@@ -4317,11 +4729,14 @@
       <c r="K44" s="1">
         <v>133</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D45" s="86"/>
       <c r="E45" s="1">
         <v>88</v>
@@ -4344,11 +4759,14 @@
       <c r="K45" s="1">
         <v>45</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D46" s="86"/>
       <c r="E46" s="1">
         <v>89</v>
@@ -4371,11 +4789,14 @@
       <c r="K46" s="1">
         <v>12</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D47" s="86"/>
       <c r="E47" s="1">
         <v>90</v>
@@ -4398,11 +4819,14 @@
       <c r="K47" s="1">
         <v>176</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="17">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D48" s="86"/>
       <c r="E48" s="1">
         <v>91</v>
@@ -4425,11 +4849,14 @@
       <c r="K48" s="1">
         <v>188</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D49" s="86"/>
       <c r="E49" s="1">
         <v>92</v>
@@ -4452,11 +4879,14 @@
       <c r="K49" s="1">
         <v>717</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="17">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D50" s="86"/>
       <c r="E50" s="1">
         <v>93</v>
@@ -4479,11 +4909,14 @@
       <c r="K50" s="1">
         <v>322</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="17">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D51" s="86"/>
       <c r="E51" s="1">
         <v>94</v>
@@ -4506,11 +4939,14 @@
       <c r="K51" s="1">
         <v>1341</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="1">
         <v>339</v>
       </c>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="17">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D52" s="86"/>
       <c r="E52" s="1">
         <v>95</v>
@@ -4533,11 +4969,14 @@
       <c r="K52" s="1">
         <v>356</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D53" s="86"/>
       <c r="E53" s="1">
         <v>96</v>
@@ -4560,11 +4999,14 @@
       <c r="K53" s="1">
         <v>1089</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="1">
         <v>267</v>
       </c>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="17">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D54" s="86"/>
       <c r="E54" s="3" t="s">
         <v>4</v>
@@ -4582,23 +5024,27 @@
         <v>45859.791666666664</v>
       </c>
       <c r="I54" s="72">
-        <f t="shared" ref="I54:L54" si="1">AVERAGE(I30:I53)</f>
+        <f t="shared" ref="I54:L54" si="2">AVERAGE(I30:I53)</f>
         <v>7598.833333333333</v>
       </c>
       <c r="J54" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.833333333333329</v>
       </c>
       <c r="K54" s="72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>215.75</v>
       </c>
-      <c r="L54" s="51">
-        <f t="shared" si="1"/>
+      <c r="L54" s="72">
+        <f t="shared" si="2"/>
         <v>80.708333333333329</v>
       </c>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="51">
+        <f t="shared" ref="M54" si="3">AVERAGE(M30:M53)</f>
+        <v>79.291666666666671</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D55" s="86" t="s">
         <v>16</v>
       </c>
@@ -4623,11 +5069,14 @@
       <c r="K55" s="1">
         <v>3439</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="1">
         <v>994</v>
       </c>
-    </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="17">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D56" s="86"/>
       <c r="E56" s="1">
         <v>98</v>
@@ -4650,11 +5099,14 @@
       <c r="K56" s="1">
         <v>7729</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="1">
         <v>2732</v>
       </c>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="17">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D57" s="86"/>
       <c r="E57" s="1">
         <v>99</v>
@@ -4677,11 +5129,14 @@
       <c r="K57" s="1">
         <v>62</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="1">
         <v>2653</v>
       </c>
-    </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="17">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D58" s="86"/>
       <c r="E58" s="1">
         <v>100</v>
@@ -4704,11 +5159,14 @@
       <c r="K58" s="1">
         <v>11641</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="1">
         <v>1795</v>
       </c>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="17">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D59" s="86"/>
       <c r="E59" s="1">
         <v>101</v>
@@ -4731,11 +5189,14 @@
       <c r="K59" s="1">
         <v>1762</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="1">
         <v>603</v>
       </c>
-    </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="17">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D60" s="86"/>
       <c r="E60" s="1">
         <v>102</v>
@@ -4758,11 +5219,14 @@
       <c r="K60" s="1">
         <v>258</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="1">
         <v>1082</v>
       </c>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="17">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D61" s="86"/>
       <c r="E61" s="1">
         <v>103</v>
@@ -4785,11 +5249,14 @@
       <c r="K61" s="1">
         <v>15401</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="1">
         <v>1339</v>
       </c>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="17">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D62" s="86"/>
       <c r="E62" s="1">
         <v>104</v>
@@ -4812,11 +5279,14 @@
       <c r="K62" s="1">
         <v>2453</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="1">
         <v>753</v>
       </c>
-    </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="17">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D63" s="86"/>
       <c r="E63" s="1">
         <v>105</v>
@@ -4839,11 +5309,14 @@
       <c r="K63" s="1">
         <v>2954</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="1">
         <v>715</v>
       </c>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="17">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D64" s="86"/>
       <c r="E64" s="1">
         <v>106</v>
@@ -4866,11 +5339,14 @@
       <c r="K64" s="1">
         <v>4603</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="1">
         <v>2319</v>
       </c>
-    </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="17">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D65" s="86"/>
       <c r="E65" s="1">
         <v>107</v>
@@ -4893,11 +5369,14 @@
       <c r="K65" s="1">
         <v>863</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="1">
         <v>723</v>
       </c>
-    </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="17">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D66" s="86"/>
       <c r="E66" s="1">
         <v>108</v>
@@ -4920,11 +5399,14 @@
       <c r="K66" s="1">
         <v>5249</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="1">
         <v>444</v>
       </c>
-    </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="17">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D67" s="86"/>
       <c r="E67" s="1">
         <v>109</v>
@@ -4947,11 +5429,14 @@
       <c r="K67" s="1">
         <v>7460</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L67" s="1">
         <v>3085</v>
       </c>
-    </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="17">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D68" s="86"/>
       <c r="E68" s="1">
         <v>110</v>
@@ -4974,11 +5459,14 @@
       <c r="K68" s="1">
         <v>6215</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L68" s="1">
         <v>2300</v>
       </c>
-    </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="17">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D69" s="86"/>
       <c r="E69" s="1">
         <v>111</v>
@@ -5001,11 +5489,14 @@
       <c r="K69" s="1">
         <v>1231</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="1">
         <v>4977</v>
       </c>
-    </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="17">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D70" s="86"/>
       <c r="E70" s="1">
         <v>112</v>
@@ -5028,11 +5519,14 @@
       <c r="K70" s="1">
         <v>7090</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="1">
         <v>1083</v>
       </c>
-    </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="17">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D71" s="86"/>
       <c r="E71" s="1">
         <v>113</v>
@@ -5055,11 +5549,14 @@
       <c r="K71" s="1">
         <v>11005</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="1">
         <v>2498</v>
       </c>
-    </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="17">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D72" s="86"/>
       <c r="E72" s="1">
         <v>114</v>
@@ -5082,11 +5579,14 @@
       <c r="K72" s="1">
         <v>10093</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="1">
         <v>2593</v>
       </c>
-    </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="17">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D73" s="86"/>
       <c r="E73" s="1">
         <v>115</v>
@@ -5109,11 +5609,14 @@
       <c r="K73" s="1">
         <v>3998</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="1">
         <v>5003</v>
       </c>
-    </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="17">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D74" s="86"/>
       <c r="E74" s="1">
         <v>116</v>
@@ -5136,11 +5639,14 @@
       <c r="K74" s="1">
         <v>1696</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L74" s="1">
         <v>4202</v>
       </c>
-    </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="17">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D75" s="86"/>
       <c r="E75" s="1">
         <v>117</v>
@@ -5163,11 +5669,14 @@
       <c r="K75" s="1">
         <v>9751</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L75" s="1">
         <v>2447</v>
       </c>
-    </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="17">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D76" s="86"/>
       <c r="E76" s="1">
         <v>118</v>
@@ -5190,11 +5699,14 @@
       <c r="K76" s="1">
         <v>8146</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L76" s="1">
         <v>2076</v>
       </c>
-    </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="17">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D77" s="86"/>
       <c r="E77" s="1">
         <v>119</v>
@@ -5217,11 +5729,14 @@
       <c r="K77" s="1">
         <v>4895</v>
       </c>
-      <c r="L77" s="17">
+      <c r="L77" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D78" s="86"/>
       <c r="E78" s="1">
         <v>120</v>
@@ -5244,11 +5759,14 @@
       <c r="K78" s="1">
         <v>4334</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L78" s="1">
         <v>2330</v>
       </c>
-    </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M78" s="17">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D79" s="86"/>
       <c r="E79" s="3" t="s">
         <v>5</v>
@@ -5266,23 +5784,27 @@
         <v>1614236.7916666667</v>
       </c>
       <c r="I79" s="73">
-        <f t="shared" ref="I79:L79" si="2" xml:space="preserve"> AVERAGE(I55:I78)</f>
+        <f t="shared" ref="I79:L79" si="4" xml:space="preserve"> AVERAGE(I55:I78)</f>
         <v>412760.04166666669</v>
       </c>
       <c r="J79" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2096.7083333333335</v>
       </c>
       <c r="K79" s="73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5513.666666666667</v>
       </c>
-      <c r="L79" s="52">
-        <f t="shared" si="2"/>
+      <c r="L79" s="73">
+        <f t="shared" si="4"/>
         <v>2034.5416666666667</v>
       </c>
-    </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M79" s="52">
+        <f t="shared" ref="M79" si="5" xml:space="preserve"> AVERAGE(M55:M78)</f>
+        <v>1966.0416666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D80" s="87" t="s">
         <v>8</v>
       </c>
@@ -5300,68 +5822,77 @@
         <v>553538.3194444445</v>
       </c>
       <c r="I80" s="74">
-        <f t="shared" ref="I80:L80" si="3">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I80:L80" si="6">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
         <v>140189.19444444444</v>
       </c>
       <c r="J80" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>736.68055555555554</v>
       </c>
       <c r="K80" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1925.2083333333333</v>
       </c>
-      <c r="L80" s="67">
-        <f t="shared" si="3"/>
+      <c r="L80" s="74">
+        <f t="shared" si="6"/>
         <v>715.25</v>
       </c>
-    </row>
-    <row r="81" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D81" s="89" t="s">
+      <c r="M80" s="67">
+        <f t="shared" ref="M80" si="7">AVERAGE(M5:M28,M30:M53,M55:M78)</f>
+        <v>691.94444444444446</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D81" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="90"/>
+      <c r="E81" s="93"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18">
-        <f t="shared" ref="G81:L81" si="4">SUM(G5:G28,G30:G53,G55:G78)</f>
+        <f t="shared" ref="G81:L81" si="8">SUM(G5:G28,G30:G53,G55:G78)</f>
         <v>126489448</v>
       </c>
       <c r="H81" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>39854759</v>
       </c>
       <c r="I81" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10093622</v>
       </c>
       <c r="J81" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>53041</v>
       </c>
       <c r="K81" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>138615</v>
       </c>
-      <c r="L81" s="68">
-        <f t="shared" si="4"/>
+      <c r="L81" s="18">
+        <f t="shared" si="8"/>
         <v>51498</v>
       </c>
-    </row>
-    <row r="82" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D83" s="91" t="s">
+      <c r="M81" s="68">
+        <f t="shared" ref="M81" si="9">SUM(M5:M28,M30:M53,M55:M78)</f>
+        <v>49820</v>
+      </c>
+    </row>
+    <row r="82" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D83" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="92"/>
-      <c r="K83" s="92"/>
-      <c r="L83" s="93"/>
-    </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="90"/>
+      <c r="L83" s="90"/>
+      <c r="M83" s="91"/>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D84" s="4" t="s">
         <v>1</v>
       </c>
@@ -5386,11 +5917,14 @@
       <c r="K84" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="L84" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D85" s="86" t="s">
         <v>14</v>
       </c>
@@ -5420,756 +5954,856 @@
         <f xml:space="preserve"> -1 + K5/I5 * 1</f>
         <v>-5.1282051282051322E-2</v>
       </c>
-      <c r="L85" s="81">
+      <c r="L85" s="82">
         <f xml:space="preserve"> -1 + L5/J5 * 1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="81">
+        <f xml:space="preserve"> -1 + M5/J5 * 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D86" s="86"/>
       <c r="E86" s="1">
         <v>50</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="34">
-        <f t="shared" ref="G86:I111" si="5" xml:space="preserve"> -1 + G6/F6 * 1</f>
+        <f t="shared" ref="G86:I111" si="10" xml:space="preserve"> -1 + G6/F6 * 1</f>
         <v>0</v>
       </c>
       <c r="H86" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I86" s="34">
-        <f t="shared" ref="I86:I108" si="6" xml:space="preserve"> -1 + I6/H6 * 1</f>
+        <f t="shared" ref="I86:I108" si="11" xml:space="preserve"> -1 + I6/H6 * 1</f>
         <v>-3.3057851239669422E-2</v>
       </c>
       <c r="J86" s="82">
-        <f t="shared" ref="J86:J149" si="7" xml:space="preserve"> -1 + J6/I6 * 1</f>
+        <f t="shared" ref="J86:J149" si="12" xml:space="preserve"> -1 + J6/I6 * 1</f>
         <v>-0.84615384615384615</v>
       </c>
       <c r="K86" s="82">
-        <f t="shared" ref="K86:L149" si="8" xml:space="preserve"> -1 + K6/I6 * 1</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="81">
-        <f t="shared" ref="L86:L108" si="9" xml:space="preserve"> -1 + L6/J6 * 1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K86:M149" si="13" xml:space="preserve"> -1 + K6/I6 * 1</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="82">
+        <f t="shared" ref="L86:M108" si="14" xml:space="preserve"> -1 + L6/J6 * 1</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="81">
+        <f t="shared" ref="M86:M108" si="15" xml:space="preserve"> -1 + M6/J6 * 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D87" s="86"/>
       <c r="E87" s="1">
         <v>51</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H87" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I87" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.4</v>
       </c>
       <c r="J87" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.96231884057971018</v>
       </c>
       <c r="K87" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.95652173913043481</v>
       </c>
-      <c r="L87" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D88" s="86"/>
       <c r="E88" s="1">
         <v>52</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H88" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I88" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.4444444444444509E-2</v>
       </c>
       <c r="J88" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.44680851063829785</v>
       </c>
       <c r="K88" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.21276595744680848</v>
       </c>
-      <c r="L88" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D89" s="86"/>
       <c r="E89" s="1">
         <v>53</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H89" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I89" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.2499999999999956E-2</v>
       </c>
       <c r="J89" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.56790123456790131</v>
       </c>
       <c r="K89" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1.2345679012345734E-2</v>
       </c>
-      <c r="L89" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D90" s="86"/>
       <c r="E90" s="1">
         <v>54</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H90" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I90" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J90" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.52857142857142858</v>
       </c>
       <c r="K90" s="82">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D91" s="86"/>
       <c r="E91" s="1">
         <v>55</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H91" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I91" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-8.0459770114942541E-2</v>
       </c>
       <c r="J91" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.21250000000000002</v>
       </c>
       <c r="K91" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.13749999999999996</v>
       </c>
-      <c r="L91" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D92" s="86"/>
       <c r="E92" s="1">
         <v>56</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H92" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I92" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="J92" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.125</v>
       </c>
       <c r="K92" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L92" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D93" s="86"/>
       <c r="E93" s="1">
         <v>57</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H93" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I93" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.36842105263157898</v>
       </c>
       <c r="J93" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.69047619047619047</v>
       </c>
       <c r="K93" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.3928571428571429</v>
       </c>
-      <c r="L93" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D94" s="86"/>
       <c r="E94" s="1">
         <v>58</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H94" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I94" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.64544319600499378</v>
       </c>
       <c r="J94" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.96126760563380287</v>
       </c>
       <c r="K94" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.90845070422535212</v>
       </c>
-      <c r="L94" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D95" s="86"/>
       <c r="E95" s="1">
         <v>59</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H95" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I95" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.2989690721649485</v>
       </c>
       <c r="J95" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.75</v>
       </c>
       <c r="K95" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.375</v>
       </c>
-      <c r="L95" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L95" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D96" s="86"/>
       <c r="E96" s="1">
         <v>60</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H96" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I96" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="J96" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.16000000000000003</v>
       </c>
       <c r="K96" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.21333333333333337</v>
       </c>
-      <c r="L96" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D97" s="86"/>
       <c r="E97" s="1">
         <v>61</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H97" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I97" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="J97" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.91489361702127658</v>
       </c>
       <c r="K97" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.87943262411347523</v>
       </c>
-      <c r="L97" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D98" s="86"/>
       <c r="E98" s="1">
         <v>62</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H98" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I98" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.20512820512820518</v>
       </c>
       <c r="J98" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.30645161290322576</v>
       </c>
       <c r="K98" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.29032258064516125</v>
       </c>
-      <c r="L98" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D99" s="86"/>
       <c r="E99" s="1">
         <v>63</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H99" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I99" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J99" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.9090909090909092</v>
       </c>
       <c r="K99" s="82">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L99" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D100" s="86"/>
       <c r="E100" s="1">
         <v>64</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H100" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I100" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.15189873417721511</v>
       </c>
       <c r="J100" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.73626373626373631</v>
       </c>
       <c r="K100" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.19780219780219777</v>
       </c>
-      <c r="L100" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L100" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D101" s="86"/>
       <c r="E101" s="1">
         <v>65</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H101" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I101" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-9.4594594594594628E-2</v>
       </c>
       <c r="J101" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.58208955223880599</v>
       </c>
       <c r="K101" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.17910447761194026</v>
       </c>
-      <c r="L101" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L101" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D102" s="86"/>
       <c r="E102" s="1">
         <v>66</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H102" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I102" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.33796296296296291</v>
       </c>
       <c r="J102" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.73426573426573427</v>
       </c>
       <c r="K102" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.34965034965034969</v>
       </c>
-      <c r="L102" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L102" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D103" s="86"/>
       <c r="E103" s="1">
         <v>67</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H103" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I103" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="J103" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.5</v>
       </c>
       <c r="K103" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.73913043478260865</v>
       </c>
-      <c r="L103" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D104" s="86"/>
       <c r="E104" s="1">
         <v>68</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H104" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I104" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.2727272727272707E-2</v>
       </c>
       <c r="J104" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="K104" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.64444444444444438</v>
       </c>
-      <c r="L104" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L104" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D105" s="86"/>
       <c r="E105" s="1">
         <v>69</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H105" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I105" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.70653311406787256</v>
       </c>
       <c r="J105" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.99490575649516044</v>
       </c>
       <c r="K105" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.99184921039225671</v>
       </c>
-      <c r="L105" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L105" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D106" s="86"/>
       <c r="E106" s="1">
         <v>70</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H106" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I106" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.68532289628180032</v>
       </c>
       <c r="J106" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.97885572139303478</v>
       </c>
       <c r="K106" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.95771144278606968</v>
       </c>
-      <c r="L106" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L106" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D107" s="86"/>
       <c r="E107" s="1">
         <v>71</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H107" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I107" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-0.13978494623655913</v>
       </c>
       <c r="J107" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.9</v>
       </c>
       <c r="K107" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.91249999999999998</v>
       </c>
-      <c r="L107" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L107" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D108" s="86"/>
       <c r="E108" s="1">
         <v>72</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H108" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I108" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-2.1276595744680882E-2</v>
       </c>
       <c r="J108" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.39130434782608692</v>
       </c>
       <c r="K108" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.69565217391304346</v>
       </c>
-      <c r="L108" s="81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L108" s="82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="81">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D109" s="86"/>
       <c r="E109" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="35">
-        <f t="shared" ref="G109:L109" si="10">AVERAGE(G85:G108)</f>
+        <f t="shared" ref="G109:M109" si="16">AVERAGE(G85:G108)</f>
         <v>0</v>
       </c>
       <c r="H109" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I109" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.11346025597859227</v>
       </c>
       <c r="J109" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.44856467543969653</v>
       </c>
       <c r="K109" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-0.4253653189391719</v>
       </c>
-      <c r="L109" s="36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L109" s="35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D110" s="86" t="s">
         <v>15</v>
       </c>
@@ -6178,589 +6812,665 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H110" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.25937500000000002</v>
       </c>
       <c r="I110" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.92194092827004215</v>
       </c>
       <c r="J110" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.72972972972972971</v>
       </c>
       <c r="K110" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.72972972972972971</v>
       </c>
-      <c r="L110" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L110" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="81">
+        <f xml:space="preserve"> -1 + M30/J30 * 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D111" s="86"/>
       <c r="E111" s="1">
         <v>74</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="34">
-        <f t="shared" ref="G111:H111" si="11" xml:space="preserve"> -1 + G31/F31 * 1</f>
+        <f t="shared" ref="G111:H111" si="17" xml:space="preserve"> -1 + G31/F31 * 1</f>
         <v>0</v>
       </c>
       <c r="H111" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.21739130434782605</v>
       </c>
       <c r="I111" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>-0.11805555555555558</v>
       </c>
       <c r="J111" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.94488188976377951</v>
       </c>
       <c r="K111" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.94488188976377951</v>
       </c>
-      <c r="L111" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L111" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="81">
+        <f t="shared" ref="M111:M133" si="18" xml:space="preserve"> -1 + M31/J31 * 1</f>
+        <v>-0.1428571428571429</v>
+      </c>
+    </row>
+    <row r="112" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D112" s="86"/>
       <c r="E112" s="1">
         <v>75</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="34">
-        <f t="shared" ref="G112:I127" si="12" xml:space="preserve"> -1 + G32/F32 * 1</f>
+        <f t="shared" ref="G112:I127" si="19" xml:space="preserve"> -1 + G32/F32 * 1</f>
         <v>0</v>
       </c>
       <c r="H112" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.77243589743589747</v>
+      </c>
+      <c r="I112" s="34">
+        <f t="shared" si="19"/>
+        <v>0.60563380281690149</v>
+      </c>
+      <c r="J112" s="82">
         <f t="shared" si="12"/>
-        <v>-0.77243589743589747</v>
-      </c>
-      <c r="I112" s="34">
-        <f t="shared" si="12"/>
-        <v>0.60563380281690149</v>
-      </c>
-      <c r="J112" s="82">
-        <f t="shared" si="7"/>
         <v>-0.77192982456140347</v>
       </c>
       <c r="K112" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.77192982456140347</v>
       </c>
-      <c r="L112" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L112" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="81">
+        <f t="shared" si="18"/>
+        <v>-3.8461538461538436E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D113" s="86"/>
       <c r="E113" s="1">
         <v>76</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="34">
-        <f t="shared" ref="G113:H113" si="13" xml:space="preserve"> -1 + G33/F33 * 1</f>
+        <f t="shared" ref="G113:H113" si="20" xml:space="preserve"> -1 + G33/F33 * 1</f>
         <v>0</v>
       </c>
       <c r="H113" s="34">
+        <f t="shared" si="20"/>
+        <v>-0.11111111111111116</v>
+      </c>
+      <c r="I113" s="34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="82">
+        <f t="shared" si="12"/>
+        <v>0.4375</v>
+      </c>
+      <c r="K113" s="82">
         <f t="shared" si="13"/>
-        <v>-0.11111111111111116</v>
-      </c>
-      <c r="I113" s="34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="82">
-        <f t="shared" si="7"/>
         <v>0.4375</v>
       </c>
-      <c r="K113" s="82">
-        <f t="shared" si="8"/>
-        <v>0.4375</v>
-      </c>
-      <c r="L113" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L113" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D114" s="86"/>
       <c r="E114" s="1">
         <v>77</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="34">
-        <f t="shared" ref="G114:H114" si="14" xml:space="preserve"> -1 + G34/F34 * 1</f>
+        <f t="shared" ref="G114:H114" si="21" xml:space="preserve"> -1 + G34/F34 * 1</f>
         <v>0</v>
       </c>
       <c r="H114" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>-0.72662977713553967</v>
       </c>
       <c r="I114" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.94554987322188322</v>
+      </c>
+      <c r="J114" s="82">
         <f t="shared" si="12"/>
-        <v>-0.94554987322188322</v>
-      </c>
-      <c r="J114" s="82">
-        <f t="shared" si="7"/>
         <v>-0.9905288082083662</v>
       </c>
       <c r="K114" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.9905288082083662</v>
       </c>
-      <c r="L114" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L114" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D115" s="86"/>
       <c r="E115" s="1">
         <v>78</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="34">
-        <f t="shared" ref="G115:H115" si="15" xml:space="preserve"> -1 + G35/F35 * 1</f>
+        <f t="shared" ref="G115:H115" si="22" xml:space="preserve"> -1 + G35/F35 * 1</f>
         <v>-3.0735162024231322E-5</v>
       </c>
       <c r="H115" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.89525134835458098</v>
       </c>
       <c r="I115" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.58730927230046948</v>
+      </c>
+      <c r="J115" s="82">
         <f t="shared" si="12"/>
-        <v>-0.58730927230046948</v>
-      </c>
-      <c r="J115" s="82">
-        <f t="shared" si="7"/>
         <v>-0.99962671975541262</v>
       </c>
       <c r="K115" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.99962671975541262</v>
       </c>
-      <c r="L115" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L115" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D116" s="86"/>
       <c r="E116" s="1">
         <v>79</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="34">
-        <f t="shared" ref="G116:H116" si="16" xml:space="preserve"> -1 + G36/F36 * 1</f>
+        <f t="shared" ref="G116:H116" si="23" xml:space="preserve"> -1 + G36/F36 * 1</f>
         <v>-5.2631578947368585E-3</v>
       </c>
       <c r="H116" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>-0.12698412698412698</v>
       </c>
       <c r="I116" s="34">
+        <f t="shared" si="19"/>
+        <v>-4.8484848484848464E-2</v>
+      </c>
+      <c r="J116" s="82">
         <f t="shared" si="12"/>
-        <v>-4.8484848484848464E-2</v>
-      </c>
-      <c r="J116" s="82">
-        <f t="shared" si="7"/>
         <v>-0.90445859872611467</v>
       </c>
       <c r="K116" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.27388535031847139</v>
       </c>
-      <c r="L116" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D117" s="86"/>
       <c r="E117" s="1">
         <v>80</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="34">
-        <f t="shared" ref="G117:H117" si="17" xml:space="preserve"> -1 + G37/F37 * 1</f>
+        <f t="shared" ref="G117:H117" si="24" xml:space="preserve"> -1 + G37/F37 * 1</f>
         <v>0</v>
       </c>
       <c r="H117" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-0.21052631578947367</v>
       </c>
       <c r="I117" s="34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="82">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="82">
-        <f t="shared" si="7"/>
         <v>-0.53333333333333333</v>
       </c>
       <c r="K117" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="L117" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L117" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D118" s="86"/>
       <c r="E118" s="1">
         <v>81</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="34">
-        <f t="shared" ref="G118:H118" si="18" xml:space="preserve"> -1 + G38/F38 * 1</f>
+        <f t="shared" ref="G118:H118" si="25" xml:space="preserve"> -1 + G38/F38 * 1</f>
         <v>-1.1009376318826813E-4</v>
       </c>
       <c r="H118" s="34">
+        <f t="shared" si="25"/>
+        <v>-0.50283522654285873</v>
+      </c>
+      <c r="I118" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.66672818544219692</v>
+      </c>
+      <c r="J118" s="82">
+        <f t="shared" si="12"/>
+        <v>-0.9914719238010854</v>
+      </c>
+      <c r="K118" s="82">
+        <f t="shared" si="13"/>
+        <v>-0.97286521209436261</v>
+      </c>
+      <c r="L118" s="82">
+        <f t="shared" si="13"/>
+        <v>-5.1948051948051965E-2</v>
+      </c>
+      <c r="M118" s="81">
         <f t="shared" si="18"/>
-        <v>-0.50283522654285873</v>
-      </c>
-      <c r="I118" s="34">
-        <f t="shared" si="12"/>
-        <v>-0.66672818544219692</v>
-      </c>
-      <c r="J118" s="82">
-        <f t="shared" si="7"/>
-        <v>-0.9914719238010854</v>
-      </c>
-      <c r="K118" s="82">
-        <f t="shared" si="8"/>
-        <v>-0.97286521209436261</v>
-      </c>
-      <c r="L118" s="81">
-        <f t="shared" si="8"/>
         <v>-5.1948051948051965E-2</v>
       </c>
     </row>
-    <row r="119" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D119" s="86"/>
       <c r="E119" s="1">
         <v>82</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="34">
-        <f t="shared" ref="G119:H119" si="19" xml:space="preserve"> -1 + G39/F39 * 1</f>
+        <f t="shared" ref="G119:H119" si="26" xml:space="preserve"> -1 + G39/F39 * 1</f>
         <v>0</v>
       </c>
       <c r="H119" s="34">
+        <f t="shared" si="26"/>
+        <v>-0.52272727272727271</v>
+      </c>
+      <c r="I119" s="34">
         <f t="shared" si="19"/>
-        <v>-0.52272727272727271</v>
-      </c>
-      <c r="I119" s="34">
+        <v>0</v>
+      </c>
+      <c r="J119" s="82">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="82">
-        <f t="shared" si="7"/>
         <v>-0.65476190476190477</v>
       </c>
       <c r="K119" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.69047619047619047</v>
       </c>
-      <c r="L119" s="81">
-        <f t="shared" si="8"/>
+      <c r="L119" s="82">
+        <f t="shared" si="13"/>
         <v>-3.4482758620689613E-2</v>
       </c>
-    </row>
-    <row r="120" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M119" s="81">
+        <f t="shared" si="18"/>
+        <v>-0.10344827586206895</v>
+      </c>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D120" s="86"/>
       <c r="E120" s="1">
         <v>83</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="34">
-        <f t="shared" ref="G120:H120" si="20" xml:space="preserve"> -1 + G40/F40 * 1</f>
+        <f t="shared" ref="G120:H120" si="27" xml:space="preserve"> -1 + G40/F40 * 1</f>
         <v>0</v>
       </c>
       <c r="H120" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-0.56803005008347252</v>
       </c>
       <c r="I120" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.62222222222222223</v>
+      </c>
+      <c r="J120" s="82">
         <f t="shared" si="12"/>
-        <v>-0.62222222222222223</v>
-      </c>
-      <c r="J120" s="82">
-        <f t="shared" si="7"/>
         <v>-0.97186700767263423</v>
       </c>
       <c r="K120" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.90792838874680304</v>
       </c>
-      <c r="L120" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L120" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D121" s="86"/>
       <c r="E121" s="1">
         <v>84</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="34">
-        <f t="shared" ref="G121:H121" si="21" xml:space="preserve"> -1 + G41/F41 * 1</f>
+        <f t="shared" ref="G121:H121" si="28" xml:space="preserve"> -1 + G41/F41 * 1</f>
         <v>0</v>
       </c>
       <c r="H121" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>-0.12903225806451613</v>
       </c>
       <c r="I121" s="34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="82">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="82">
-        <f t="shared" si="7"/>
         <v>-0.14814814814814814</v>
       </c>
       <c r="K121" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-7.407407407407407E-2</v>
       </c>
-      <c r="L121" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L121" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D122" s="86"/>
       <c r="E122" s="1">
         <v>85</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="34">
-        <f t="shared" ref="G122:H122" si="22" xml:space="preserve"> -1 + G42/F42 * 1</f>
+        <f t="shared" ref="G122:H122" si="29" xml:space="preserve"> -1 + G42/F42 * 1</f>
         <v>0</v>
       </c>
       <c r="H122" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>-0.63389656938044037</v>
       </c>
       <c r="I122" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.56503496503496509</v>
+      </c>
+      <c r="J122" s="82">
         <f t="shared" si="12"/>
-        <v>-0.56503496503496509</v>
-      </c>
-      <c r="J122" s="82">
-        <f t="shared" si="7"/>
         <v>-0.962486602357985</v>
       </c>
       <c r="K122" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.88317256162915325</v>
       </c>
-      <c r="L122" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L122" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D123" s="86"/>
       <c r="E123" s="1">
         <v>86</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="34">
-        <f t="shared" ref="G123:H123" si="23" xml:space="preserve"> -1 + G43/F43 * 1</f>
+        <f t="shared" ref="G123:H123" si="30" xml:space="preserve"> -1 + G43/F43 * 1</f>
         <v>0</v>
       </c>
       <c r="H123" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>-0.46081955427749821</v>
       </c>
       <c r="I123" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.36533333333333329</v>
+      </c>
+      <c r="J123" s="82">
         <f t="shared" si="12"/>
-        <v>-0.36533333333333329</v>
-      </c>
-      <c r="J123" s="82">
-        <f t="shared" si="7"/>
         <v>-0.91596638655462181</v>
       </c>
       <c r="K123" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.73949579831932777</v>
       </c>
-      <c r="L123" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L123" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D124" s="86"/>
       <c r="E124" s="1">
         <v>87</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="34">
-        <f t="shared" ref="G124:H124" si="24" xml:space="preserve"> -1 + G44/F44 * 1</f>
+        <f t="shared" ref="G124:H124" si="31" xml:space="preserve"> -1 + G44/F44 * 1</f>
         <v>-1.4098572519531949E-3</v>
       </c>
       <c r="H124" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>-0.42843696688040478</v>
       </c>
       <c r="I124" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.62885961300946891</v>
+      </c>
+      <c r="J124" s="82">
         <f t="shared" si="12"/>
-        <v>-0.62885961300946891</v>
-      </c>
-      <c r="J124" s="82">
-        <f t="shared" si="7"/>
         <v>-0.98252911813643928</v>
       </c>
       <c r="K124" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.96311702717692738</v>
       </c>
-      <c r="L124" s="81">
-        <f t="shared" si="8"/>
+      <c r="L124" s="82">
+        <f t="shared" si="13"/>
         <v>-6.3492063492063489E-2</v>
       </c>
-    </row>
-    <row r="125" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M124" s="81">
+        <f t="shared" si="18"/>
+        <v>-6.3492063492063489E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D125" s="86"/>
       <c r="E125" s="1">
         <v>88</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="34">
-        <f t="shared" ref="G125:H125" si="25" xml:space="preserve"> -1 + G45/F45 * 1</f>
+        <f t="shared" ref="G125:H125" si="32" xml:space="preserve"> -1 + G45/F45 * 1</f>
         <v>-7.6573976181825376E-2</v>
       </c>
       <c r="H125" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>-0.71803681442602829</v>
       </c>
       <c r="I125" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.95871041770769716</v>
+      </c>
+      <c r="J125" s="82">
         <f t="shared" si="12"/>
-        <v>-0.95871041770769716</v>
-      </c>
-      <c r="J125" s="82">
-        <f t="shared" si="7"/>
         <v>-0.99596593455849391</v>
       </c>
       <c r="K125" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.99596593455849391</v>
       </c>
-      <c r="L125" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L125" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="81">
+        <f t="shared" si="18"/>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D126" s="86"/>
       <c r="E126" s="1">
         <v>89</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="34">
-        <f t="shared" ref="G126:H126" si="26" xml:space="preserve"> -1 + G46/F46 * 1</f>
+        <f t="shared" ref="G126:H126" si="33" xml:space="preserve"> -1 + G46/F46 * 1</f>
         <v>-7.0615048243349854E-5</v>
       </c>
       <c r="H126" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>-0.56386920110202565</v>
       </c>
       <c r="I126" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.93827457854223884</v>
+      </c>
+      <c r="J126" s="82">
         <f t="shared" si="12"/>
-        <v>-0.93827457854223884</v>
-      </c>
-      <c r="J126" s="82">
-        <f t="shared" si="7"/>
         <v>-0.99960650577124865</v>
       </c>
       <c r="K126" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.99960650577124865</v>
       </c>
-      <c r="L126" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L126" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D127" s="86"/>
       <c r="E127" s="1">
         <v>90</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="34">
-        <f t="shared" ref="G127:H127" si="27" xml:space="preserve"> -1 + G47/F47 * 1</f>
+        <f t="shared" ref="G127:H127" si="34" xml:space="preserve"> -1 + G47/F47 * 1</f>
         <v>-1.5206234556197629E-5</v>
       </c>
       <c r="H127" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>-0.67228545577579579</v>
       </c>
       <c r="I127" s="34">
+        <f t="shared" si="19"/>
+        <v>-0.87009883532086674</v>
+      </c>
+      <c r="J127" s="82">
         <f t="shared" si="12"/>
-        <v>-0.87009883532086674</v>
-      </c>
-      <c r="J127" s="82">
-        <f t="shared" si="7"/>
         <v>-0.96856581532416508</v>
       </c>
       <c r="K127" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.96856581532416508</v>
       </c>
-      <c r="L127" s="81">
-        <f t="shared" si="8"/>
+      <c r="L127" s="82">
+        <f t="shared" si="13"/>
         <v>-3.4090909090909061E-2</v>
       </c>
-    </row>
-    <row r="128" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M127" s="81">
+        <f t="shared" si="18"/>
+        <v>-4.5454545454545414E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D128" s="86"/>
       <c r="E128" s="1">
         <v>91</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="34">
-        <f t="shared" ref="G128:I133" si="28" xml:space="preserve"> -1 + G48/F48 * 1</f>
+        <f t="shared" ref="G128:I133" si="35" xml:space="preserve"> -1 + G48/F48 * 1</f>
         <v>0</v>
       </c>
       <c r="H128" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-0.58930891412765596</v>
       </c>
       <c r="I128" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>0.5828868819837747</v>
       </c>
       <c r="J128" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.99393998001482775</v>
       </c>
       <c r="K128" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.99393998001482775</v>
       </c>
-      <c r="L128" s="81">
-        <f t="shared" si="8"/>
+      <c r="L128" s="82">
+        <f t="shared" si="13"/>
         <v>-3.1914893617021267E-2</v>
       </c>
-    </row>
-    <row r="129" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M128" s="81">
+        <f t="shared" si="18"/>
+        <v>-0.10106382978723405</v>
+      </c>
+    </row>
+    <row r="129" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D129" s="86"/>
       <c r="E129" s="1">
         <v>92</v>
@@ -6768,182 +7478,206 @@
       <c r="F129" s="11"/>
       <c r="G129" s="34"/>
       <c r="H129" s="34">
-        <f t="shared" ref="H129" si="29" xml:space="preserve"> -1 + H49/G49 * 1</f>
+        <f t="shared" ref="H129" si="36" xml:space="preserve"> -1 + H49/G49 * 1</f>
         <v>-0.59303704205552066</v>
       </c>
       <c r="I129" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-0.64890229944854849</v>
       </c>
       <c r="J129" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.98773115220483643</v>
       </c>
       <c r="K129" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.95750355618776672</v>
       </c>
-      <c r="L129" s="81">
-        <f t="shared" si="8"/>
+      <c r="L129" s="82">
+        <f t="shared" si="13"/>
         <v>-4.3478260869565188E-2</v>
       </c>
-    </row>
-    <row r="130" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M129" s="81">
+        <f t="shared" si="18"/>
+        <v>-5.7971014492753659E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D130" s="86"/>
       <c r="E130" s="1">
         <v>93</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="34">
-        <f t="shared" ref="G130:H130" si="30" xml:space="preserve"> -1 + G50/F50 * 1</f>
+        <f t="shared" ref="G130:H130" si="37" xml:space="preserve"> -1 + G50/F50 * 1</f>
         <v>-3.4740780331373733E-3</v>
       </c>
       <c r="H130" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>-0.65915795119334941</v>
       </c>
       <c r="I130" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-0.36506687647521641</v>
       </c>
       <c r="J130" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.76703841387856264</v>
       </c>
       <c r="K130" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.60099132589838911</v>
       </c>
-      <c r="L130" s="81">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L130" s="82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="81">
+        <f t="shared" si="18"/>
+        <v>-1.0638297872340385E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D131" s="86"/>
       <c r="E131" s="1">
         <v>94</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="34">
-        <f t="shared" ref="G131:H131" si="31" xml:space="preserve"> -1 + G51/F51 * 1</f>
+        <f t="shared" ref="G131:H131" si="38" xml:space="preserve"> -1 + G51/F51 * 1</f>
         <v>-1.4950060436414558E-2</v>
       </c>
       <c r="H131" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>-0.54491733402221643</v>
       </c>
       <c r="I131" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-0.42035052863123534</v>
       </c>
       <c r="J131" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.95801199657240788</v>
       </c>
       <c r="K131" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.83584282041865587</v>
       </c>
-      <c r="L131" s="81">
-        <f t="shared" si="8"/>
+      <c r="L131" s="82">
+        <f t="shared" si="13"/>
         <v>-1.1661807580174877E-2</v>
       </c>
-    </row>
-    <row r="132" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M131" s="81">
+        <f t="shared" si="18"/>
+        <v>-1.7492711370262426E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D132" s="86"/>
       <c r="E132" s="1">
         <v>95</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="34">
-        <f t="shared" ref="G132:H132" si="32" xml:space="preserve"> -1 + G52/F52 * 1</f>
+        <f t="shared" ref="G132:H132" si="39" xml:space="preserve"> -1 + G52/F52 * 1</f>
         <v>0</v>
       </c>
       <c r="H132" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>-0.64425572068884174</v>
       </c>
       <c r="I132" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-0.19761273209549068</v>
       </c>
       <c r="J132" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.87355371900826451</v>
       </c>
       <c r="K132" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.70578512396694215</v>
       </c>
-      <c r="L132" s="81">
-        <f t="shared" si="8"/>
+      <c r="L132" s="82">
+        <f t="shared" si="13"/>
         <v>-9.1503267973856217E-2</v>
       </c>
-    </row>
-    <row r="133" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M132" s="81">
+        <f t="shared" si="18"/>
+        <v>-9.1503267973856217E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D133" s="86"/>
       <c r="E133" s="1">
         <v>96</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="34">
-        <f t="shared" ref="G133:J158" si="33" xml:space="preserve"> -1 + G53/F53 * 1</f>
+        <f t="shared" ref="G133:J158" si="40" xml:space="preserve"> -1 + G53/F53 * 1</f>
         <v>-1.0452156840099369E-2</v>
       </c>
       <c r="H133" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.5655345471521942</v>
       </c>
       <c r="I133" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-0.39704499664204163</v>
       </c>
       <c r="J133" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.93985297393628875</v>
       </c>
       <c r="K133" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.75740699487636443</v>
       </c>
-      <c r="L133" s="81">
-        <f t="shared" si="8"/>
+      <c r="L133" s="82">
+        <f t="shared" si="13"/>
         <v>-1.1111111111111072E-2</v>
       </c>
-    </row>
-    <row r="134" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M133" s="81">
+        <f t="shared" si="18"/>
+        <v>-2.9629629629629672E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D134" s="86"/>
       <c r="E134" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="35">
-        <f t="shared" ref="G134:L134" si="34">AVERAGE(G110:G133)</f>
+        <f t="shared" ref="G134:M134" si="41">AVERAGE(G110:G133)</f>
         <v>-4.8847798628773378E-3</v>
       </c>
       <c r="H134" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-0.50482857331911035</v>
       </c>
       <c r="I134" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-0.37821080737240176</v>
       </c>
       <c r="J134" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-0.8145202702825024</v>
       </c>
       <c r="K134" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>-0.7341591513279524</v>
       </c>
-      <c r="L134" s="36">
-        <f t="shared" si="34"/>
+      <c r="L134" s="35">
+        <f t="shared" si="41"/>
         <v>-1.5570130179310115E-2</v>
       </c>
-    </row>
-    <row r="135" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M134" s="36">
+        <f t="shared" si="41"/>
+        <v>-3.4192793161173095E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D135" s="86" t="s">
         <v>16</v>
       </c>
@@ -6952,31 +7686,35 @@
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-2.3860653781915264E-4</v>
       </c>
       <c r="H135" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.17852028639618134</v>
       </c>
       <c r="I135" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J135" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.70976176641487509</v>
       </c>
       <c r="K135" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-8.7158628704242513E-4</v>
       </c>
-      <c r="L135" s="81">
-        <f t="shared" si="8"/>
+      <c r="L135" s="82">
+        <f t="shared" si="13"/>
         <v>-5.0050050050050032E-3</v>
       </c>
-    </row>
-    <row r="136" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M135" s="81">
+        <f xml:space="preserve"> -1 + M55/J55 * 1</f>
+        <v>-8.0080080080080496E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D136" s="86"/>
       <c r="E136" s="1">
         <v>98</v>
@@ -6984,647 +7722,731 @@
       <c r="F136" s="11"/>
       <c r="G136" s="34"/>
       <c r="H136" s="34">
-        <f t="shared" ref="H136" si="35" xml:space="preserve"> -1 + H56/G56 * 1</f>
+        <f t="shared" ref="H136" si="42" xml:space="preserve"> -1 + H56/G56 * 1</f>
         <v>-0.57095280603486331</v>
       </c>
       <c r="I136" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.48800228636753362</v>
       </c>
       <c r="J136" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.93757117020564007</v>
       </c>
       <c r="K136" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.82742760175943908</v>
       </c>
-      <c r="L136" s="81">
-        <f t="shared" si="8"/>
+      <c r="L136" s="82">
+        <f t="shared" si="13"/>
         <v>-2.2889842632331958E-2</v>
       </c>
-    </row>
-    <row r="137" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M136" s="81">
+        <f t="shared" ref="M136:M158" si="43" xml:space="preserve"> -1 + M56/J56 * 1</f>
+        <v>-3.4692417739628056E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D137" s="86"/>
       <c r="E137" s="1">
         <v>99</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-4.0899795501022629E-3</v>
       </c>
       <c r="H137" s="34">
-        <f t="shared" ref="H137" si="36" xml:space="preserve"> -1 + H57/G57 * 1</f>
+        <f t="shared" ref="H137" si="44" xml:space="preserve"> -1 + H57/G57 * 1</f>
         <v>-0.50513347022587274</v>
       </c>
       <c r="I137" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J137" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>10.107883817427386</v>
       </c>
       <c r="K137" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.74273858921161828</v>
       </c>
-      <c r="L137" s="81">
-        <f t="shared" si="8"/>
+      <c r="L137" s="82">
+        <f t="shared" si="13"/>
         <v>-8.9652596189764289E-3</v>
       </c>
-    </row>
-    <row r="138" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M137" s="81">
+        <f t="shared" si="43"/>
+        <v>-2.0545386626821038E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D138" s="86"/>
       <c r="E138" s="1">
         <v>100</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-7.0012859504806624E-3</v>
       </c>
       <c r="H138" s="34">
-        <f t="shared" ref="H138" si="37" xml:space="preserve"> -1 + H58/G58 * 1</f>
+        <f t="shared" ref="H138" si="45" xml:space="preserve"> -1 + H58/G58 * 1</f>
         <v>-0.73561679235088206</v>
       </c>
       <c r="I138" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.48182868313488536</v>
       </c>
       <c r="J138" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.96088056246248821</v>
       </c>
       <c r="K138" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.75047157678127407</v>
       </c>
-      <c r="L138" s="81">
-        <f t="shared" si="8"/>
+      <c r="L138" s="82">
+        <f t="shared" si="13"/>
         <v>-1.6438356164383605E-2</v>
       </c>
-    </row>
-    <row r="139" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M138" s="81">
+        <f t="shared" si="43"/>
+        <v>-2.8493150684931523E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D139" s="86"/>
       <c r="E139" s="1">
         <v>101</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-6.4149560117302551E-3</v>
       </c>
       <c r="H139" s="34">
-        <f t="shared" ref="H139" si="38" xml:space="preserve"> -1 + H59/G59 * 1</f>
+        <f t="shared" ref="H139" si="46" xml:space="preserve"> -1 + H59/G59 * 1</f>
         <v>-0.58448625714812763</v>
       </c>
       <c r="I139" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.17003329633740294</v>
       </c>
       <c r="J139" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.8365873228135865</v>
       </c>
       <c r="K139" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.52875100294196309</v>
       </c>
-      <c r="L139" s="81">
-        <f t="shared" si="8"/>
+      <c r="L139" s="82">
+        <f t="shared" si="13"/>
         <v>-1.3093289689034338E-2</v>
       </c>
-    </row>
-    <row r="140" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M139" s="81">
+        <f t="shared" si="43"/>
+        <v>-2.7823240589198051E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D140" s="86"/>
       <c r="E140" s="1">
         <v>102</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.2828736369467908E-3</v>
       </c>
       <c r="H140" s="34">
-        <f t="shared" ref="H140" si="39" xml:space="preserve"> -1 + H60/G60 * 1</f>
+        <f t="shared" ref="H140" si="47" xml:space="preserve"> -1 + H60/G60 * 1</f>
         <v>-0.59280667951188182</v>
       </c>
       <c r="I140" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.21293375394321767</v>
       </c>
       <c r="J140" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.3326653306613228</v>
       </c>
       <c r="K140" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.48296593186372749</v>
       </c>
-      <c r="L140" s="81">
-        <f t="shared" si="8"/>
+      <c r="L140" s="82">
+        <f t="shared" si="13"/>
         <v>-7.0446735395188975E-2</v>
       </c>
-    </row>
-    <row r="141" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M140" s="81">
+        <f t="shared" si="43"/>
+        <v>-8.5051546391752608E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D141" s="86"/>
       <c r="E141" s="1">
         <v>103</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H141" s="34">
-        <f t="shared" ref="H141" si="40" xml:space="preserve"> -1 + H61/G61 * 1</f>
+        <f t="shared" ref="H141" si="48" xml:space="preserve"> -1 + H61/G61 * 1</f>
         <v>-0.10130414531904985</v>
       </c>
       <c r="I141" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-8.4218709510230916E-4</v>
       </c>
       <c r="J141" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.91058808273357972</v>
       </c>
       <c r="K141" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1.4264410296310759E-3</v>
       </c>
-      <c r="L141" s="81">
-        <f t="shared" si="8"/>
+      <c r="L141" s="82">
+        <f t="shared" si="13"/>
         <v>-2.9006526468455363E-2</v>
       </c>
-    </row>
-    <row r="142" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M141" s="81">
+        <f t="shared" si="43"/>
+        <v>-3.1182015953589604E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D142" s="86"/>
       <c r="E142" s="1">
         <v>104</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H142" s="34">
-        <f t="shared" ref="H142" si="41" xml:space="preserve"> -1 + H62/G62 * 1</f>
+        <f t="shared" ref="H142" si="49" xml:space="preserve"> -1 + H62/G62 * 1</f>
         <v>-0.17351752021563338</v>
       </c>
       <c r="I142" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>8.1532816958818088E-4</v>
       </c>
       <c r="J142" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.6924643584521385</v>
       </c>
       <c r="K142" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-8.1466395112017587E-4</v>
       </c>
-      <c r="L142" s="81">
-        <f t="shared" si="8"/>
+      <c r="L142" s="82">
+        <f t="shared" si="13"/>
         <v>-2.6490066225165476E-3</v>
       </c>
-    </row>
-    <row r="143" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M142" s="81">
+        <f t="shared" si="43"/>
+        <v>-2.6490066225165476E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D143" s="86"/>
       <c r="E143" s="1">
         <v>105</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.094717825189262E-2</v>
       </c>
       <c r="H143" s="34">
-        <f t="shared" ref="H143" si="42" xml:space="preserve"> -1 + H63/G63 * 1</f>
+        <f t="shared" ref="H143" si="50" xml:space="preserve"> -1 + H63/G63 * 1</f>
         <v>-0.44118990149390047</v>
       </c>
       <c r="I143" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.47657405245544404</v>
       </c>
       <c r="J143" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.94639803732064531</v>
       </c>
       <c r="K143" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.78038807523604192</v>
       </c>
-      <c r="L143" s="81">
-        <f t="shared" si="8"/>
+      <c r="L143" s="82">
+        <f t="shared" si="13"/>
         <v>-8.3217753120665705E-3</v>
       </c>
-    </row>
-    <row r="144" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M143" s="81">
+        <f t="shared" si="43"/>
+        <v>-3.0513176144244092E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D144" s="86"/>
       <c r="E144" s="1">
         <v>106</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.7131363111770437E-2</v>
       </c>
       <c r="H144" s="34">
-        <f t="shared" ref="H144" si="43" xml:space="preserve"> -1 + H64/G64 * 1</f>
+        <f t="shared" ref="H144" si="51" xml:space="preserve"> -1 + H64/G64 * 1</f>
         <v>-0.73004263572983952</v>
       </c>
       <c r="I144" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.73584413911841062</v>
       </c>
       <c r="J144" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.9969425708834726</v>
       </c>
       <c r="K144" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.99409427351096269</v>
       </c>
-      <c r="L144" s="81">
-        <f t="shared" si="8"/>
+      <c r="L144" s="82">
+        <f t="shared" si="13"/>
         <v>-2.6856903063365523E-2</v>
       </c>
-    </row>
-    <row r="145" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M144" s="81">
+        <f t="shared" si="43"/>
+        <v>-5.7070919009651666E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D145" s="86"/>
       <c r="E145" s="1">
         <v>107</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H145" s="34">
-        <f t="shared" ref="H145" si="44" xml:space="preserve"> -1 + H65/G65 * 1</f>
+        <f t="shared" ref="H145" si="52" xml:space="preserve"> -1 + H65/G65 * 1</f>
         <v>-0.1379980563654033</v>
       </c>
       <c r="I145" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J145" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.17700112739571594</v>
       </c>
       <c r="K145" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-2.7057497181510737E-2</v>
       </c>
-      <c r="L145" s="81">
-        <f t="shared" si="8"/>
+      <c r="L145" s="82">
+        <f t="shared" si="13"/>
         <v>-9.5890410958904271E-3</v>
       </c>
-    </row>
-    <row r="146" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M145" s="81">
+        <f t="shared" si="43"/>
+        <v>-1.5068493150684925E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D146" s="86"/>
       <c r="E146" s="1">
         <v>108</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-2.4644646691890815E-2</v>
       </c>
       <c r="H146" s="34">
-        <f t="shared" ref="H146" si="45" xml:space="preserve"> -1 + H66/G66 * 1</f>
+        <f t="shared" ref="H146" si="53" xml:space="preserve"> -1 + H66/G66 * 1</f>
         <v>-0.64990039840637448</v>
       </c>
       <c r="I146" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.53709665344014379</v>
       </c>
       <c r="J146" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.97590166585799776</v>
       </c>
       <c r="K146" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.71701978543317701</v>
       </c>
-      <c r="L146" s="81">
-        <f t="shared" si="8"/>
+      <c r="L146" s="82">
+        <f t="shared" si="13"/>
         <v>-6.7114093959731447E-3</v>
       </c>
-    </row>
-    <row r="147" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M146" s="81">
+        <f t="shared" si="43"/>
+        <v>-6.7114093959731447E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D147" s="86"/>
       <c r="E147" s="1">
         <v>109</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-2.0389447236180858E-2</v>
       </c>
       <c r="H147" s="34">
-        <f t="shared" ref="H147" si="46" xml:space="preserve"> -1 + H67/G67 * 1</f>
+        <f t="shared" ref="H147" si="54" xml:space="preserve"> -1 + H67/G67 * 1</f>
         <v>-0.51279650837212687</v>
       </c>
       <c r="I147" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.49789421963289227</v>
       </c>
       <c r="J147" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.94500751406703243</v>
       </c>
       <c r="K147" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.86963967427393141</v>
       </c>
-      <c r="L147" s="81">
-        <f t="shared" si="8"/>
+      <c r="L147" s="82">
+        <f t="shared" si="13"/>
         <v>-1.9701302828090239E-2</v>
       </c>
-    </row>
-    <row r="148" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M147" s="81">
+        <f t="shared" si="43"/>
+        <v>-3.8767079758500134E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D148" s="86"/>
       <c r="E148" s="1">
         <v>110</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-2.8321050992720087E-3</v>
       </c>
       <c r="H148" s="34">
-        <f t="shared" ref="H148" si="47" xml:space="preserve"> -1 + H68/G68 * 1</f>
+        <f t="shared" ref="H148" si="55" xml:space="preserve"> -1 + H68/G68 * 1</f>
         <v>-0.59816356877323418</v>
       </c>
       <c r="I148" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.47976760967306231</v>
       </c>
       <c r="J148" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-0.91716754988085503</v>
       </c>
       <c r="K148" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.77895934843688874</v>
       </c>
-      <c r="L148" s="81">
-        <f t="shared" si="8"/>
+      <c r="L148" s="82">
+        <f t="shared" si="13"/>
         <v>-1.2451696006869906E-2</v>
       </c>
-    </row>
-    <row r="149" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M148" s="81">
+        <f t="shared" si="43"/>
+        <v>-2.5332760841562885E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D149" s="86"/>
       <c r="E149" s="1">
         <v>111</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H149" s="34">
-        <f t="shared" ref="H149" si="48" xml:space="preserve"> -1 + H69/G69 * 1</f>
+        <f t="shared" ref="H149" si="56" xml:space="preserve"> -1 + H69/G69 * 1</f>
         <v>-0.61795373085695671</v>
       </c>
       <c r="I149" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.26716417910447765</v>
       </c>
       <c r="J149" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.47279604306080891</v>
       </c>
       <c r="K149" s="82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-0.64183881291824263</v>
       </c>
-      <c r="L149" s="81">
-        <f t="shared" si="8"/>
+      <c r="L149" s="82">
+        <f t="shared" si="13"/>
         <v>-1.6791781904385572E-2</v>
       </c>
-    </row>
-    <row r="150" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M149" s="81">
+        <f t="shared" si="43"/>
+        <v>-2.6076649545634156E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D150" s="86"/>
       <c r="E150" s="1">
         <v>112</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.5279931611888897E-2</v>
       </c>
       <c r="H150" s="34">
-        <f t="shared" ref="H150" si="49" xml:space="preserve"> -1 + H70/G70 * 1</f>
+        <f t="shared" ref="H150" si="57" xml:space="preserve"> -1 + H70/G70 * 1</f>
         <v>-0.56206812312417109</v>
       </c>
       <c r="I150" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.49716101526078815</v>
       </c>
       <c r="J150" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.97678242437449236</v>
       </c>
       <c r="K150" s="82">
-        <f t="shared" ref="K150:L158" si="50" xml:space="preserve"> -1 + K70/I70 * 1</f>
+        <f t="shared" ref="K150:M158" si="58" xml:space="preserve"> -1 + K70/I70 * 1</f>
         <v>-0.85954555359654505</v>
       </c>
-      <c r="L150" s="81">
-        <f t="shared" si="50"/>
+      <c r="L150" s="82">
+        <f t="shared" si="58"/>
         <v>-7.5938566552900988E-2</v>
       </c>
-    </row>
-    <row r="151" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M150" s="81">
+        <f t="shared" si="43"/>
+        <v>-9.6416382252559774E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D151" s="86"/>
       <c r="E151" s="1">
         <v>113</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.5945176023399288E-2</v>
       </c>
       <c r="H151" s="34">
-        <f t="shared" ref="H151" si="51" xml:space="preserve"> -1 + H71/G71 * 1</f>
+        <f t="shared" ref="H151" si="59" xml:space="preserve"> -1 + H71/G71 * 1</f>
         <v>-0.63781615622849275</v>
       </c>
       <c r="I151" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.53421891793991727</v>
       </c>
       <c r="J151" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.96700578801091308</v>
       </c>
       <c r="K151" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.85969810551008441</v>
       </c>
-      <c r="L151" s="81">
-        <f t="shared" si="50"/>
+      <c r="L151" s="82">
+        <f t="shared" si="58"/>
         <v>-3.4775888717156089E-2</v>
       </c>
-    </row>
-    <row r="152" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M151" s="81">
+        <f t="shared" si="43"/>
+        <v>-5.8732612055641398E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D152" s="86"/>
       <c r="E152" s="1">
         <v>114</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-9.9970514874050398E-3</v>
       </c>
       <c r="H152" s="34">
-        <f t="shared" ref="H152" si="52" xml:space="preserve"> -1 + H72/G72 * 1</f>
+        <f t="shared" ref="H152" si="60" xml:space="preserve"> -1 + H72/G72 * 1</f>
         <v>-0.62592719296480381</v>
       </c>
       <c r="I152" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.45206791186090545</v>
       </c>
       <c r="J152" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.94792546193571192</v>
       </c>
       <c r="K152" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.80181436173346166</v>
       </c>
-      <c r="L152" s="81">
-        <f t="shared" si="50"/>
+      <c r="L152" s="82">
+        <f t="shared" si="58"/>
         <v>-2.2247360482654632E-2</v>
       </c>
-    </row>
-    <row r="153" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M152" s="81">
+        <f t="shared" si="43"/>
+        <v>-3.9592760180995445E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D153" s="86"/>
       <c r="E153" s="1">
         <v>115</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-6.3534371128166622E-3</v>
       </c>
       <c r="H153" s="34">
-        <f t="shared" ref="H153" si="53" xml:space="preserve"> -1 + H73/G73 * 1</f>
+        <f t="shared" ref="H153" si="61" xml:space="preserve"> -1 + H73/G73 * 1</f>
         <v>-0.73977405457959644</v>
       </c>
       <c r="I153" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.71628928692125715</v>
       </c>
       <c r="J153" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.99040637742245841</v>
       </c>
       <c r="K153" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.99267329454345532</v>
       </c>
-      <c r="L153" s="81">
-        <f t="shared" si="50"/>
+      <c r="L153" s="82">
+        <f t="shared" si="58"/>
         <v>-4.4317096466093608E-2</v>
       </c>
-    </row>
-    <row r="154" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M153" s="81">
+        <f t="shared" si="43"/>
+        <v>-0.10678127984718244</v>
+      </c>
+    </row>
+    <row r="154" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D154" s="86"/>
       <c r="E154" s="1">
         <v>116</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.3530743842271598E-4</v>
       </c>
       <c r="H154" s="34">
-        <f t="shared" ref="H154" si="54" xml:space="preserve"> -1 + H74/G74 * 1</f>
+        <f t="shared" ref="H154" si="62" xml:space="preserve"> -1 + H74/G74 * 1</f>
         <v>-0.68564990813623239</v>
       </c>
       <c r="I154" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.65491568397005029</v>
       </c>
       <c r="J154" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.9659117869907623</v>
       </c>
       <c r="K154" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.98701984524839093</v>
       </c>
-      <c r="L154" s="81">
-        <f t="shared" si="50"/>
+      <c r="L154" s="82">
+        <f t="shared" si="58"/>
         <v>-5.6578356533453111E-2</v>
       </c>
-    </row>
-    <row r="155" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M154" s="81">
+        <f t="shared" si="43"/>
+        <v>-0.1340368208352043</v>
+      </c>
+    </row>
+    <row r="155" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D155" s="86"/>
       <c r="E155" s="1">
         <v>117</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-6.5906829507377251E-3</v>
       </c>
       <c r="H155" s="34">
-        <f t="shared" ref="H155" si="55" xml:space="preserve"> -1 + H75/G75 * 1</f>
+        <f t="shared" ref="H155" si="63" xml:space="preserve"> -1 + H75/G75 * 1</f>
         <v>-0.63107464008438052</v>
       </c>
       <c r="I155" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.73498074799358415</v>
       </c>
       <c r="J155" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.99883813758570106</v>
       </c>
       <c r="K155" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.99554665078544458</v>
       </c>
-      <c r="L155" s="81">
-        <f t="shared" si="50"/>
+      <c r="L155" s="82">
+        <f t="shared" si="58"/>
         <v>-3.8128930817610041E-2</v>
       </c>
-    </row>
-    <row r="156" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M155" s="81">
+        <f t="shared" si="43"/>
+        <v>-0.11438679245283023</v>
+      </c>
+    </row>
+    <row r="156" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D156" s="86"/>
       <c r="E156" s="1">
         <v>118</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.5813475073090943E-2</v>
       </c>
       <c r="H156" s="34">
-        <f t="shared" ref="H156" si="56" xml:space="preserve"> -1 + H76/G76 * 1</f>
+        <f t="shared" ref="H156" si="64" xml:space="preserve"> -1 + H76/G76 * 1</f>
         <v>-0.68130107449832256</v>
       </c>
       <c r="I156" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.73524652710875937</v>
       </c>
       <c r="J156" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.99877800452521071</v>
       </c>
       <c r="K156" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.99548144569331187</v>
       </c>
-      <c r="L156" s="81">
-        <f t="shared" si="50"/>
+      <c r="L156" s="82">
+        <f t="shared" si="58"/>
         <v>-5.7648660916931438E-2</v>
       </c>
-    </row>
-    <row r="157" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M156" s="81">
+        <f t="shared" si="43"/>
+        <v>-0.17113027689514304</v>
+      </c>
+    </row>
+    <row r="157" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D157" s="86"/>
       <c r="E157" s="1">
         <v>119</v>
@@ -7632,124 +8454,140 @@
       <c r="F157" s="11"/>
       <c r="G157" s="34"/>
       <c r="H157" s="34">
-        <f t="shared" ref="H157" si="57" xml:space="preserve"> -1 + H77/G77 * 1</f>
+        <f t="shared" ref="H157" si="65" xml:space="preserve"> -1 + H77/G77 * 1</f>
         <v>-0.7125844098857832</v>
       </c>
       <c r="I157" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.77955697502291965</v>
       </c>
       <c r="J157" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.99996185405822269</v>
       </c>
       <c r="K157" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.99775030861445668</v>
       </c>
-      <c r="L157" s="81">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="L157" s="82">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="81">
+        <f t="shared" si="43"/>
+        <v>-4.8192771084337394E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D158" s="86"/>
       <c r="E158" s="1">
         <v>120</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-1.4734990624492017E-2</v>
       </c>
       <c r="H158" s="34">
-        <f t="shared" ref="H158" si="58" xml:space="preserve"> -1 + H78/G78 * 1</f>
+        <f t="shared" ref="H158" si="66" xml:space="preserve"> -1 + H78/G78 * 1</f>
         <v>-0.66145757607625522</v>
       </c>
       <c r="I158" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.75930225874679103</v>
       </c>
       <c r="J158" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>-0.99873089091994038</v>
       </c>
       <c r="K158" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>-0.99767428382537915</v>
       </c>
-      <c r="L158" s="81">
-        <f t="shared" si="50"/>
+      <c r="L158" s="82">
+        <f t="shared" si="58"/>
         <v>-1.4799154334038001E-2</v>
       </c>
-    </row>
-    <row r="159" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M158" s="81">
+        <f t="shared" si="43"/>
+        <v>-3.3826638477801318E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D159" s="86"/>
       <c r="E159" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="35">
-        <f t="shared" ref="G159:L159" si="59">AVERAGE(G135:G158)</f>
+        <f t="shared" ref="G159:M159" si="67">AVERAGE(G135:G158)</f>
         <v>-8.1737497454699611E-3</v>
       </c>
       <c r="H159" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-0.54450149553243199</v>
       </c>
       <c r="I159" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-0.4254543773732482</v>
       </c>
       <c r="J159" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-0.28905280263174676</v>
       </c>
       <c r="K159" s="35">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-0.69298619626529556</v>
       </c>
-      <c r="L159" s="36">
-        <f t="shared" si="59"/>
+      <c r="L159" s="35">
+        <f t="shared" si="67"/>
         <v>-2.5556331084307146E-2</v>
       </c>
-    </row>
-    <row r="160" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="M159" s="36">
+        <f t="shared" si="67"/>
+        <v>-5.1711733106016324E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D160" s="87" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="88"/>
       <c r="F160" s="16"/>
       <c r="G160" s="37">
-        <f t="shared" ref="G160:L160" si="60">(AVERAGE(G85:G108,G110:G133,G135:G158))</f>
+        <f t="shared" ref="G160:M160" si="68">(AVERAGE(G85:G108,G110:G133,G135:G158))</f>
         <v>-4.2343830615437384E-3</v>
       </c>
       <c r="H160" s="37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-0.34977668961718067</v>
       </c>
       <c r="I160" s="37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-0.30570848024141412</v>
       </c>
       <c r="J160" s="37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-0.51737924945131508</v>
       </c>
       <c r="K160" s="37">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-0.61750355551080693</v>
       </c>
-      <c r="L160" s="38">
-        <f t="shared" si="60"/>
+      <c r="L160" s="37">
+        <f t="shared" si="68"/>
         <v>-1.3708820421205754E-2</v>
       </c>
-    </row>
-    <row r="161" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D161" s="89" t="s">
+      <c r="M160" s="38">
+        <f t="shared" si="68"/>
+        <v>-2.8634842089063132E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D161" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E161" s="90"/>
+      <c r="E161" s="93"/>
       <c r="F161" s="18" t="s">
         <v>33</v>
       </c>
@@ -7772,25 +8610,29 @@
         <f xml:space="preserve"> -1 + K81/I81 * 1</f>
         <v>-0.9862670704331904</v>
       </c>
-      <c r="L161" s="33">
+      <c r="L161" s="69">
         <f xml:space="preserve"> -1 + L81/J81 * 1</f>
         <v>-2.9090703418110486E-2</v>
       </c>
+      <c r="M161" s="33">
+        <f xml:space="preserve"> -1 + M81/J81 * 1</f>
+        <v>-6.0726607718557313E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="D30:D54"/>
-    <mergeCell ref="D55:D79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D3:L3"/>
     <mergeCell ref="D135:D159"/>
     <mergeCell ref="D160:E160"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D85:D109"/>
     <mergeCell ref="D110:D134"/>
-    <mergeCell ref="D83:L83"/>
+    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="D30:D54"/>
+    <mergeCell ref="D55:D79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D3:M3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7805,10 +8647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE79279-43FE-4514-886C-88FC286043C2}">
-  <dimension ref="A1:Y118"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView topLeftCell="M87" workbookViewId="0">
-      <selection activeCell="AB108" sqref="AB108"/>
+    <sheetView tabSelected="1" topLeftCell="P55" workbookViewId="0">
+      <selection activeCell="AC72" sqref="AC72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7834,10 +8676,13 @@
     <col min="23" max="23" width="12.21875" customWidth="1"/>
     <col min="24" max="24" width="18.5546875" customWidth="1"/>
     <col min="25" max="25" width="19" customWidth="1"/>
+    <col min="26" max="26" width="12.77734375" customWidth="1"/>
+    <col min="27" max="27" width="18.44140625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="103"/>
       <c r="D2" s="104"/>
       <c r="E2" s="118" t="s">
@@ -7873,8 +8718,13 @@
       </c>
       <c r="X2" s="95"/>
       <c r="Y2" s="96"/>
-    </row>
-    <row r="3" spans="3:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z2" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="96"/>
+    </row>
+    <row r="3" spans="3:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="105"/>
       <c r="D3" s="106"/>
       <c r="E3" s="121"/>
@@ -7902,8 +8752,11 @@
       <c r="W3" s="97"/>
       <c r="X3" s="98"/>
       <c r="Y3" s="99"/>
-    </row>
-    <row r="4" spans="3:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="99"/>
+    </row>
+    <row r="4" spans="3:28" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="75" t="s">
         <v>1</v>
       </c>
@@ -7973,8 +8826,17 @@
       <c r="Y4" s="84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z4" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C5" s="97" t="s">
         <v>14</v>
       </c>
@@ -8044,8 +8906,17 @@
       <c r="Y5" s="17">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C6" s="97"/>
       <c r="D6" s="12">
         <v>50</v>
@@ -8113,8 +8984,17 @@
       <c r="Y6" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z6" s="62">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C7" s="97"/>
       <c r="D7" s="12">
         <v>51</v>
@@ -8182,8 +9062,17 @@
       <c r="Y7" s="17">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z7" s="62">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C8" s="97"/>
       <c r="D8" s="12">
         <v>52</v>
@@ -8251,8 +9140,17 @@
       <c r="Y8" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z8" s="62">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C9" s="97"/>
       <c r="D9" s="12">
         <v>53</v>
@@ -8320,8 +9218,17 @@
       <c r="Y9" s="17">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z9" s="62">
+        <v>35</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C10" s="97"/>
       <c r="D10" s="12">
         <v>54</v>
@@ -8389,8 +9296,17 @@
       <c r="Y10" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z10" s="62">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C11" s="97"/>
       <c r="D11" s="12">
         <v>55</v>
@@ -8458,8 +9374,17 @@
       <c r="Y11" s="17">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z11" s="62">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C12" s="97"/>
       <c r="D12" s="12">
         <v>56</v>
@@ -8527,8 +9452,17 @@
       <c r="Y12" s="17">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z12" s="62">
+        <v>63</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C13" s="97"/>
       <c r="D13" s="12">
         <v>57</v>
@@ -8596,8 +9530,17 @@
       <c r="Y13" s="17">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z13" s="62">
+        <v>26</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C14" s="97"/>
       <c r="D14" s="12">
         <v>58</v>
@@ -8665,8 +9608,17 @@
       <c r="Y14" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z14" s="62">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C15" s="97"/>
       <c r="D15" s="12">
         <v>59</v>
@@ -8734,8 +9686,17 @@
       <c r="Y15" s="17">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z15" s="62">
+        <v>34</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C16" s="97"/>
       <c r="D16" s="12">
         <v>60</v>
@@ -8803,8 +9764,17 @@
       <c r="Y16" s="17">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z16" s="62">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C17" s="97"/>
       <c r="D17" s="12">
         <v>61</v>
@@ -8872,8 +9842,17 @@
       <c r="Y17" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z17" s="62">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C18" s="97"/>
       <c r="D18" s="12">
         <v>62</v>
@@ -8941,8 +9920,17 @@
       <c r="Y18" s="17">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z18" s="62">
+        <v>43</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C19" s="97"/>
       <c r="D19" s="12">
         <v>63</v>
@@ -9010,8 +9998,17 @@
       <c r="Y19" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z19" s="62">
+        <v>43</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C20" s="97"/>
       <c r="D20" s="12">
         <v>64</v>
@@ -9079,8 +10076,17 @@
       <c r="Y20" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z20" s="62">
+        <v>24</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C21" s="97"/>
       <c r="D21" s="12">
         <v>65</v>
@@ -9148,8 +10154,17 @@
       <c r="Y21" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z21" s="62">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C22" s="97"/>
       <c r="D22" s="12">
         <v>66</v>
@@ -9217,8 +10232,17 @@
       <c r="Y22" s="17">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z22" s="62">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C23" s="97"/>
       <c r="D23" s="12">
         <v>67</v>
@@ -9286,8 +10310,17 @@
       <c r="Y23" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z23" s="62">
+        <v>23</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C24" s="97"/>
       <c r="D24" s="12">
         <v>68</v>
@@ -9355,8 +10388,17 @@
       <c r="Y24" s="17">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z24" s="62">
+        <v>15</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C25" s="97"/>
       <c r="D25" s="12">
         <v>69</v>
@@ -9424,8 +10466,17 @@
       <c r="Y25" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z25" s="62">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C26" s="97"/>
       <c r="D26" s="12">
         <v>70</v>
@@ -9493,8 +10544,17 @@
       <c r="Y26" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z26" s="62">
+        <v>17</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C27" s="97"/>
       <c r="D27" s="12">
         <v>71</v>
@@ -9562,8 +10622,17 @@
       <c r="Y27" s="17">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z27" s="62">
+        <v>16</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C28" s="97"/>
       <c r="D28" s="12">
         <v>72</v>
@@ -9631,8 +10700,17 @@
       <c r="Y28" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z28" s="62">
+        <v>28</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C29" s="97"/>
       <c r="D29" s="19" t="s">
         <v>3</v>
@@ -9721,8 +10799,20 @@
         <f t="shared" si="1"/>
         <v>61.5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z29" s="26">
+        <f>AVERAGE(Z5:Z28)</f>
+        <v>30.5</v>
+      </c>
+      <c r="AA29" s="27">
+        <f t="shared" ref="Z29:AB29" si="2">AVERAGE(AA5:AA28)</f>
+        <v>0.375</v>
+      </c>
+      <c r="AB29" s="28">
+        <f t="shared" si="2"/>
+        <v>52.333333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C30" s="97" t="s">
         <v>15</v>
       </c>
@@ -9792,8 +10882,17 @@
       <c r="Y30" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z30" s="62">
+        <v>10</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C31" s="97"/>
       <c r="D31" s="12">
         <v>74</v>
@@ -9861,8 +10960,17 @@
       <c r="Y31" s="17">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z31" s="62">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C32" s="97"/>
       <c r="D32" s="12">
         <v>75</v>
@@ -9930,8 +11038,17 @@
       <c r="Y32" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z32" s="62">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C33" s="97"/>
       <c r="D33" s="12">
         <v>76</v>
@@ -9999,8 +11116,17 @@
       <c r="Y33" s="17">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z33" s="62">
+        <v>23</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C34" s="97"/>
       <c r="D34" s="12">
         <v>77</v>
@@ -10068,8 +11194,17 @@
       <c r="Y34" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z34" s="62">
+        <v>12</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C35" s="97"/>
       <c r="D35" s="12">
         <v>78</v>
@@ -10135,8 +11270,17 @@
       <c r="Y35" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z35" s="62">
+        <v>21</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C36" s="97"/>
       <c r="D36" s="12">
         <v>79</v>
@@ -10202,8 +11346,17 @@
       <c r="Y36" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z36" s="62">
+        <v>15</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C37" s="97"/>
       <c r="D37" s="12">
         <v>80</v>
@@ -10269,8 +11422,17 @@
       <c r="Y37" s="17">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z37" s="62">
+        <v>14</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C38" s="97"/>
       <c r="D38" s="12">
         <v>81</v>
@@ -10336,8 +11498,17 @@
       <c r="Y38" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z38" s="62">
+        <v>73</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C39" s="97"/>
       <c r="D39" s="12">
         <v>82</v>
@@ -10403,8 +11574,17 @@
       <c r="Y39" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z39" s="62">
+        <v>26</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C40" s="97"/>
       <c r="D40" s="12">
         <v>83</v>
@@ -10470,8 +11650,17 @@
       <c r="Y40" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z40" s="62">
+        <v>11</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C41" s="97"/>
       <c r="D41" s="12">
         <v>84</v>
@@ -10537,8 +11726,17 @@
       <c r="Y41" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z41" s="62">
+        <v>23</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C42" s="97"/>
       <c r="D42" s="12">
         <v>85</v>
@@ -10604,8 +11802,17 @@
       <c r="Y42" s="17">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z42" s="62">
+        <v>35</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C43" s="97"/>
       <c r="D43" s="12">
         <v>86</v>
@@ -10671,8 +11878,17 @@
       <c r="Y43" s="17">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z43" s="62">
+        <v>40</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C44" s="97"/>
       <c r="D44" s="12">
         <v>87</v>
@@ -10738,8 +11954,17 @@
       <c r="Y44" s="17">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z44" s="62">
+        <v>59</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C45" s="97"/>
       <c r="D45" s="12">
         <v>88</v>
@@ -10803,8 +12028,17 @@
       <c r="Y45" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z45" s="62">
+        <v>42</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C46" s="97"/>
       <c r="D46" s="12">
         <v>89</v>
@@ -10868,8 +12102,17 @@
       <c r="Y46" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z46" s="62">
+        <v>12</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C47" s="97"/>
       <c r="D47" s="12">
         <v>90</v>
@@ -10933,8 +12176,17 @@
       <c r="Y47" s="17">
         <v>263</v>
       </c>
-    </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z47" s="62">
+        <v>168</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="17">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C48" s="97"/>
       <c r="D48" s="12">
         <v>91</v>
@@ -11000,8 +12252,17 @@
       <c r="Y48" s="17">
         <v>274</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z48" s="62">
+        <v>169</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="17">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C49" s="97"/>
       <c r="D49" s="12">
         <v>92</v>
@@ -11065,8 +12326,17 @@
       <c r="Y49" s="17">
         <v>290</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z49" s="62">
+        <v>195</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="17">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C50" s="97"/>
       <c r="D50" s="12">
         <v>93</v>
@@ -11132,8 +12402,17 @@
       <c r="Y50" s="17">
         <v>288</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z50" s="62">
+        <v>186</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="17">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C51" s="97"/>
       <c r="D51" s="12">
         <v>94</v>
@@ -11199,8 +12478,17 @@
       <c r="Y51" s="17">
         <v>437</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z51" s="62">
+        <v>337</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB51" s="17">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C52" s="97"/>
       <c r="D52" s="12">
         <v>95</v>
@@ -11266,8 +12554,17 @@
       <c r="Y52" s="17">
         <v>248</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z52" s="62">
+        <v>139</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C53" s="97"/>
       <c r="D53" s="12">
         <v>96</v>
@@ -11333,8 +12630,17 @@
       <c r="Y53" s="17">
         <v>382</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z53" s="62">
+        <v>262</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB53" s="17">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C54" s="97"/>
       <c r="D54" s="19" t="s">
         <v>4</v>
@@ -11352,11 +12658,11 @@
         <v>226271.66666666666</v>
       </c>
       <c r="H54" s="26">
-        <f t="shared" ref="H54:I54" si="2">AVERAGE(H30:H53)</f>
+        <f t="shared" ref="H54:I54" si="3">AVERAGE(H30:H53)</f>
         <v>163067.70833333334</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>520</v>
       </c>
       <c r="J54" s="28">
@@ -11364,11 +12670,11 @@
         <v>13797.894736842105</v>
       </c>
       <c r="K54" s="26">
-        <f t="shared" ref="K54:L54" si="3">AVERAGE(K30:K53)</f>
+        <f t="shared" ref="K54:L54" si="4">AVERAGE(K30:K53)</f>
         <v>45859.791666666664</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="M54" s="54">
@@ -11376,55 +12682,67 @@
         <v>46671.5</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" ref="N54:Y54" si="4">AVERAGE(N30:N53)</f>
+        <f t="shared" ref="N54:Y54" si="5">AVERAGE(N30:N53)</f>
         <v>7598.833333333333</v>
       </c>
       <c r="O54" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39.333333333333336</v>
       </c>
       <c r="P54" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7550.791666666667</v>
       </c>
       <c r="Q54" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82.833333333333329</v>
       </c>
       <c r="R54" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="S54" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113.95833333333333</v>
       </c>
       <c r="T54" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>215.75</v>
       </c>
       <c r="U54" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.375</v>
       </c>
       <c r="V54" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>262.75</v>
       </c>
       <c r="W54" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.708333333333329</v>
       </c>
       <c r="X54" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="Y54" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>117.29166666666667</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z54" s="26">
+        <f t="shared" ref="Z54:AB54" si="6">AVERAGE(Z30:Z53)</f>
+        <v>79.291666666666671</v>
+      </c>
+      <c r="AA54" s="27">
+        <f t="shared" si="6"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="AB54" s="28">
+        <f t="shared" si="6"/>
+        <v>103.66666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C55" s="97" t="s">
         <v>16</v>
       </c>
@@ -11494,8 +12812,17 @@
       <c r="Y55" s="17">
         <v>1098</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z55" s="62">
+        <v>991</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB55" s="17">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C56" s="97"/>
       <c r="D56" s="12">
         <v>98</v>
@@ -11559,8 +12886,17 @@
       <c r="Y56" s="17">
         <v>2870</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z56" s="62">
+        <v>2699</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB56" s="17">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C57" s="97"/>
       <c r="D57" s="12">
         <v>99</v>
@@ -11626,8 +12962,17 @@
       <c r="Y57" s="17">
         <v>2770</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z57" s="62">
+        <v>2622</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB57" s="17">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C58" s="97"/>
       <c r="D58" s="12">
         <v>100</v>
@@ -11691,8 +13036,17 @@
       <c r="Y58" s="17">
         <v>1946</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z58" s="62">
+        <v>1773</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB58" s="17">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C59" s="97"/>
       <c r="D59" s="12">
         <v>101</v>
@@ -11758,8 +13112,17 @@
       <c r="Y59" s="17">
         <v>696</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z59" s="62">
+        <v>594</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB59" s="17">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C60" s="97"/>
       <c r="D60" s="12">
         <v>102</v>
@@ -11825,8 +13188,17 @@
       <c r="Y60" s="17">
         <v>1187</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z60" s="62">
+        <v>1065</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB60" s="17">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C61" s="97"/>
       <c r="D61" s="12">
         <v>103</v>
@@ -11892,8 +13264,17 @@
       <c r="Y61" s="17">
         <v>1458</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z61" s="62">
+        <v>1336</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB61" s="17">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C62" s="97"/>
       <c r="D62" s="12">
         <v>104</v>
@@ -11959,8 +13340,17 @@
       <c r="Y62" s="17">
         <v>866</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z62" s="62">
+        <v>753</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB62" s="17">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C63" s="97"/>
       <c r="D63" s="12">
         <v>105</v>
@@ -12026,8 +13416,17 @@
       <c r="Y63" s="17">
         <v>826</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z63" s="62">
+        <v>699</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB63" s="17">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="100" t="s">
         <v>35</v>
       </c>
@@ -12090,8 +13489,17 @@
       <c r="Y64" s="17">
         <v>2430</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z64" s="62">
+        <v>2247</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB64" s="17">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="100"/>
       <c r="C65" s="97"/>
       <c r="D65" s="12">
@@ -12158,8 +13566,17 @@
       <c r="Y65" s="17">
         <v>825</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z65" s="62">
+        <v>719</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB65" s="17">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="100"/>
       <c r="C66" s="97"/>
       <c r="D66" s="12">
@@ -12224,8 +13641,17 @@
       <c r="Y66" s="17">
         <v>547</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z66" s="62">
+        <v>444</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB66" s="17">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C67" s="97"/>
       <c r="D67" s="12">
         <v>109</v>
@@ -12289,8 +13715,17 @@
       <c r="Y67" s="17">
         <v>3201</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z67" s="62">
+        <v>3025</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>22</v>
+      </c>
+      <c r="AB67" s="17">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C68" s="97"/>
       <c r="D68" s="12">
         <v>110</v>
@@ -12354,8 +13789,17 @@
       <c r="Y68" s="17">
         <v>2384</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z68" s="62">
+        <v>2270</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>16</v>
+      </c>
+      <c r="AB68" s="17">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C69" s="97"/>
       <c r="D69" s="12">
         <v>111</v>
@@ -12421,8 +13865,17 @@
       <c r="Y69" s="17">
         <v>5262</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z69" s="62">
+        <v>4930</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>34</v>
+      </c>
+      <c r="AB69" s="17">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C70" s="97"/>
       <c r="D70" s="12">
         <v>112</v>
@@ -12486,8 +13939,17 @@
       <c r="Y70" s="17">
         <v>1230</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z70" s="62">
+        <v>1059</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB70" s="17">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C71" s="97"/>
       <c r="D71" s="12">
         <v>113</v>
@@ -12549,8 +14011,17 @@
       <c r="Y71" s="17">
         <v>2705</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z71" s="62">
+        <v>2436</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>18</v>
+      </c>
+      <c r="AB71" s="17">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C72" s="97"/>
       <c r="D72" s="12">
         <v>114</v>
@@ -12612,8 +14083,17 @@
       <c r="Y72" s="17">
         <v>2698</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z72" s="62">
+        <v>2547</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>18</v>
+      </c>
+      <c r="AB72" s="17">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C73" s="97"/>
       <c r="D73" s="12">
         <v>115</v>
@@ -12675,8 +14155,17 @@
       <c r="Y73" s="17">
         <v>5100</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z73" s="62">
+        <v>4676</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>49</v>
+      </c>
+      <c r="AB73" s="17">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C74" s="97"/>
       <c r="D74" s="12">
         <v>116</v>
@@ -12738,8 +14227,17 @@
       <c r="Y74" s="17">
         <v>4428</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z74" s="62">
+        <v>3857</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB74" s="17">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C75" s="97"/>
       <c r="D75" s="12">
         <v>117</v>
@@ -12799,8 +14297,17 @@
       <c r="Y75" s="17">
         <v>2589</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z75" s="62">
+        <v>2253</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB75" s="17">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C76" s="97"/>
       <c r="D76" s="12">
         <v>118</v>
@@ -12860,8 +14367,17 @@
       <c r="Y76" s="17">
         <v>2204</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z76" s="62">
+        <v>1826</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB76" s="17">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C77" s="97"/>
       <c r="D77" s="12">
         <v>119</v>
@@ -12921,8 +14437,17 @@
       <c r="Y77" s="17">
         <v>180</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z77" s="62">
+        <v>79</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C78" s="97"/>
       <c r="D78" s="12">
         <v>120</v>
@@ -12984,8 +14509,17 @@
       <c r="Y78" s="17">
         <v>2436</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z78" s="62">
+        <v>2285</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>28</v>
+      </c>
+      <c r="AB78" s="17">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C79" s="97"/>
       <c r="D79" s="19" t="s">
         <v>5</v>
@@ -12995,87 +14529,99 @@
         <v>4050647.4545454546</v>
       </c>
       <c r="F79" s="27">
-        <f t="shared" ref="F79:G79" si="5">AVERAGE(F55,F57:F76,F78)</f>
+        <f t="shared" ref="F79:G79" si="7">AVERAGE(F55,F57:F76,F78)</f>
         <v>13716.818181818182</v>
       </c>
       <c r="G79" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3992</v>
       </c>
       <c r="H79" s="26">
-        <f t="shared" ref="H79:J79" si="6" xml:space="preserve"> AVERAGE(H55:H78)</f>
+        <f t="shared" ref="H79:J79" si="8" xml:space="preserve"> AVERAGE(H55:H78)</f>
         <v>5106807.583333333</v>
       </c>
       <c r="I79" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16157.333333333334</v>
       </c>
       <c r="J79" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10887</v>
       </c>
       <c r="K79" s="26">
-        <f t="shared" ref="K79:Y79" si="7" xml:space="preserve"> AVERAGE(K55:K78)</f>
+        <f t="shared" ref="K79:Y79" si="9" xml:space="preserve"> AVERAGE(K55:K78)</f>
         <v>1614236.7916666667</v>
       </c>
       <c r="L79" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8565.6666666666661</v>
       </c>
       <c r="M79" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37989.199999999997</v>
       </c>
       <c r="N79" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>412760.04166666669</v>
       </c>
       <c r="O79" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2079.1666666666665</v>
       </c>
       <c r="P79" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>58374.315789473687</v>
       </c>
       <c r="Q79" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2096.7083333333335</v>
       </c>
       <c r="R79" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.75</v>
       </c>
       <c r="S79" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2096.75</v>
       </c>
       <c r="T79" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5513.666666666667</v>
       </c>
       <c r="U79" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40.833333333333336</v>
       </c>
       <c r="V79" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5502.791666666667</v>
       </c>
       <c r="W79" s="63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2034.5416666666667</v>
       </c>
       <c r="X79" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.958333333333332</v>
       </c>
       <c r="Y79" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2164</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z79" s="63">
+        <f t="shared" ref="Z79:AB79" si="10" xml:space="preserve"> AVERAGE(Z55:Z78)</f>
+        <v>1966.0416666666667</v>
+      </c>
+      <c r="AA79" s="60">
+        <f t="shared" si="10"/>
+        <v>18.083333333333332</v>
+      </c>
+      <c r="AB79" s="32">
+        <f t="shared" si="10"/>
+        <v>2008.0833333333333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C80" s="109" t="s">
         <v>8</v>
       </c>
@@ -13085,11 +14631,11 @@
         <v>1347862.3043478262</v>
       </c>
       <c r="F80" s="29">
-        <f t="shared" ref="F80:G80" si="8">(AVERAGE(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78))</f>
+        <f t="shared" ref="F80:G80" si="11">(AVERAGE(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78))</f>
         <v>4566.666666666667</v>
       </c>
       <c r="G80" s="31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>44345.225806451614</v>
       </c>
       <c r="H80" s="30">
@@ -13097,75 +14643,87 @@
         <v>1756797.888888889</v>
       </c>
       <c r="I80" s="39">
-        <f t="shared" ref="I80:Y80" si="9">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I80:Y80" si="12">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
         <v>5559.7361111111113</v>
       </c>
       <c r="J80" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7178.3269230769229</v>
       </c>
       <c r="K80" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>553538.3194444445</v>
       </c>
       <c r="L80" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2937.3194444444443</v>
       </c>
       <c r="M80" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>27042.126984126986</v>
       </c>
       <c r="N80" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>140189.19444444444</v>
       </c>
       <c r="O80" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>706.51388888888891</v>
       </c>
       <c r="P80" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>19343.089552238805</v>
       </c>
       <c r="Q80" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>736.68055555555554</v>
       </c>
       <c r="R80" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.5</v>
       </c>
       <c r="S80" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>750.69444444444446</v>
       </c>
       <c r="T80" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1925.2083333333333</v>
       </c>
       <c r="U80" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>14.152777777777779</v>
       </c>
       <c r="V80" s="70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1953.3472222222222</v>
       </c>
       <c r="W80" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>715.25</v>
       </c>
       <c r="X80" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.9861111111111107</v>
       </c>
       <c r="Y80" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>780.93055555555554</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z80" s="30">
+        <f>AVERAGE(Z5:Z28,Z30:Z53,Z55:Z78)</f>
+        <v>691.94444444444446</v>
+      </c>
+      <c r="AA80" s="29">
+        <f t="shared" ref="Z80:AB80" si="13">AVERAGE(AA5:AA28,AA30:AA53,AA55:AA78)</f>
+        <v>6.3888888888888893</v>
+      </c>
+      <c r="AB80" s="31">
+        <f t="shared" si="13"/>
+        <v>721.36111111111109</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C81" s="101" t="s">
         <v>31</v>
       </c>
@@ -13175,11 +14733,11 @@
         <v>93002499</v>
       </c>
       <c r="F81" s="15">
-        <f t="shared" ref="F81:G81" si="10">SUM(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78)</f>
+        <f t="shared" ref="F81:G81" si="14">SUM(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78)</f>
         <v>315100</v>
       </c>
       <c r="G81" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1374702</v>
       </c>
       <c r="H81" s="43">
@@ -13187,75 +14745,87 @@
         <v>126489448</v>
       </c>
       <c r="I81" s="44">
-        <f t="shared" ref="I81:Y81" si="11">SUM(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I81:Y81" si="15">SUM(I5:I28,I30:I53,I55:I78)</f>
         <v>400301</v>
       </c>
       <c r="J81" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>373273</v>
       </c>
       <c r="K81" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>39854759</v>
       </c>
       <c r="L81" s="44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>211487</v>
       </c>
       <c r="M81" s="58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1703654</v>
       </c>
       <c r="N81" s="64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>10093622</v>
       </c>
       <c r="O81" s="61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>50869</v>
       </c>
       <c r="P81" s="71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1295987</v>
       </c>
       <c r="Q81" s="64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>53041</v>
       </c>
       <c r="R81" s="61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>396</v>
       </c>
       <c r="S81" s="71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>54050</v>
       </c>
       <c r="T81" s="64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>138615</v>
       </c>
       <c r="U81" s="61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1019</v>
       </c>
       <c r="V81" s="71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>140641</v>
       </c>
       <c r="W81" s="64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>51498</v>
       </c>
       <c r="X81" s="61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>503</v>
       </c>
       <c r="Y81" s="65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>56227</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z81" s="64">
+        <f>SUM(Z5:Z28,Z30:Z53,Z55:Z78)</f>
+        <v>49820</v>
+      </c>
+      <c r="AA81" s="61">
+        <f t="shared" ref="Z81:AB81" si="16">SUM(AA5:AA28,AA30:AA53,AA55:AA78)</f>
+        <v>460</v>
+      </c>
+      <c r="AB81" s="65">
+        <f t="shared" si="16"/>
+        <v>51938</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C82" s="107" t="s">
         <v>34</v>
       </c>
@@ -13311,13 +14881,23 @@
         <f>W81/Y81</f>
         <v>0.91589449908406995</v>
       </c>
+      <c r="Z82" s="85"/>
+      <c r="AA82" s="47">
+        <f>Z81/AA81</f>
+        <v>108.30434782608695</v>
+      </c>
+      <c r="AB82" s="80">
+        <f>Z81/AB81</f>
+        <v>0.95922060918787788</v>
+      </c>
     </row>
     <row r="118" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="Z2:AB3"/>
     <mergeCell ref="W2:Y3"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C81:D81"/>
@@ -13362,32 +14942,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
     </row>
     <row r="5" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126" t="s">
+      <c r="F5" s="125"/>
+      <c r="G5" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126" t="s">
+      <c r="H5" s="125"/>
+      <c r="I5" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="126"/>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -14537,10 +16117,10 @@
       </c>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C82" s="124" t="s">
+      <c r="C82" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="124"/>
+      <c r="D82" s="126"/>
       <c r="E82" s="14">
         <f>AVERAGE(E7:E30,E32:E55,E57:E80)</f>
         <v>16807.150000000001</v>
@@ -14567,10 +16147,10 @@
       </c>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="125" t="s">
+      <c r="C83" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="125"/>
+      <c r="D83" s="127"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6">
         <f>E82/F82</f>
@@ -14596,16 +16176,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C57:C81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="C7:C31"/>
     <mergeCell ref="C32:C56"/>
-    <mergeCell ref="C57:C81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/showcase_binaries_and_assets/IQ_circuit_solver_stats.xlsx
+++ b/showcase_binaries_and_assets/IQ_circuit_solver_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projets_persos\Prog\C\IQ_circuit_solver\showcase_binaries_and_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0856B1-4154-40F5-9314-B7F4B87B39FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB30565-9022-4ABE-A3AD-F03276DD0799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22D5D88B-9009-499F-A617-719D769432EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{22D5D88B-9009-499F-A617-719D769432EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup comments" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>Level_num</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>V6</t>
+  </si>
+  <si>
+    <t>v6.1 : behaviour correction of no_dead_end_check</t>
+  </si>
+  <si>
+    <t>V6.1</t>
   </si>
 </sst>
 </file>
@@ -914,6 +920,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -934,18 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2933,6 +2939,107 @@
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
             <a:t>Anyway, the solving time with display has become more important to me, especially with the V5 update, thus I'm keeping this check implementation.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFE7315-4AFE-454B-879C-C60F455FCCF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32019240" y="15361921"/>
+          <a:ext cx="3324225" cy="3390899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>V6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> -&gt; V6.1 comments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>This is only a minor change, the added and removed valid board states balanced pretty nicely, with only a -0,16% of removed valid board states between the two versions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>But the difference in total solving time is pretty significant whereas the two versions are meant to be really similar. This means that we got to the point where the natural variance between two of the same experience has almost the same magnitude that the actual "solving time without display" values. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Since I'm not willing to repeat the same experience a couple times, to get the average solving times, the "solving time without display" stat is not relevant anymore.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3451,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EA32E1-4AE2-41F3-A97D-46388028FF7D}">
-  <dimension ref="B1:M161"/>
+  <dimension ref="B1:N161"/>
   <sheetViews>
-    <sheetView topLeftCell="C140" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3467,7 +3574,7 @@
     <col min="8" max="8" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
@@ -3475,10 +3582,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D3" s="89" t="s">
         <v>13</v>
       </c>
@@ -3490,9 +3597,10 @@
       <c r="J3" s="90"/>
       <c r="K3" s="90"/>
       <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="90"/>
+      <c r="N3" s="91"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3520,11 +3628,14 @@
       <c r="L4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D5" s="86" t="s">
         <v>14</v>
       </c>
@@ -3552,11 +3663,14 @@
       <c r="L5" s="1">
         <v>50</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D6" s="86"/>
       <c r="E6" s="1">
         <v>50</v>
@@ -3582,11 +3696,14 @@
       <c r="L6" s="1">
         <v>18</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D7" s="86"/>
       <c r="E7" s="1">
         <v>51</v>
@@ -3612,11 +3729,14 @@
       <c r="L7" s="1">
         <v>13</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D8" s="86"/>
       <c r="E8" s="1">
         <v>52</v>
@@ -3642,11 +3762,14 @@
       <c r="L8" s="1">
         <v>26</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D9" s="86"/>
       <c r="E9" s="1">
         <v>53</v>
@@ -3672,11 +3795,14 @@
       <c r="L9" s="1">
         <v>35</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D10" s="86"/>
       <c r="E10" s="1">
         <v>54</v>
@@ -3702,11 +3828,14 @@
       <c r="L10" s="1">
         <v>33</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D11" s="86"/>
       <c r="E11" s="1">
         <v>55</v>
@@ -3732,11 +3861,14 @@
       <c r="L11" s="1">
         <v>63</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D12" s="86"/>
       <c r="E12" s="1">
         <v>56</v>
@@ -3762,11 +3894,14 @@
       <c r="L12" s="1">
         <v>63</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D13" s="86"/>
       <c r="E13" s="1">
         <v>57</v>
@@ -3792,11 +3927,14 @@
       <c r="L13" s="1">
         <v>26</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D14" s="86"/>
       <c r="E14" s="1">
         <v>58</v>
@@ -3822,11 +3960,14 @@
       <c r="L14" s="1">
         <v>11</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D15" s="86"/>
       <c r="E15" s="1">
         <v>59</v>
@@ -3852,11 +3993,14 @@
       <c r="L15" s="1">
         <v>34</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D16" s="86"/>
       <c r="E16" s="1">
         <v>60</v>
@@ -3882,11 +4026,14 @@
       <c r="L16" s="1">
         <v>63</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D17" s="86"/>
       <c r="E17" s="1">
         <v>61</v>
@@ -3912,11 +4059,14 @@
       <c r="L17" s="1">
         <v>12</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D18" s="86"/>
       <c r="E18" s="1">
         <v>62</v>
@@ -3942,11 +4092,14 @@
       <c r="L18" s="1">
         <v>43</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D19" s="86"/>
       <c r="E19" s="1">
         <v>63</v>
@@ -3972,11 +4125,14 @@
       <c r="L19" s="1">
         <v>43</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D20" s="86"/>
       <c r="E20" s="1">
         <v>64</v>
@@ -4002,11 +4158,14 @@
       <c r="L20" s="1">
         <v>24</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D21" s="86"/>
       <c r="E21" s="1">
         <v>65</v>
@@ -4032,11 +4191,14 @@
       <c r="L21" s="1">
         <v>28</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D22" s="86"/>
       <c r="E22" s="1">
         <v>66</v>
@@ -4062,11 +4224,14 @@
       <c r="L22" s="1">
         <v>38</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D23" s="86"/>
       <c r="E23" s="1">
         <v>67</v>
@@ -4092,11 +4257,14 @@
       <c r="L23" s="1">
         <v>23</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D24" s="86"/>
       <c r="E24" s="1">
         <v>68</v>
@@ -4122,11 +4290,14 @@
       <c r="L24" s="1">
         <v>15</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N24" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D25" s="86"/>
       <c r="E25" s="1">
         <v>69</v>
@@ -4152,11 +4323,14 @@
       <c r="L25" s="1">
         <v>10</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D26" s="86"/>
       <c r="E26" s="1">
         <v>70</v>
@@ -4182,11 +4356,14 @@
       <c r="L26" s="1">
         <v>17</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D27" s="86"/>
       <c r="E27" s="1">
         <v>71</v>
@@ -4212,11 +4389,14 @@
       <c r="L27" s="1">
         <v>16</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D28" s="86"/>
       <c r="E28" s="1">
         <v>72</v>
@@ -4242,11 +4422,14 @@
       <c r="L28" s="1">
         <v>28</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D29" s="86"/>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -4279,12 +4462,16 @@
         <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="M29" s="51">
-        <f t="shared" ref="M29" si="1">AVERAGE(M5:M28)</f>
+      <c r="M29" s="72">
+        <f t="shared" ref="M29:N29" si="1">AVERAGE(M5:M28)</f>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="51">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D30" s="86" t="s">
         <v>15</v>
       </c>
@@ -4312,11 +4499,14 @@
       <c r="L30" s="1">
         <v>10</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D31" s="86"/>
       <c r="E31" s="1">
         <v>74</v>
@@ -4342,11 +4532,14 @@
       <c r="L31" s="1">
         <v>7</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D32" s="86"/>
       <c r="E32" s="1">
         <v>75</v>
@@ -4372,11 +4565,14 @@
       <c r="L32" s="1">
         <v>26</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N32" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D33" s="86"/>
       <c r="E33" s="1">
         <v>76</v>
@@ -4402,11 +4598,14 @@
       <c r="L33" s="1">
         <v>23</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N33" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D34" s="86"/>
       <c r="E34" s="1">
         <v>77</v>
@@ -4432,11 +4631,14 @@
       <c r="L34" s="1">
         <v>12</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D35" s="86"/>
       <c r="E35" s="1">
         <v>78</v>
@@ -4462,11 +4664,14 @@
       <c r="L35" s="1">
         <v>21</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N35" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D36" s="86"/>
       <c r="E36" s="1">
         <v>79</v>
@@ -4492,11 +4697,14 @@
       <c r="L36" s="1">
         <v>15</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D37" s="86"/>
       <c r="E37" s="1">
         <v>80</v>
@@ -4522,11 +4730,14 @@
       <c r="L37" s="1">
         <v>14</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D38" s="86"/>
       <c r="E38" s="1">
         <v>81</v>
@@ -4552,11 +4763,14 @@
       <c r="L38" s="1">
         <v>73</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N38" s="17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D39" s="86"/>
       <c r="E39" s="1">
         <v>82</v>
@@ -4582,11 +4796,14 @@
       <c r="L39" s="1">
         <v>28</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D40" s="86"/>
       <c r="E40" s="1">
         <v>83</v>
@@ -4612,11 +4829,14 @@
       <c r="L40" s="1">
         <v>11</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D41" s="86"/>
       <c r="E41" s="1">
         <v>84</v>
@@ -4642,11 +4862,14 @@
       <c r="L41" s="1">
         <v>23</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N41" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D42" s="86"/>
       <c r="E42" s="1">
         <v>85</v>
@@ -4672,11 +4895,14 @@
       <c r="L42" s="1">
         <v>35</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N42" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D43" s="86"/>
       <c r="E43" s="1">
         <v>86</v>
@@ -4702,11 +4928,14 @@
       <c r="L43" s="1">
         <v>40</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D44" s="86"/>
       <c r="E44" s="1">
         <v>87</v>
@@ -4732,11 +4961,14 @@
       <c r="L44" s="1">
         <v>59</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D45" s="86"/>
       <c r="E45" s="1">
         <v>88</v>
@@ -4762,11 +4994,14 @@
       <c r="L45" s="1">
         <v>45</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D46" s="86"/>
       <c r="E46" s="1">
         <v>89</v>
@@ -4792,11 +5027,14 @@
       <c r="L46" s="1">
         <v>12</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D47" s="86"/>
       <c r="E47" s="1">
         <v>90</v>
@@ -4822,11 +5060,14 @@
       <c r="L47" s="1">
         <v>170</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N47" s="17">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D48" s="86"/>
       <c r="E48" s="1">
         <v>91</v>
@@ -4852,11 +5093,14 @@
       <c r="L48" s="1">
         <v>182</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D49" s="86"/>
       <c r="E49" s="1">
         <v>92</v>
@@ -4882,11 +5126,14 @@
       <c r="L49" s="1">
         <v>198</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="17">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D50" s="86"/>
       <c r="E50" s="1">
         <v>93</v>
@@ -4912,11 +5159,14 @@
       <c r="L50" s="1">
         <v>188</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="17">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D51" s="86"/>
       <c r="E51" s="1">
         <v>94</v>
@@ -4942,11 +5192,14 @@
       <c r="L51" s="1">
         <v>339</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="1">
         <v>337</v>
       </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="17">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D52" s="86"/>
       <c r="E52" s="1">
         <v>95</v>
@@ -4972,11 +5225,14 @@
       <c r="L52" s="1">
         <v>139</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="17">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D53" s="86"/>
       <c r="E53" s="1">
         <v>96</v>
@@ -5002,11 +5258,14 @@
       <c r="L53" s="1">
         <v>267</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="1">
         <v>262</v>
       </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="17">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D54" s="86"/>
       <c r="E54" s="3" t="s">
         <v>4</v>
@@ -5039,12 +5298,16 @@
         <f t="shared" si="2"/>
         <v>80.708333333333329</v>
       </c>
-      <c r="M54" s="51">
-        <f t="shared" ref="M54" si="3">AVERAGE(M30:M53)</f>
+      <c r="M54" s="72">
+        <f t="shared" ref="M54:N54" si="3">AVERAGE(M30:M53)</f>
         <v>79.291666666666671</v>
       </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="51">
+        <f t="shared" si="3"/>
+        <v>78.958333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D55" s="86" t="s">
         <v>16</v>
       </c>
@@ -5072,11 +5335,14 @@
       <c r="L55" s="1">
         <v>994</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="1">
         <v>991</v>
       </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="17">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D56" s="86"/>
       <c r="E56" s="1">
         <v>98</v>
@@ -5102,11 +5368,14 @@
       <c r="L56" s="1">
         <v>2732</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="1">
         <v>2699</v>
       </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="17">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D57" s="86"/>
       <c r="E57" s="1">
         <v>99</v>
@@ -5132,11 +5401,14 @@
       <c r="L57" s="1">
         <v>2653</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="1">
         <v>2622</v>
       </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="17">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D58" s="86"/>
       <c r="E58" s="1">
         <v>100</v>
@@ -5162,11 +5434,14 @@
       <c r="L58" s="1">
         <v>1795</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="1">
         <v>1773</v>
       </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="17">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D59" s="86"/>
       <c r="E59" s="1">
         <v>101</v>
@@ -5192,11 +5467,14 @@
       <c r="L59" s="1">
         <v>603</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="1">
         <v>594</v>
       </c>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="17">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D60" s="86"/>
       <c r="E60" s="1">
         <v>102</v>
@@ -5222,11 +5500,14 @@
       <c r="L60" s="1">
         <v>1082</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="1">
         <v>1065</v>
       </c>
-    </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="17">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D61" s="86"/>
       <c r="E61" s="1">
         <v>103</v>
@@ -5252,11 +5533,14 @@
       <c r="L61" s="1">
         <v>1339</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="1">
         <v>1336</v>
       </c>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N61" s="17">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D62" s="86"/>
       <c r="E62" s="1">
         <v>104</v>
@@ -5282,11 +5566,14 @@
       <c r="L62" s="1">
         <v>753</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="1">
         <v>753</v>
       </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="17">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D63" s="86"/>
       <c r="E63" s="1">
         <v>105</v>
@@ -5312,11 +5599,14 @@
       <c r="L63" s="1">
         <v>715</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="1">
         <v>699</v>
       </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="17">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D64" s="86"/>
       <c r="E64" s="1">
         <v>106</v>
@@ -5342,11 +5632,14 @@
       <c r="L64" s="1">
         <v>2319</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="1">
         <v>2247</v>
       </c>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="17">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D65" s="86"/>
       <c r="E65" s="1">
         <v>107</v>
@@ -5372,11 +5665,14 @@
       <c r="L65" s="1">
         <v>723</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="1">
         <v>719</v>
       </c>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="17">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D66" s="86"/>
       <c r="E66" s="1">
         <v>108</v>
@@ -5402,11 +5698,14 @@
       <c r="L66" s="1">
         <v>444</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="1">
         <v>444</v>
       </c>
-    </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="17">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D67" s="86"/>
       <c r="E67" s="1">
         <v>109</v>
@@ -5432,11 +5731,14 @@
       <c r="L67" s="1">
         <v>3085</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M67" s="1">
         <v>3025</v>
       </c>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="17">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D68" s="86"/>
       <c r="E68" s="1">
         <v>110</v>
@@ -5462,11 +5764,14 @@
       <c r="L68" s="1">
         <v>2300</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="1">
         <v>2270</v>
       </c>
-    </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="17">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D69" s="86"/>
       <c r="E69" s="1">
         <v>111</v>
@@ -5492,11 +5797,14 @@
       <c r="L69" s="1">
         <v>4977</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="1">
         <v>4930</v>
       </c>
-    </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="17">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D70" s="86"/>
       <c r="E70" s="1">
         <v>112</v>
@@ -5522,11 +5830,14 @@
       <c r="L70" s="1">
         <v>1083</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="1">
         <v>1059</v>
       </c>
-    </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="17">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D71" s="86"/>
       <c r="E71" s="1">
         <v>113</v>
@@ -5552,11 +5863,14 @@
       <c r="L71" s="1">
         <v>2498</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="1">
         <v>2436</v>
       </c>
-    </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="17">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D72" s="86"/>
       <c r="E72" s="1">
         <v>114</v>
@@ -5582,11 +5896,14 @@
       <c r="L72" s="1">
         <v>2593</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="1">
         <v>2547</v>
       </c>
-    </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="17">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D73" s="86"/>
       <c r="E73" s="1">
         <v>115</v>
@@ -5612,11 +5929,14 @@
       <c r="L73" s="1">
         <v>5003</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="1">
         <v>4676</v>
       </c>
-    </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="17">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D74" s="86"/>
       <c r="E74" s="1">
         <v>116</v>
@@ -5642,11 +5962,14 @@
       <c r="L74" s="1">
         <v>4202</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="1">
         <v>3857</v>
       </c>
-    </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="17">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D75" s="86"/>
       <c r="E75" s="1">
         <v>117</v>
@@ -5672,11 +5995,14 @@
       <c r="L75" s="1">
         <v>2447</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M75" s="1">
         <v>2253</v>
       </c>
-    </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="17">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D76" s="86"/>
       <c r="E76" s="1">
         <v>118</v>
@@ -5702,11 +6028,14 @@
       <c r="L76" s="1">
         <v>2076</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M76" s="1">
         <v>1826</v>
       </c>
-    </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N76" s="17">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D77" s="86"/>
       <c r="E77" s="1">
         <v>119</v>
@@ -5732,11 +6061,14 @@
       <c r="L77" s="1">
         <v>83</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M77" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D78" s="86"/>
       <c r="E78" s="1">
         <v>120</v>
@@ -5762,11 +6094,14 @@
       <c r="L78" s="1">
         <v>2330</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M78" s="1">
         <v>2285</v>
       </c>
-    </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N78" s="17">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D79" s="86"/>
       <c r="E79" s="3" t="s">
         <v>5</v>
@@ -5799,12 +6134,16 @@
         <f t="shared" si="4"/>
         <v>2034.5416666666667</v>
       </c>
-      <c r="M79" s="52">
-        <f t="shared" ref="M79" si="5" xml:space="preserve"> AVERAGE(M55:M78)</f>
+      <c r="M79" s="73">
+        <f t="shared" ref="M79:N79" si="5" xml:space="preserve"> AVERAGE(M55:M78)</f>
         <v>1966.0416666666667</v>
       </c>
-    </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N79" s="52">
+        <f t="shared" si="5"/>
+        <v>1963.0416666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D80" s="87" t="s">
         <v>8</v>
       </c>
@@ -5837,12 +6176,16 @@
         <f t="shared" si="6"/>
         <v>715.25</v>
       </c>
-      <c r="M80" s="67">
-        <f t="shared" ref="M80" si="7">AVERAGE(M5:M28,M30:M53,M55:M78)</f>
+      <c r="M80" s="74">
+        <f t="shared" ref="M80:N80" si="7">AVERAGE(M5:M28,M30:M53,M55:M78)</f>
         <v>691.94444444444446</v>
       </c>
-    </row>
-    <row r="81" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N80" s="67">
+        <f t="shared" si="7"/>
+        <v>690.83333333333337</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D81" s="92" t="s">
         <v>31</v>
       </c>
@@ -5872,13 +6215,17 @@
         <f t="shared" si="8"/>
         <v>51498</v>
       </c>
-      <c r="M81" s="68">
-        <f t="shared" ref="M81" si="9">SUM(M5:M28,M30:M53,M55:M78)</f>
+      <c r="M81" s="18">
+        <f t="shared" ref="M81:N81" si="9">SUM(M5:M28,M30:M53,M55:M78)</f>
         <v>49820</v>
       </c>
-    </row>
-    <row r="82" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N81" s="68">
+        <f t="shared" si="9"/>
+        <v>49740</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D83" s="89" t="s">
         <v>29</v>
       </c>
@@ -5890,9 +6237,10 @@
       <c r="J83" s="90"/>
       <c r="K83" s="90"/>
       <c r="L83" s="90"/>
-      <c r="M83" s="91"/>
-    </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M83" s="90"/>
+      <c r="N83" s="91"/>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D84" s="4" t="s">
         <v>1</v>
       </c>
@@ -5920,11 +6268,14 @@
       <c r="L84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D85" s="86" t="s">
         <v>14</v>
       </c>
@@ -5958,12 +6309,16 @@
         <f xml:space="preserve"> -1 + L5/J5 * 1</f>
         <v>0</v>
       </c>
-      <c r="M85" s="81">
+      <c r="M85" s="82">
         <f xml:space="preserve"> -1 + M5/J5 * 1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="81">
+        <f xml:space="preserve"> -1 + N5/M5 * 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D86" s="86"/>
       <c r="E86" s="1">
         <v>50</v>
@@ -5986,19 +6341,23 @@
         <v>-0.84615384615384615</v>
       </c>
       <c r="K86" s="82">
-        <f t="shared" ref="K86:M149" si="13" xml:space="preserve"> -1 + K6/I6 * 1</f>
+        <f t="shared" ref="K86:L149" si="13" xml:space="preserve"> -1 + K6/I6 * 1</f>
         <v>0</v>
       </c>
       <c r="L86" s="82">
-        <f t="shared" ref="L86:M108" si="14" xml:space="preserve"> -1 + L6/J6 * 1</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="81">
+        <f t="shared" ref="L86:L108" si="14" xml:space="preserve"> -1 + L6/J6 * 1</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="82">
         <f t="shared" ref="M86:M108" si="15" xml:space="preserve"> -1 + M6/J6 * 1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="81">
+        <f t="shared" ref="N86:N149" si="16" xml:space="preserve"> -1 + N6/M6 * 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D87" s="86"/>
       <c r="E87" s="1">
         <v>51</v>
@@ -6028,12 +6387,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M87" s="81">
+      <c r="M87" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D88" s="86"/>
       <c r="E88" s="1">
         <v>52</v>
@@ -6063,12 +6426,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M88" s="81">
+      <c r="M88" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D89" s="86"/>
       <c r="E89" s="1">
         <v>53</v>
@@ -6098,12 +6465,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M89" s="81">
+      <c r="M89" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N89" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D90" s="86"/>
       <c r="E90" s="1">
         <v>54</v>
@@ -6133,12 +6504,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M90" s="81">
+      <c r="M90" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D91" s="86"/>
       <c r="E91" s="1">
         <v>55</v>
@@ -6168,12 +6543,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M91" s="81">
+      <c r="M91" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N91" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D92" s="86"/>
       <c r="E92" s="1">
         <v>56</v>
@@ -6203,12 +6582,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M92" s="81">
+      <c r="M92" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D93" s="86"/>
       <c r="E93" s="1">
         <v>57</v>
@@ -6238,12 +6621,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M93" s="81">
+      <c r="M93" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D94" s="86"/>
       <c r="E94" s="1">
         <v>58</v>
@@ -6273,12 +6660,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M94" s="81">
+      <c r="M94" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N94" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D95" s="86"/>
       <c r="E95" s="1">
         <v>59</v>
@@ -6308,12 +6699,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M95" s="81">
+      <c r="M95" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D96" s="86"/>
       <c r="E96" s="1">
         <v>60</v>
@@ -6343,12 +6738,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M96" s="81">
+      <c r="M96" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D97" s="86"/>
       <c r="E97" s="1">
         <v>61</v>
@@ -6378,12 +6777,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M97" s="81">
+      <c r="M97" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D98" s="86"/>
       <c r="E98" s="1">
         <v>62</v>
@@ -6413,12 +6816,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M98" s="81">
+      <c r="M98" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D99" s="86"/>
       <c r="E99" s="1">
         <v>63</v>
@@ -6448,12 +6855,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M99" s="81">
+      <c r="M99" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D100" s="86"/>
       <c r="E100" s="1">
         <v>64</v>
@@ -6483,12 +6894,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M100" s="81">
+      <c r="M100" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N100" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D101" s="86"/>
       <c r="E101" s="1">
         <v>65</v>
@@ -6518,12 +6933,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M101" s="81">
+      <c r="M101" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D102" s="86"/>
       <c r="E102" s="1">
         <v>66</v>
@@ -6553,12 +6972,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M102" s="81">
+      <c r="M102" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N102" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D103" s="86"/>
       <c r="E103" s="1">
         <v>67</v>
@@ -6588,12 +7011,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M103" s="81">
+      <c r="M103" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N103" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D104" s="86"/>
       <c r="E104" s="1">
         <v>68</v>
@@ -6623,12 +7050,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M104" s="81">
+      <c r="M104" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N104" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D105" s="86"/>
       <c r="E105" s="1">
         <v>69</v>
@@ -6658,12 +7089,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M105" s="81">
+      <c r="M105" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N105" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D106" s="86"/>
       <c r="E106" s="1">
         <v>70</v>
@@ -6693,12 +7128,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M106" s="81">
+      <c r="M106" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N106" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D107" s="86"/>
       <c r="E107" s="1">
         <v>71</v>
@@ -6728,12 +7167,16 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M107" s="81">
+      <c r="M107" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N107" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D108" s="86"/>
       <c r="E108" s="1">
         <v>72</v>
@@ -6763,47 +7206,55 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M108" s="81">
+      <c r="M108" s="82">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N108" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D109" s="86"/>
       <c r="E109" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="35">
-        <f t="shared" ref="G109:M109" si="16">AVERAGE(G85:G108)</f>
+        <f t="shared" ref="G109:N109" si="17">AVERAGE(G85:G108)</f>
         <v>0</v>
       </c>
       <c r="H109" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I109" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.11346025597859227</v>
       </c>
       <c r="J109" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.44856467543969653</v>
       </c>
       <c r="K109" s="35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.4253653189391719</v>
       </c>
       <c r="L109" s="35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="36">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D110" s="86" t="s">
         <v>15</v>
       </c>
@@ -6835,23 +7286,27 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M110" s="81">
+      <c r="M110" s="82">
         <f xml:space="preserve"> -1 + M30/J30 * 1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N110" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D111" s="86"/>
       <c r="E111" s="1">
         <v>74</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="34">
-        <f t="shared" ref="G111:H111" si="17" xml:space="preserve"> -1 + G31/F31 * 1</f>
+        <f t="shared" ref="G111:H111" si="18" xml:space="preserve"> -1 + G31/F31 * 1</f>
         <v>0</v>
       </c>
       <c r="H111" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.21739130434782605</v>
       </c>
       <c r="I111" s="34">
@@ -6870,27 +7325,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M111" s="81">
-        <f t="shared" ref="M111:M133" si="18" xml:space="preserve"> -1 + M31/J31 * 1</f>
+      <c r="M111" s="82">
+        <f t="shared" ref="M111:M133" si="19" xml:space="preserve"> -1 + M31/J31 * 1</f>
         <v>-0.1428571428571429</v>
       </c>
-    </row>
-    <row r="112" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N111" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D112" s="86"/>
       <c r="E112" s="1">
         <v>75</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="34">
-        <f t="shared" ref="G112:I127" si="19" xml:space="preserve"> -1 + G32/F32 * 1</f>
+        <f t="shared" ref="G112:I127" si="20" xml:space="preserve"> -1 + G32/F32 * 1</f>
         <v>0</v>
       </c>
       <c r="H112" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.77243589743589747</v>
       </c>
       <c r="I112" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.60563380281690149</v>
       </c>
       <c r="J112" s="82">
@@ -6905,27 +7364,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M112" s="81">
-        <f t="shared" si="18"/>
+      <c r="M112" s="82">
+        <f t="shared" si="19"/>
         <v>-3.8461538461538436E-2</v>
       </c>
-    </row>
-    <row r="113" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N112" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D113" s="86"/>
       <c r="E113" s="1">
         <v>76</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="34">
-        <f t="shared" ref="G113:H113" si="20" xml:space="preserve"> -1 + G33/F33 * 1</f>
+        <f t="shared" ref="G113:H113" si="21" xml:space="preserve"> -1 + G33/F33 * 1</f>
         <v>0</v>
       </c>
       <c r="H113" s="34">
+        <f t="shared" si="21"/>
+        <v>-0.11111111111111116</v>
+      </c>
+      <c r="I113" s="34">
         <f t="shared" si="20"/>
-        <v>-0.11111111111111116</v>
-      </c>
-      <c r="I113" s="34">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J113" s="82">
@@ -6940,27 +7403,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M113" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M113" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D114" s="86"/>
       <c r="E114" s="1">
         <v>77</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="34">
-        <f t="shared" ref="G114:H114" si="21" xml:space="preserve"> -1 + G34/F34 * 1</f>
+        <f t="shared" ref="G114:H114" si="22" xml:space="preserve"> -1 + G34/F34 * 1</f>
         <v>0</v>
       </c>
       <c r="H114" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-0.72662977713553967</v>
       </c>
       <c r="I114" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.94554987322188322</v>
       </c>
       <c r="J114" s="82">
@@ -6975,27 +7442,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M114" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M114" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D115" s="86"/>
       <c r="E115" s="1">
         <v>78</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="34">
-        <f t="shared" ref="G115:H115" si="22" xml:space="preserve"> -1 + G35/F35 * 1</f>
+        <f t="shared" ref="G115:H115" si="23" xml:space="preserve"> -1 + G35/F35 * 1</f>
         <v>-3.0735162024231322E-5</v>
       </c>
       <c r="H115" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.89525134835458098</v>
       </c>
       <c r="I115" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.58730927230046948</v>
       </c>
       <c r="J115" s="82">
@@ -7010,27 +7481,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M115" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M115" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D116" s="86"/>
       <c r="E116" s="1">
         <v>79</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="34">
-        <f t="shared" ref="G116:H116" si="23" xml:space="preserve"> -1 + G36/F36 * 1</f>
+        <f t="shared" ref="G116:H116" si="24" xml:space="preserve"> -1 + G36/F36 * 1</f>
         <v>-5.2631578947368585E-3</v>
       </c>
       <c r="H116" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-0.12698412698412698</v>
       </c>
       <c r="I116" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-4.8484848484848464E-2</v>
       </c>
       <c r="J116" s="82">
@@ -7045,27 +7520,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M116" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M116" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D117" s="86"/>
       <c r="E117" s="1">
         <v>80</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="34">
-        <f t="shared" ref="G117:H117" si="24" xml:space="preserve"> -1 + G37/F37 * 1</f>
+        <f t="shared" ref="G117:H117" si="25" xml:space="preserve"> -1 + G37/F37 * 1</f>
         <v>0</v>
       </c>
       <c r="H117" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.21052631578947367</v>
       </c>
       <c r="I117" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J117" s="82">
@@ -7080,27 +7559,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M117" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M117" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D118" s="86"/>
       <c r="E118" s="1">
         <v>81</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="34">
-        <f t="shared" ref="G118:H118" si="25" xml:space="preserve"> -1 + G38/F38 * 1</f>
+        <f t="shared" ref="G118:H118" si="26" xml:space="preserve"> -1 + G38/F38 * 1</f>
         <v>-1.1009376318826813E-4</v>
       </c>
       <c r="H118" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-0.50283522654285873</v>
       </c>
       <c r="I118" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.66672818544219692</v>
       </c>
       <c r="J118" s="82">
@@ -7115,27 +7598,31 @@
         <f t="shared" si="13"/>
         <v>-5.1948051948051965E-2</v>
       </c>
-      <c r="M118" s="81">
-        <f t="shared" si="18"/>
+      <c r="M118" s="82">
+        <f t="shared" si="19"/>
         <v>-5.1948051948051965E-2</v>
       </c>
-    </row>
-    <row r="119" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N118" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D119" s="86"/>
       <c r="E119" s="1">
         <v>82</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="34">
-        <f t="shared" ref="G119:H119" si="26" xml:space="preserve"> -1 + G39/F39 * 1</f>
+        <f t="shared" ref="G119:H119" si="27" xml:space="preserve"> -1 + G39/F39 * 1</f>
         <v>0</v>
       </c>
       <c r="H119" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-0.52272727272727271</v>
       </c>
       <c r="I119" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J119" s="82">
@@ -7150,27 +7637,31 @@
         <f t="shared" si="13"/>
         <v>-3.4482758620689613E-2</v>
       </c>
-      <c r="M119" s="81">
-        <f t="shared" si="18"/>
+      <c r="M119" s="82">
+        <f t="shared" si="19"/>
         <v>-0.10344827586206895</v>
       </c>
-    </row>
-    <row r="120" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N119" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D120" s="86"/>
       <c r="E120" s="1">
         <v>83</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="34">
-        <f t="shared" ref="G120:H120" si="27" xml:space="preserve"> -1 + G40/F40 * 1</f>
+        <f t="shared" ref="G120:H120" si="28" xml:space="preserve"> -1 + G40/F40 * 1</f>
         <v>0</v>
       </c>
       <c r="H120" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-0.56803005008347252</v>
       </c>
       <c r="I120" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.62222222222222223</v>
       </c>
       <c r="J120" s="82">
@@ -7185,27 +7676,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M120" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M120" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D121" s="86"/>
       <c r="E121" s="1">
         <v>84</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="34">
-        <f t="shared" ref="G121:H121" si="28" xml:space="preserve"> -1 + G41/F41 * 1</f>
+        <f t="shared" ref="G121:H121" si="29" xml:space="preserve"> -1 + G41/F41 * 1</f>
         <v>0</v>
       </c>
       <c r="H121" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-0.12903225806451613</v>
       </c>
       <c r="I121" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J121" s="82">
@@ -7220,27 +7715,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M121" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M121" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D122" s="86"/>
       <c r="E122" s="1">
         <v>85</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="34">
-        <f t="shared" ref="G122:H122" si="29" xml:space="preserve"> -1 + G42/F42 * 1</f>
+        <f t="shared" ref="G122:H122" si="30" xml:space="preserve"> -1 + G42/F42 * 1</f>
         <v>0</v>
       </c>
       <c r="H122" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.63389656938044037</v>
       </c>
       <c r="I122" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.56503496503496509</v>
       </c>
       <c r="J122" s="82">
@@ -7255,27 +7754,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M122" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M122" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D123" s="86"/>
       <c r="E123" s="1">
         <v>86</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="34">
-        <f t="shared" ref="G123:H123" si="30" xml:space="preserve"> -1 + G43/F43 * 1</f>
+        <f t="shared" ref="G123:H123" si="31" xml:space="preserve"> -1 + G43/F43 * 1</f>
         <v>0</v>
       </c>
       <c r="H123" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.46081955427749821</v>
       </c>
       <c r="I123" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.36533333333333329</v>
       </c>
       <c r="J123" s="82">
@@ -7290,27 +7793,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M123" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M123" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="81">
+        <f t="shared" si="16"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D124" s="86"/>
       <c r="E124" s="1">
         <v>87</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="34">
-        <f t="shared" ref="G124:H124" si="31" xml:space="preserve"> -1 + G44/F44 * 1</f>
+        <f t="shared" ref="G124:H124" si="32" xml:space="preserve"> -1 + G44/F44 * 1</f>
         <v>-1.4098572519531949E-3</v>
       </c>
       <c r="H124" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.42843696688040478</v>
       </c>
       <c r="I124" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.62885961300946891</v>
       </c>
       <c r="J124" s="82">
@@ -7325,27 +7832,31 @@
         <f t="shared" si="13"/>
         <v>-6.3492063492063489E-2</v>
       </c>
-      <c r="M124" s="81">
-        <f t="shared" si="18"/>
+      <c r="M124" s="82">
+        <f t="shared" si="19"/>
         <v>-6.3492063492063489E-2</v>
       </c>
-    </row>
-    <row r="125" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N124" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D125" s="86"/>
       <c r="E125" s="1">
         <v>88</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="34">
-        <f t="shared" ref="G125:H125" si="32" xml:space="preserve"> -1 + G45/F45 * 1</f>
+        <f t="shared" ref="G125:H125" si="33" xml:space="preserve"> -1 + G45/F45 * 1</f>
         <v>-7.6573976181825376E-2</v>
       </c>
       <c r="H125" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-0.71803681442602829</v>
       </c>
       <c r="I125" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.95871041770769716</v>
       </c>
       <c r="J125" s="82">
@@ -7360,27 +7871,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M125" s="81">
-        <f t="shared" si="18"/>
+      <c r="M125" s="82">
+        <f t="shared" si="19"/>
         <v>-6.6666666666666652E-2</v>
       </c>
-    </row>
-    <row r="126" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N125" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D126" s="86"/>
       <c r="E126" s="1">
         <v>89</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="34">
-        <f t="shared" ref="G126:H126" si="33" xml:space="preserve"> -1 + G46/F46 * 1</f>
+        <f t="shared" ref="G126:H126" si="34" xml:space="preserve"> -1 + G46/F46 * 1</f>
         <v>-7.0615048243349854E-5</v>
       </c>
       <c r="H126" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.56386920110202565</v>
       </c>
       <c r="I126" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.93827457854223884</v>
       </c>
       <c r="J126" s="82">
@@ -7395,27 +7910,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M126" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M126" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D127" s="86"/>
       <c r="E127" s="1">
         <v>90</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="34">
-        <f t="shared" ref="G127:H127" si="34" xml:space="preserve"> -1 + G47/F47 * 1</f>
+        <f t="shared" ref="G127:H127" si="35" xml:space="preserve"> -1 + G47/F47 * 1</f>
         <v>-1.5206234556197629E-5</v>
       </c>
       <c r="H127" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.67228545577579579</v>
       </c>
       <c r="I127" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.87009883532086674</v>
       </c>
       <c r="J127" s="82">
@@ -7430,27 +7949,31 @@
         <f t="shared" si="13"/>
         <v>-3.4090909090909061E-2</v>
       </c>
-      <c r="M127" s="81">
-        <f t="shared" si="18"/>
+      <c r="M127" s="82">
+        <f t="shared" si="19"/>
         <v>-4.5454545454545414E-2</v>
       </c>
-    </row>
-    <row r="128" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N127" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D128" s="86"/>
       <c r="E128" s="1">
         <v>91</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="34">
-        <f t="shared" ref="G128:I133" si="35" xml:space="preserve"> -1 + G48/F48 * 1</f>
+        <f t="shared" ref="G128:I133" si="36" xml:space="preserve"> -1 + G48/F48 * 1</f>
         <v>0</v>
       </c>
       <c r="H128" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.58930891412765596</v>
       </c>
       <c r="I128" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.5828868819837747</v>
       </c>
       <c r="J128" s="82">
@@ -7465,12 +7988,16 @@
         <f t="shared" si="13"/>
         <v>-3.1914893617021267E-2</v>
       </c>
-      <c r="M128" s="81">
-        <f t="shared" si="18"/>
+      <c r="M128" s="82">
+        <f t="shared" si="19"/>
         <v>-0.10106382978723405</v>
       </c>
-    </row>
-    <row r="129" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N128" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D129" s="86"/>
       <c r="E129" s="1">
         <v>92</v>
@@ -7478,11 +8005,11 @@
       <c r="F129" s="11"/>
       <c r="G129" s="34"/>
       <c r="H129" s="34">
-        <f t="shared" ref="H129" si="36" xml:space="preserve"> -1 + H49/G49 * 1</f>
+        <f t="shared" ref="H129" si="37" xml:space="preserve"> -1 + H49/G49 * 1</f>
         <v>-0.59303704205552066</v>
       </c>
       <c r="I129" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.64890229944854849</v>
       </c>
       <c r="J129" s="82">
@@ -7497,27 +8024,31 @@
         <f t="shared" si="13"/>
         <v>-4.3478260869565188E-2</v>
       </c>
-      <c r="M129" s="81">
-        <f t="shared" si="18"/>
+      <c r="M129" s="82">
+        <f t="shared" si="19"/>
         <v>-5.7971014492753659E-2</v>
       </c>
-    </row>
-    <row r="130" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N129" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D130" s="86"/>
       <c r="E130" s="1">
         <v>93</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="34">
-        <f t="shared" ref="G130:H130" si="37" xml:space="preserve"> -1 + G50/F50 * 1</f>
+        <f t="shared" ref="G130:H130" si="38" xml:space="preserve"> -1 + G50/F50 * 1</f>
         <v>-3.4740780331373733E-3</v>
       </c>
       <c r="H130" s="34">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-0.65915795119334941</v>
       </c>
       <c r="I130" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.36506687647521641</v>
       </c>
       <c r="J130" s="82">
@@ -7532,27 +8063,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M130" s="81">
-        <f t="shared" si="18"/>
+      <c r="M130" s="82">
+        <f t="shared" si="19"/>
         <v>-1.0638297872340385E-2</v>
       </c>
-    </row>
-    <row r="131" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N130" s="81">
+        <f t="shared" si="16"/>
+        <v>-5.3763440860215006E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D131" s="86"/>
       <c r="E131" s="1">
         <v>94</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="34">
-        <f t="shared" ref="G131:H131" si="38" xml:space="preserve"> -1 + G51/F51 * 1</f>
+        <f t="shared" ref="G131:H131" si="39" xml:space="preserve"> -1 + G51/F51 * 1</f>
         <v>-1.4950060436414558E-2</v>
       </c>
       <c r="H131" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.54491733402221643</v>
       </c>
       <c r="I131" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.42035052863123534</v>
       </c>
       <c r="J131" s="82">
@@ -7567,27 +8102,31 @@
         <f t="shared" si="13"/>
         <v>-1.1661807580174877E-2</v>
       </c>
-      <c r="M131" s="81">
-        <f t="shared" si="18"/>
+      <c r="M131" s="82">
+        <f t="shared" si="19"/>
         <v>-1.7492711370262426E-2</v>
       </c>
-    </row>
-    <row r="132" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N131" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D132" s="86"/>
       <c r="E132" s="1">
         <v>95</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="34">
-        <f t="shared" ref="G132:H132" si="39" xml:space="preserve"> -1 + G52/F52 * 1</f>
+        <f t="shared" ref="G132:H132" si="40" xml:space="preserve"> -1 + G52/F52 * 1</f>
         <v>0</v>
       </c>
       <c r="H132" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-0.64425572068884174</v>
       </c>
       <c r="I132" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.19761273209549068</v>
       </c>
       <c r="J132" s="82">
@@ -7602,27 +8141,31 @@
         <f t="shared" si="13"/>
         <v>-9.1503267973856217E-2</v>
       </c>
-      <c r="M132" s="81">
-        <f t="shared" si="18"/>
+      <c r="M132" s="82">
+        <f t="shared" si="19"/>
         <v>-9.1503267973856217E-2</v>
       </c>
-    </row>
-    <row r="133" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N132" s="81">
+        <f t="shared" si="16"/>
+        <v>-2.1582733812949617E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D133" s="86"/>
       <c r="E133" s="1">
         <v>96</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="34">
-        <f t="shared" ref="G133:J158" si="40" xml:space="preserve"> -1 + G53/F53 * 1</f>
+        <f t="shared" ref="G133:J158" si="41" xml:space="preserve"> -1 + G53/F53 * 1</f>
         <v>-1.0452156840099369E-2</v>
       </c>
       <c r="H133" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.5655345471521942</v>
       </c>
       <c r="I133" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.39704499664204163</v>
       </c>
       <c r="J133" s="82">
@@ -7637,47 +8180,55 @@
         <f t="shared" si="13"/>
         <v>-1.1111111111111072E-2</v>
       </c>
-      <c r="M133" s="81">
-        <f t="shared" si="18"/>
+      <c r="M133" s="82">
+        <f t="shared" si="19"/>
         <v>-2.9629629629629672E-2</v>
       </c>
-    </row>
-    <row r="134" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N133" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D134" s="86"/>
       <c r="E134" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="35">
-        <f t="shared" ref="G134:M134" si="41">AVERAGE(G110:G133)</f>
+        <f t="shared" ref="G134:N134" si="42">AVERAGE(G110:G133)</f>
         <v>-4.8847798628773378E-3</v>
       </c>
       <c r="H134" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-0.50482857331911035</v>
       </c>
       <c r="I134" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-0.37821080737240176</v>
       </c>
       <c r="J134" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-0.8145202702825024</v>
       </c>
       <c r="K134" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-0.7341591513279524</v>
       </c>
       <c r="L134" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-1.5570130179310115E-2</v>
       </c>
-      <c r="M134" s="36">
-        <f t="shared" si="41"/>
+      <c r="M134" s="35">
+        <f t="shared" si="42"/>
         <v>-3.4192793161173095E-2</v>
       </c>
-    </row>
-    <row r="135" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N134" s="36">
+        <f t="shared" si="42"/>
+        <v>-5.2899615791237959E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D135" s="86" t="s">
         <v>16</v>
       </c>
@@ -7686,15 +8237,15 @@
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.3860653781915264E-4</v>
       </c>
       <c r="H135" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.17852028639618134</v>
       </c>
       <c r="I135" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J135" s="82">
@@ -7709,12 +8260,16 @@
         <f t="shared" si="13"/>
         <v>-5.0050050050050032E-3</v>
       </c>
-      <c r="M135" s="81">
+      <c r="M135" s="82">
         <f xml:space="preserve"> -1 + M55/J55 * 1</f>
         <v>-8.0080080080080496E-3</v>
       </c>
-    </row>
-    <row r="136" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N135" s="81">
+        <f t="shared" si="16"/>
+        <v>-1.816347124117057E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D136" s="86"/>
       <c r="E136" s="1">
         <v>98</v>
@@ -7722,11 +8277,11 @@
       <c r="F136" s="11"/>
       <c r="G136" s="34"/>
       <c r="H136" s="34">
-        <f t="shared" ref="H136" si="42" xml:space="preserve"> -1 + H56/G56 * 1</f>
+        <f t="shared" ref="H136" si="43" xml:space="preserve"> -1 + H56/G56 * 1</f>
         <v>-0.57095280603486331</v>
       </c>
       <c r="I136" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.48800228636753362</v>
       </c>
       <c r="J136" s="82">
@@ -7741,27 +8296,31 @@
         <f t="shared" si="13"/>
         <v>-2.2889842632331958E-2</v>
       </c>
-      <c r="M136" s="81">
-        <f t="shared" ref="M136:M158" si="43" xml:space="preserve"> -1 + M56/J56 * 1</f>
+      <c r="M136" s="82">
+        <f t="shared" ref="M136:M158" si="44" xml:space="preserve"> -1 + M56/J56 * 1</f>
         <v>-3.4692417739628056E-2</v>
       </c>
-    </row>
-    <row r="137" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N136" s="81">
+        <f t="shared" si="16"/>
+        <v>1.4820303816227565E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D137" s="86"/>
       <c r="E137" s="1">
         <v>99</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-4.0899795501022629E-3</v>
       </c>
       <c r="H137" s="34">
-        <f t="shared" ref="H137" si="44" xml:space="preserve"> -1 + H57/G57 * 1</f>
+        <f t="shared" ref="H137" si="45" xml:space="preserve"> -1 + H57/G57 * 1</f>
         <v>-0.50513347022587274</v>
       </c>
       <c r="I137" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J137" s="82">
@@ -7776,27 +8335,31 @@
         <f t="shared" si="13"/>
         <v>-8.9652596189764289E-3</v>
       </c>
-      <c r="M137" s="81">
-        <f t="shared" si="43"/>
+      <c r="M137" s="82">
+        <f t="shared" si="44"/>
         <v>-2.0545386626821038E-2</v>
       </c>
-    </row>
-    <row r="138" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N137" s="81">
+        <f t="shared" si="16"/>
+        <v>3.0511060259343914E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D138" s="86"/>
       <c r="E138" s="1">
         <v>100</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-7.0012859504806624E-3</v>
       </c>
       <c r="H138" s="34">
-        <f t="shared" ref="H138" si="45" xml:space="preserve"> -1 + H58/G58 * 1</f>
+        <f t="shared" ref="H138" si="46" xml:space="preserve"> -1 + H58/G58 * 1</f>
         <v>-0.73561679235088206</v>
       </c>
       <c r="I138" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.48182868313488536</v>
       </c>
       <c r="J138" s="82">
@@ -7811,27 +8374,31 @@
         <f t="shared" si="13"/>
         <v>-1.6438356164383605E-2</v>
       </c>
-      <c r="M138" s="81">
-        <f t="shared" si="43"/>
+      <c r="M138" s="82">
+        <f t="shared" si="44"/>
         <v>-2.8493150684931523E-2</v>
       </c>
-    </row>
-    <row r="139" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N138" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D139" s="86"/>
       <c r="E139" s="1">
         <v>101</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-6.4149560117302551E-3</v>
       </c>
       <c r="H139" s="34">
-        <f t="shared" ref="H139" si="46" xml:space="preserve"> -1 + H59/G59 * 1</f>
+        <f t="shared" ref="H139" si="47" xml:space="preserve"> -1 + H59/G59 * 1</f>
         <v>-0.58448625714812763</v>
       </c>
       <c r="I139" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.17003329633740294</v>
       </c>
       <c r="J139" s="82">
@@ -7846,27 +8413,31 @@
         <f t="shared" si="13"/>
         <v>-1.3093289689034338E-2</v>
       </c>
-      <c r="M139" s="81">
-        <f t="shared" si="43"/>
+      <c r="M139" s="82">
+        <f t="shared" si="44"/>
         <v>-2.7823240589198051E-2</v>
       </c>
-    </row>
-    <row r="140" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N139" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D140" s="86"/>
       <c r="E140" s="1">
         <v>102</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.2828736369467908E-3</v>
       </c>
       <c r="H140" s="34">
-        <f t="shared" ref="H140" si="47" xml:space="preserve"> -1 + H60/G60 * 1</f>
+        <f t="shared" ref="H140" si="48" xml:space="preserve"> -1 + H60/G60 * 1</f>
         <v>-0.59280667951188182</v>
       </c>
       <c r="I140" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.21293375394321767</v>
       </c>
       <c r="J140" s="82">
@@ -7881,27 +8452,31 @@
         <f t="shared" si="13"/>
         <v>-7.0446735395188975E-2</v>
       </c>
-      <c r="M140" s="81">
-        <f t="shared" si="43"/>
+      <c r="M140" s="82">
+        <f t="shared" si="44"/>
         <v>-8.5051546391752608E-2</v>
       </c>
-    </row>
-    <row r="141" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N140" s="81">
+        <f t="shared" si="16"/>
+        <v>-5.070422535211272E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D141" s="86"/>
       <c r="E141" s="1">
         <v>103</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H141" s="34">
-        <f t="shared" ref="H141" si="48" xml:space="preserve"> -1 + H61/G61 * 1</f>
+        <f t="shared" ref="H141" si="49" xml:space="preserve"> -1 + H61/G61 * 1</f>
         <v>-0.10130414531904985</v>
       </c>
       <c r="I141" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-8.4218709510230916E-4</v>
       </c>
       <c r="J141" s="82">
@@ -7916,27 +8491,31 @@
         <f t="shared" si="13"/>
         <v>-2.9006526468455363E-2</v>
       </c>
-      <c r="M141" s="81">
-        <f t="shared" si="43"/>
+      <c r="M141" s="82">
+        <f t="shared" si="44"/>
         <v>-3.1182015953589604E-2</v>
       </c>
-    </row>
-    <row r="142" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N141" s="81">
+        <f t="shared" si="16"/>
+        <v>-2.0958083832335328E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D142" s="86"/>
       <c r="E142" s="1">
         <v>104</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H142" s="34">
-        <f t="shared" ref="H142" si="49" xml:space="preserve"> -1 + H62/G62 * 1</f>
+        <f t="shared" ref="H142" si="50" xml:space="preserve"> -1 + H62/G62 * 1</f>
         <v>-0.17351752021563338</v>
       </c>
       <c r="I142" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>8.1532816958818088E-4</v>
       </c>
       <c r="J142" s="82">
@@ -7951,27 +8530,31 @@
         <f t="shared" si="13"/>
         <v>-2.6490066225165476E-3</v>
       </c>
-      <c r="M142" s="81">
-        <f t="shared" si="43"/>
+      <c r="M142" s="82">
+        <f t="shared" si="44"/>
         <v>-2.6490066225165476E-3</v>
       </c>
-    </row>
-    <row r="143" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N142" s="81">
+        <f t="shared" si="16"/>
+        <v>-3.9840637450199168E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D143" s="86"/>
       <c r="E143" s="1">
         <v>105</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.094717825189262E-2</v>
       </c>
       <c r="H143" s="34">
-        <f t="shared" ref="H143" si="50" xml:space="preserve"> -1 + H63/G63 * 1</f>
+        <f t="shared" ref="H143" si="51" xml:space="preserve"> -1 + H63/G63 * 1</f>
         <v>-0.44118990149390047</v>
       </c>
       <c r="I143" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.47657405245544404</v>
       </c>
       <c r="J143" s="82">
@@ -7986,27 +8569,31 @@
         <f t="shared" si="13"/>
         <v>-8.3217753120665705E-3</v>
       </c>
-      <c r="M143" s="81">
-        <f t="shared" si="43"/>
+      <c r="M143" s="82">
+        <f t="shared" si="44"/>
         <v>-3.0513176144244092E-2</v>
       </c>
-    </row>
-    <row r="144" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N143" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D144" s="86"/>
       <c r="E144" s="1">
         <v>106</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.7131363111770437E-2</v>
       </c>
       <c r="H144" s="34">
-        <f t="shared" ref="H144" si="51" xml:space="preserve"> -1 + H64/G64 * 1</f>
+        <f t="shared" ref="H144" si="52" xml:space="preserve"> -1 + H64/G64 * 1</f>
         <v>-0.73004263572983952</v>
       </c>
       <c r="I144" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.73584413911841062</v>
       </c>
       <c r="J144" s="82">
@@ -8021,27 +8608,31 @@
         <f t="shared" si="13"/>
         <v>-2.6856903063365523E-2</v>
       </c>
-      <c r="M144" s="81">
-        <f t="shared" si="43"/>
+      <c r="M144" s="82">
+        <f t="shared" si="44"/>
         <v>-5.7070919009651666E-2</v>
       </c>
-    </row>
-    <row r="145" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N144" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D145" s="86"/>
       <c r="E145" s="1">
         <v>107</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H145" s="34">
-        <f t="shared" ref="H145" si="52" xml:space="preserve"> -1 + H65/G65 * 1</f>
+        <f t="shared" ref="H145" si="53" xml:space="preserve"> -1 + H65/G65 * 1</f>
         <v>-0.1379980563654033</v>
       </c>
       <c r="I145" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J145" s="82">
@@ -8056,27 +8647,31 @@
         <f t="shared" si="13"/>
         <v>-9.5890410958904271E-3</v>
       </c>
-      <c r="M145" s="81">
-        <f t="shared" si="43"/>
+      <c r="M145" s="82">
+        <f t="shared" si="44"/>
         <v>-1.5068493150684925E-2</v>
       </c>
-    </row>
-    <row r="146" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N145" s="81">
+        <f t="shared" si="16"/>
+        <v>3.6161335187760768E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D146" s="86"/>
       <c r="E146" s="1">
         <v>108</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.4644646691890815E-2</v>
       </c>
       <c r="H146" s="34">
-        <f t="shared" ref="H146" si="53" xml:space="preserve"> -1 + H66/G66 * 1</f>
+        <f t="shared" ref="H146" si="54" xml:space="preserve"> -1 + H66/G66 * 1</f>
         <v>-0.64990039840637448</v>
       </c>
       <c r="I146" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.53709665344014379</v>
       </c>
       <c r="J146" s="82">
@@ -8091,27 +8686,31 @@
         <f t="shared" si="13"/>
         <v>-6.7114093959731447E-3</v>
       </c>
-      <c r="M146" s="81">
-        <f t="shared" si="43"/>
+      <c r="M146" s="82">
+        <f t="shared" si="44"/>
         <v>-6.7114093959731447E-3</v>
       </c>
-    </row>
-    <row r="147" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N146" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D147" s="86"/>
       <c r="E147" s="1">
         <v>109</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.0389447236180858E-2</v>
       </c>
       <c r="H147" s="34">
-        <f t="shared" ref="H147" si="54" xml:space="preserve"> -1 + H67/G67 * 1</f>
+        <f t="shared" ref="H147" si="55" xml:space="preserve"> -1 + H67/G67 * 1</f>
         <v>-0.51279650837212687</v>
       </c>
       <c r="I147" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.49789421963289227</v>
       </c>
       <c r="J147" s="82">
@@ -8126,27 +8725,31 @@
         <f t="shared" si="13"/>
         <v>-1.9701302828090239E-2</v>
       </c>
-      <c r="M147" s="81">
-        <f t="shared" si="43"/>
+      <c r="M147" s="82">
+        <f t="shared" si="44"/>
         <v>-3.8767079758500134E-2</v>
       </c>
-    </row>
-    <row r="148" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N147" s="81">
+        <f t="shared" si="16"/>
+        <v>2.6446280991736515E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D148" s="86"/>
       <c r="E148" s="1">
         <v>110</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-2.8321050992720087E-3</v>
       </c>
       <c r="H148" s="34">
-        <f t="shared" ref="H148" si="55" xml:space="preserve"> -1 + H68/G68 * 1</f>
+        <f t="shared" ref="H148" si="56" xml:space="preserve"> -1 + H68/G68 * 1</f>
         <v>-0.59816356877323418</v>
       </c>
       <c r="I148" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.47976760967306231</v>
       </c>
       <c r="J148" s="82">
@@ -8161,27 +8764,31 @@
         <f t="shared" si="13"/>
         <v>-1.2451696006869906E-2</v>
       </c>
-      <c r="M148" s="81">
-        <f t="shared" si="43"/>
+      <c r="M148" s="82">
+        <f t="shared" si="44"/>
         <v>-2.5332760841562885E-2</v>
       </c>
-    </row>
-    <row r="149" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N148" s="81">
+        <f t="shared" si="16"/>
+        <v>-3.9647577092510877E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D149" s="86"/>
       <c r="E149" s="1">
         <v>111</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H149" s="34">
-        <f t="shared" ref="H149" si="56" xml:space="preserve"> -1 + H69/G69 * 1</f>
+        <f t="shared" ref="H149" si="57" xml:space="preserve"> -1 + H69/G69 * 1</f>
         <v>-0.61795373085695671</v>
       </c>
       <c r="I149" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.26716417910447765</v>
       </c>
       <c r="J149" s="82">
@@ -8196,257 +8803,289 @@
         <f t="shared" si="13"/>
         <v>-1.6791781904385572E-2</v>
       </c>
-      <c r="M149" s="81">
-        <f t="shared" si="43"/>
+      <c r="M149" s="82">
+        <f t="shared" si="44"/>
         <v>-2.6076649545634156E-2</v>
       </c>
-    </row>
-    <row r="150" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N149" s="81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D150" s="86"/>
       <c r="E150" s="1">
         <v>112</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.5279931611888897E-2</v>
       </c>
       <c r="H150" s="34">
-        <f t="shared" ref="H150" si="57" xml:space="preserve"> -1 + H70/G70 * 1</f>
+        <f t="shared" ref="H150" si="58" xml:space="preserve"> -1 + H70/G70 * 1</f>
         <v>-0.56206812312417109</v>
       </c>
       <c r="I150" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.49716101526078815</v>
       </c>
       <c r="J150" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.97678242437449236</v>
       </c>
       <c r="K150" s="82">
-        <f t="shared" ref="K150:M158" si="58" xml:space="preserve"> -1 + K70/I70 * 1</f>
+        <f t="shared" ref="K150:L158" si="59" xml:space="preserve"> -1 + K70/I70 * 1</f>
         <v>-0.85954555359654505</v>
       </c>
       <c r="L150" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-7.5938566552900988E-2</v>
       </c>
-      <c r="M150" s="81">
-        <f t="shared" si="43"/>
+      <c r="M150" s="82">
+        <f t="shared" si="44"/>
         <v>-9.6416382252559774E-2</v>
       </c>
-    </row>
-    <row r="151" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N150" s="81">
+        <f t="shared" ref="N150:N158" si="60" xml:space="preserve"> -1 + N70/M70 * 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D151" s="86"/>
       <c r="E151" s="1">
         <v>113</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.5945176023399288E-2</v>
       </c>
       <c r="H151" s="34">
-        <f t="shared" ref="H151" si="59" xml:space="preserve"> -1 + H71/G71 * 1</f>
+        <f t="shared" ref="H151" si="61" xml:space="preserve"> -1 + H71/G71 * 1</f>
         <v>-0.63781615622849275</v>
       </c>
       <c r="I151" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.53421891793991727</v>
       </c>
       <c r="J151" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.96700578801091308</v>
       </c>
       <c r="K151" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.85969810551008441</v>
       </c>
       <c r="L151" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-3.4775888717156089E-2</v>
       </c>
-      <c r="M151" s="81">
-        <f t="shared" si="43"/>
+      <c r="M151" s="82">
+        <f t="shared" si="44"/>
         <v>-5.8732612055641398E-2</v>
       </c>
-    </row>
-    <row r="152" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N151" s="81">
+        <f t="shared" si="60"/>
+        <v>-4.1050903119865811E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D152" s="86"/>
       <c r="E152" s="1">
         <v>114</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-9.9970514874050398E-3</v>
       </c>
       <c r="H152" s="34">
-        <f t="shared" ref="H152" si="60" xml:space="preserve"> -1 + H72/G72 * 1</f>
+        <f t="shared" ref="H152" si="62" xml:space="preserve"> -1 + H72/G72 * 1</f>
         <v>-0.62592719296480381</v>
       </c>
       <c r="I152" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.45206791186090545</v>
       </c>
       <c r="J152" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.94792546193571192</v>
       </c>
       <c r="K152" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.80181436173346166</v>
       </c>
       <c r="L152" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-2.2247360482654632E-2</v>
       </c>
-      <c r="M152" s="81">
-        <f t="shared" si="43"/>
+      <c r="M152" s="82">
+        <f t="shared" si="44"/>
         <v>-3.9592760180995445E-2</v>
       </c>
-    </row>
-    <row r="153" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N152" s="81">
+        <f t="shared" si="60"/>
+        <v>-3.9261876717711086E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D153" s="86"/>
       <c r="E153" s="1">
         <v>115</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-6.3534371128166622E-3</v>
       </c>
       <c r="H153" s="34">
-        <f t="shared" ref="H153" si="61" xml:space="preserve"> -1 + H73/G73 * 1</f>
+        <f t="shared" ref="H153" si="63" xml:space="preserve"> -1 + H73/G73 * 1</f>
         <v>-0.73977405457959644</v>
       </c>
       <c r="I153" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.71628928692125715</v>
       </c>
       <c r="J153" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.99040637742245841</v>
       </c>
       <c r="K153" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.99267329454345532</v>
       </c>
       <c r="L153" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-4.4317096466093608E-2</v>
       </c>
-      <c r="M153" s="81">
-        <f t="shared" si="43"/>
+      <c r="M153" s="82">
+        <f t="shared" si="44"/>
         <v>-0.10678127984718244</v>
       </c>
-    </row>
-    <row r="154" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N153" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D154" s="86"/>
       <c r="E154" s="1">
         <v>116</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.3530743842271598E-4</v>
       </c>
       <c r="H154" s="34">
-        <f t="shared" ref="H154" si="62" xml:space="preserve"> -1 + H74/G74 * 1</f>
+        <f t="shared" ref="H154" si="64" xml:space="preserve"> -1 + H74/G74 * 1</f>
         <v>-0.68564990813623239</v>
       </c>
       <c r="I154" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.65491568397005029</v>
       </c>
       <c r="J154" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.9659117869907623</v>
       </c>
       <c r="K154" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.98701984524839093</v>
       </c>
       <c r="L154" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-5.6578356533453111E-2</v>
       </c>
-      <c r="M154" s="81">
-        <f t="shared" si="43"/>
+      <c r="M154" s="82">
+        <f t="shared" si="44"/>
         <v>-0.1340368208352043</v>
       </c>
-    </row>
-    <row r="155" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N154" s="81">
+        <f t="shared" si="60"/>
+        <v>-1.0370754472387445E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D155" s="86"/>
       <c r="E155" s="1">
         <v>117</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-6.5906829507377251E-3</v>
       </c>
       <c r="H155" s="34">
-        <f t="shared" ref="H155" si="63" xml:space="preserve"> -1 + H75/G75 * 1</f>
+        <f t="shared" ref="H155" si="65" xml:space="preserve"> -1 + H75/G75 * 1</f>
         <v>-0.63107464008438052</v>
       </c>
       <c r="I155" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.73498074799358415</v>
       </c>
       <c r="J155" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.99883813758570106</v>
       </c>
       <c r="K155" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.99554665078544458</v>
       </c>
       <c r="L155" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-3.8128930817610041E-2</v>
       </c>
-      <c r="M155" s="81">
-        <f t="shared" si="43"/>
+      <c r="M155" s="82">
+        <f t="shared" si="44"/>
         <v>-0.11438679245283023</v>
       </c>
-    </row>
-    <row r="156" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N155" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D156" s="86"/>
       <c r="E156" s="1">
         <v>118</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.5813475073090943E-2</v>
       </c>
       <c r="H156" s="34">
-        <f t="shared" ref="H156" si="64" xml:space="preserve"> -1 + H76/G76 * 1</f>
+        <f t="shared" ref="H156" si="66" xml:space="preserve"> -1 + H76/G76 * 1</f>
         <v>-0.68130107449832256</v>
       </c>
       <c r="I156" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.73524652710875937</v>
       </c>
       <c r="J156" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.99877800452521071</v>
       </c>
       <c r="K156" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.99548144569331187</v>
       </c>
       <c r="L156" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-5.7648660916931438E-2</v>
       </c>
-      <c r="M156" s="81">
-        <f t="shared" si="43"/>
+      <c r="M156" s="82">
+        <f t="shared" si="44"/>
         <v>-0.17113027689514304</v>
       </c>
-    </row>
-    <row r="157" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N156" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D157" s="86"/>
       <c r="E157" s="1">
         <v>119</v>
@@ -8454,136 +9093,152 @@
       <c r="F157" s="11"/>
       <c r="G157" s="34"/>
       <c r="H157" s="34">
-        <f t="shared" ref="H157" si="65" xml:space="preserve"> -1 + H77/G77 * 1</f>
+        <f t="shared" ref="H157" si="67" xml:space="preserve"> -1 + H77/G77 * 1</f>
         <v>-0.7125844098857832</v>
       </c>
       <c r="I157" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.77955697502291965</v>
       </c>
       <c r="J157" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.99996185405822269</v>
       </c>
       <c r="K157" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.99775030861445668</v>
       </c>
       <c r="L157" s="82">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="M157" s="81">
-        <f t="shared" si="43"/>
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="82">
+        <f t="shared" si="44"/>
         <v>-4.8192771084337394E-2</v>
       </c>
-    </row>
-    <row r="158" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N157" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D158" s="86"/>
       <c r="E158" s="1">
         <v>120</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-1.4734990624492017E-2</v>
       </c>
       <c r="H158" s="34">
-        <f t="shared" ref="H158" si="66" xml:space="preserve"> -1 + H78/G78 * 1</f>
+        <f t="shared" ref="H158" si="68" xml:space="preserve"> -1 + H78/G78 * 1</f>
         <v>-0.66145757607625522</v>
       </c>
       <c r="I158" s="34">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.75930225874679103</v>
       </c>
       <c r="J158" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>-0.99873089091994038</v>
       </c>
       <c r="K158" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-0.99767428382537915</v>
       </c>
       <c r="L158" s="82">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>-1.4799154334038001E-2</v>
       </c>
-      <c r="M158" s="81">
-        <f t="shared" si="43"/>
+      <c r="M158" s="82">
+        <f t="shared" si="44"/>
         <v>-3.3826638477801318E-2</v>
       </c>
-    </row>
-    <row r="159" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N158" s="81">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D159" s="86"/>
       <c r="E159" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="35">
-        <f t="shared" ref="G159:M159" si="67">AVERAGE(G135:G158)</f>
+        <f t="shared" ref="G159:N159" si="69">AVERAGE(G135:G158)</f>
         <v>-8.1737497454699611E-3</v>
       </c>
       <c r="H159" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-0.54450149553243199</v>
       </c>
       <c r="I159" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-0.4254543773732482</v>
       </c>
       <c r="J159" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-0.28905280263174676</v>
       </c>
       <c r="K159" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-0.69298619626529556</v>
       </c>
       <c r="L159" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>-2.5556331084307146E-2</v>
       </c>
-      <c r="M159" s="36">
-        <f t="shared" si="67"/>
+      <c r="M159" s="35">
+        <f t="shared" si="69"/>
         <v>-5.1711733106016324E-2</v>
       </c>
-    </row>
-    <row r="160" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N159" s="36">
+        <f t="shared" si="69"/>
+        <v>-2.3448210596255237E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D160" s="87" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="88"/>
       <c r="F160" s="16"/>
       <c r="G160" s="37">
-        <f t="shared" ref="G160:M160" si="68">(AVERAGE(G85:G108,G110:G133,G135:G158))</f>
+        <f t="shared" ref="G160:N160" si="70">(AVERAGE(G85:G108,G110:G133,G135:G158))</f>
         <v>-4.2343830615437384E-3</v>
       </c>
       <c r="H160" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-0.34977668961718067</v>
       </c>
       <c r="I160" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-0.30570848024141412</v>
       </c>
       <c r="J160" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-0.51737924945131508</v>
       </c>
       <c r="K160" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-0.61750355551080693</v>
       </c>
       <c r="L160" s="37">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>-1.3708820421205754E-2</v>
       </c>
-      <c r="M160" s="38">
-        <f t="shared" si="68"/>
+      <c r="M160" s="37">
+        <f t="shared" si="70"/>
         <v>-2.8634842089063132E-2</v>
       </c>
-    </row>
-    <row r="161" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N160" s="38">
+        <f t="shared" si="70"/>
+        <v>-2.5449275462497731E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D161" s="92" t="s">
         <v>32</v>
       </c>
@@ -8614,9 +9269,13 @@
         <f xml:space="preserve"> -1 + L81/J81 * 1</f>
         <v>-2.9090703418110486E-2</v>
       </c>
-      <c r="M161" s="33">
+      <c r="M161" s="69">
         <f xml:space="preserve"> -1 + M81/J81 * 1</f>
         <v>-6.0726607718557313E-2</v>
+      </c>
+      <c r="N161" s="33">
+        <f xml:space="preserve"> -1 + N81/M81 * 1</f>
+        <v>-1.6057808109193328E-3</v>
       </c>
     </row>
   </sheetData>
@@ -8627,12 +9286,12 @@
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D85:D109"/>
     <mergeCell ref="D110:D134"/>
-    <mergeCell ref="D83:M83"/>
+    <mergeCell ref="D83:N83"/>
     <mergeCell ref="D5:D29"/>
     <mergeCell ref="D30:D54"/>
     <mergeCell ref="D55:D79"/>
     <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="D3:N3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -8647,10 +9306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE79279-43FE-4514-886C-88FC286043C2}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P55" workbookViewId="0">
-      <selection activeCell="AC72" sqref="AC72"/>
+    <sheetView tabSelected="1" topLeftCell="X78" workbookViewId="0">
+      <selection activeCell="AH79" sqref="AH79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8679,12 +9338,14 @@
     <col min="26" max="26" width="12.77734375" customWidth="1"/>
     <col min="27" max="27" width="18.44140625" customWidth="1"/>
     <col min="28" max="28" width="20.6640625" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
+    <row r="1" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="118" t="s">
         <v>11</v>
       </c>
@@ -8723,10 +9384,15 @@
       </c>
       <c r="AA2" s="95"/>
       <c r="AB2" s="96"/>
-    </row>
-    <row r="3" spans="3:28" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
+      <c r="AC2" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="96"/>
+    </row>
+    <row r="3" spans="3:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="121"/>
       <c r="F3" s="122"/>
       <c r="G3" s="123"/>
@@ -8755,8 +9421,11 @@
       <c r="Z3" s="97"/>
       <c r="AA3" s="98"/>
       <c r="AB3" s="99"/>
-    </row>
-    <row r="4" spans="3:28" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="99"/>
+    </row>
+    <row r="4" spans="3:31" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="75" t="s">
         <v>1</v>
       </c>
@@ -8835,8 +9504,17 @@
       <c r="AB4" s="84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC4" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C5" s="97" t="s">
         <v>14</v>
       </c>
@@ -8915,8 +9593,17 @@
       <c r="AB5" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>50</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C6" s="97"/>
       <c r="D6" s="12">
         <v>50</v>
@@ -8993,8 +9680,17 @@
       <c r="AB6" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC6" s="62">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C7" s="97"/>
       <c r="D7" s="12">
         <v>51</v>
@@ -9071,8 +9767,17 @@
       <c r="AB7" s="17">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC7" s="62">
+        <v>13</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C8" s="97"/>
       <c r="D8" s="12">
         <v>52</v>
@@ -9149,8 +9854,17 @@
       <c r="AB8" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC8" s="62">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C9" s="97"/>
       <c r="D9" s="12">
         <v>53</v>
@@ -9227,8 +9941,17 @@
       <c r="AB9" s="17">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC9" s="62">
+        <v>35</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C10" s="97"/>
       <c r="D10" s="12">
         <v>54</v>
@@ -9305,8 +10028,17 @@
       <c r="AB10" s="17">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC10" s="62">
+        <v>33</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C11" s="97"/>
       <c r="D11" s="12">
         <v>55</v>
@@ -9383,8 +10115,17 @@
       <c r="AB11" s="17">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC11" s="62">
+        <v>63</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C12" s="97"/>
       <c r="D12" s="12">
         <v>56</v>
@@ -9461,8 +10202,17 @@
       <c r="AB12" s="17">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC12" s="62">
+        <v>63</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C13" s="97"/>
       <c r="D13" s="12">
         <v>57</v>
@@ -9539,8 +10289,17 @@
       <c r="AB13" s="17">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC13" s="62">
+        <v>26</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C14" s="97"/>
       <c r="D14" s="12">
         <v>58</v>
@@ -9617,8 +10376,17 @@
       <c r="AB14" s="17">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC14" s="62">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C15" s="97"/>
       <c r="D15" s="12">
         <v>59</v>
@@ -9695,8 +10463,17 @@
       <c r="AB15" s="17">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC15" s="62">
+        <v>34</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C16" s="97"/>
       <c r="D16" s="12">
         <v>60</v>
@@ -9773,8 +10550,17 @@
       <c r="AB16" s="17">
         <v>174</v>
       </c>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC16" s="62">
+        <v>63</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C17" s="97"/>
       <c r="D17" s="12">
         <v>61</v>
@@ -9851,8 +10637,17 @@
       <c r="AB17" s="17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC17" s="62">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C18" s="97"/>
       <c r="D18" s="12">
         <v>62</v>
@@ -9929,8 +10724,17 @@
       <c r="AB18" s="17">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC18" s="62">
+        <v>43</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C19" s="97"/>
       <c r="D19" s="12">
         <v>63</v>
@@ -10007,8 +10811,17 @@
       <c r="AB19" s="17">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC19" s="62">
+        <v>43</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C20" s="97"/>
       <c r="D20" s="12">
         <v>64</v>
@@ -10085,8 +10898,17 @@
       <c r="AB20" s="17">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC20" s="62">
+        <v>24</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C21" s="97"/>
       <c r="D21" s="12">
         <v>65</v>
@@ -10163,8 +10985,17 @@
       <c r="AB21" s="17">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC21" s="62">
+        <v>28</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C22" s="97"/>
       <c r="D22" s="12">
         <v>66</v>
@@ -10241,8 +11072,17 @@
       <c r="AB22" s="17">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC22" s="62">
+        <v>38</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C23" s="97"/>
       <c r="D23" s="12">
         <v>67</v>
@@ -10319,8 +11159,17 @@
       <c r="AB23" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC23" s="62">
+        <v>23</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C24" s="97"/>
       <c r="D24" s="12">
         <v>68</v>
@@ -10397,8 +11246,17 @@
       <c r="AB24" s="17">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC24" s="62">
+        <v>15</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C25" s="97"/>
       <c r="D25" s="12">
         <v>69</v>
@@ -10475,8 +11333,17 @@
       <c r="AB25" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC25" s="62">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C26" s="97"/>
       <c r="D26" s="12">
         <v>70</v>
@@ -10553,8 +11420,17 @@
       <c r="AB26" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC26" s="62">
+        <v>17</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C27" s="97"/>
       <c r="D27" s="12">
         <v>71</v>
@@ -10631,8 +11507,17 @@
       <c r="AB27" s="17">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC27" s="62">
+        <v>16</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C28" s="97"/>
       <c r="D28" s="12">
         <v>72</v>
@@ -10709,8 +11594,17 @@
       <c r="AB28" s="17">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC28" s="62">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C29" s="97"/>
       <c r="D29" s="19" t="s">
         <v>3</v>
@@ -10804,15 +11698,27 @@
         <v>30.5</v>
       </c>
       <c r="AA29" s="27">
-        <f t="shared" ref="Z29:AB29" si="2">AVERAGE(AA5:AA28)</f>
+        <f t="shared" ref="AA29:AB29" si="2">AVERAGE(AA5:AA28)</f>
         <v>0.375</v>
       </c>
       <c r="AB29" s="28">
         <f t="shared" si="2"/>
         <v>52.333333333333336</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC29" s="26">
+        <f>AVERAGE(AC5:AC28)</f>
+        <v>30.5</v>
+      </c>
+      <c r="AD29" s="27">
+        <f t="shared" ref="AD29:AE29" si="3">AVERAGE(AD5:AD28)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AE29" s="28">
+        <f t="shared" si="3"/>
+        <v>33.958333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C30" s="97" t="s">
         <v>15</v>
       </c>
@@ -10891,8 +11797,17 @@
       <c r="AB30" s="17">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC30" s="62">
+        <v>10</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C31" s="97"/>
       <c r="D31" s="12">
         <v>74</v>
@@ -10969,8 +11884,17 @@
       <c r="AB31" s="17">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC31" s="62">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C32" s="97"/>
       <c r="D32" s="12">
         <v>75</v>
@@ -11047,8 +11971,17 @@
       <c r="AB32" s="17">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC32" s="62">
+        <v>25</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C33" s="97"/>
       <c r="D33" s="12">
         <v>76</v>
@@ -11125,8 +12058,17 @@
       <c r="AB33" s="17">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC33" s="62">
+        <v>23</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C34" s="97"/>
       <c r="D34" s="12">
         <v>77</v>
@@ -11203,8 +12145,17 @@
       <c r="AB34" s="17">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC34" s="62">
+        <v>12</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C35" s="97"/>
       <c r="D35" s="12">
         <v>78</v>
@@ -11279,8 +12230,17 @@
       <c r="AB35" s="17">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC35" s="62">
+        <v>21</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C36" s="97"/>
       <c r="D36" s="12">
         <v>79</v>
@@ -11355,8 +12315,17 @@
       <c r="AB36" s="17">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC36" s="62">
+        <v>15</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C37" s="97"/>
       <c r="D37" s="12">
         <v>80</v>
@@ -11431,8 +12400,17 @@
       <c r="AB37" s="17">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC37" s="62">
+        <v>14</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C38" s="97"/>
       <c r="D38" s="12">
         <v>81</v>
@@ -11507,8 +12485,17 @@
       <c r="AB38" s="17">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC38" s="62">
+        <v>73</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C39" s="97"/>
       <c r="D39" s="12">
         <v>82</v>
@@ -11583,8 +12570,17 @@
       <c r="AB39" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC39" s="62">
+        <v>26</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C40" s="97"/>
       <c r="D40" s="12">
         <v>83</v>
@@ -11659,8 +12655,17 @@
       <c r="AB40" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC40" s="62">
+        <v>11</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C41" s="97"/>
       <c r="D41" s="12">
         <v>84</v>
@@ -11735,8 +12740,17 @@
       <c r="AB41" s="17">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC41" s="62">
+        <v>23</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C42" s="97"/>
       <c r="D42" s="12">
         <v>85</v>
@@ -11811,8 +12825,17 @@
       <c r="AB42" s="17">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC42" s="62">
+        <v>35</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C43" s="97"/>
       <c r="D43" s="12">
         <v>86</v>
@@ -11887,8 +12910,17 @@
       <c r="AB43" s="17">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC43" s="62">
+        <v>36</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C44" s="97"/>
       <c r="D44" s="12">
         <v>87</v>
@@ -11963,8 +12995,17 @@
       <c r="AB44" s="17">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC44" s="62">
+        <v>59</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C45" s="97"/>
       <c r="D45" s="12">
         <v>88</v>
@@ -12037,8 +13078,17 @@
       <c r="AB45" s="17">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC45" s="62">
+        <v>42</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C46" s="97"/>
       <c r="D46" s="12">
         <v>89</v>
@@ -12111,8 +13161,17 @@
       <c r="AB46" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC46" s="62">
+        <v>12</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C47" s="97"/>
       <c r="D47" s="12">
         <v>90</v>
@@ -12185,8 +13244,17 @@
       <c r="AB47" s="17">
         <v>260</v>
       </c>
-    </row>
-    <row r="48" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="AC47" s="62">
+        <v>168</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C48" s="97"/>
       <c r="D48" s="12">
         <v>91</v>
@@ -12261,8 +13329,17 @@
       <c r="AB48" s="17">
         <v>256</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC48" s="62">
+        <v>169</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C49" s="97"/>
       <c r="D49" s="12">
         <v>92</v>
@@ -12335,8 +13412,17 @@
       <c r="AB49" s="17">
         <v>274</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC49" s="62">
+        <v>195</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="17">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C50" s="97"/>
       <c r="D50" s="12">
         <v>93</v>
@@ -12411,8 +13497,17 @@
       <c r="AB50" s="17">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC50" s="62">
+        <v>185</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C51" s="97"/>
       <c r="D51" s="12">
         <v>94</v>
@@ -12487,8 +13582,17 @@
       <c r="AB51" s="17">
         <v>433</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC51" s="62">
+        <v>337</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE51" s="17">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C52" s="97"/>
       <c r="D52" s="12">
         <v>95</v>
@@ -12563,8 +13667,17 @@
       <c r="AB52" s="17">
         <v>215</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC52" s="62">
+        <v>136</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C53" s="97"/>
       <c r="D53" s="12">
         <v>96</v>
@@ -12639,8 +13752,17 @@
       <c r="AB53" s="17">
         <v>339</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC53" s="62">
+        <v>262</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE53" s="17">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C54" s="97"/>
       <c r="D54" s="19" t="s">
         <v>4</v>
@@ -12658,11 +13780,11 @@
         <v>226271.66666666666</v>
       </c>
       <c r="H54" s="26">
-        <f t="shared" ref="H54:I54" si="3">AVERAGE(H30:H53)</f>
+        <f t="shared" ref="H54:I54" si="4">AVERAGE(H30:H53)</f>
         <v>163067.70833333334</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>520</v>
       </c>
       <c r="J54" s="28">
@@ -12670,11 +13792,11 @@
         <v>13797.894736842105</v>
       </c>
       <c r="K54" s="26">
-        <f t="shared" ref="K54:L54" si="4">AVERAGE(K30:K53)</f>
+        <f t="shared" ref="K54:L54" si="5">AVERAGE(K30:K53)</f>
         <v>45859.791666666664</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>244</v>
       </c>
       <c r="M54" s="54">
@@ -12682,67 +13804,79 @@
         <v>46671.5</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" ref="N54:Y54" si="5">AVERAGE(N30:N53)</f>
+        <f t="shared" ref="N54:Y54" si="6">AVERAGE(N30:N53)</f>
         <v>7598.833333333333</v>
       </c>
       <c r="O54" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.333333333333336</v>
       </c>
       <c r="P54" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7550.791666666667</v>
       </c>
       <c r="Q54" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82.833333333333329</v>
       </c>
       <c r="R54" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="S54" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113.95833333333333</v>
       </c>
       <c r="T54" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>215.75</v>
       </c>
       <c r="U54" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.375</v>
       </c>
       <c r="V54" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>262.75</v>
       </c>
       <c r="W54" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80.708333333333329</v>
       </c>
       <c r="X54" s="27">
-        <f t="shared" si="5"/>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="Y54" s="28">
-        <f t="shared" si="5"/>
-        <v>117.29166666666667</v>
-      </c>
-      <c r="Z54" s="26">
-        <f t="shared" ref="Z54:AB54" si="6">AVERAGE(Z30:Z53)</f>
-        <v>79.291666666666671</v>
-      </c>
-      <c r="AA54" s="27">
         <f t="shared" si="6"/>
         <v>0.70833333333333337</v>
       </c>
+      <c r="Y54" s="28">
+        <f t="shared" si="6"/>
+        <v>117.29166666666667</v>
+      </c>
+      <c r="Z54" s="26">
+        <f t="shared" ref="Z54:AB54" si="7">AVERAGE(Z30:Z53)</f>
+        <v>79.291666666666671</v>
+      </c>
+      <c r="AA54" s="27">
+        <f t="shared" si="7"/>
+        <v>0.70833333333333337</v>
+      </c>
       <c r="AB54" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>103.66666666666667</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC54" s="26">
+        <f t="shared" ref="AC54:AE54" si="8">AVERAGE(AC30:AC53)</f>
+        <v>78.958333333333329</v>
+      </c>
+      <c r="AD54" s="27">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE54" s="28">
+        <f t="shared" si="8"/>
+        <v>98.958333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C55" s="97" t="s">
         <v>16</v>
       </c>
@@ -12821,8 +13955,17 @@
       <c r="AB55" s="17">
         <v>1057</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC55" s="62">
+        <v>973</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE55" s="17">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C56" s="97"/>
       <c r="D56" s="12">
         <v>98</v>
@@ -12895,8 +14038,17 @@
       <c r="AB56" s="17">
         <v>2724</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC56" s="62">
+        <v>2703</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE56" s="17">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C57" s="97"/>
       <c r="D57" s="12">
         <v>99</v>
@@ -12971,8 +14123,17 @@
       <c r="AB57" s="17">
         <v>2610</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC57" s="62">
+        <v>2630</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE57" s="17">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C58" s="97"/>
       <c r="D58" s="12">
         <v>100</v>
@@ -13045,8 +14206,17 @@
       <c r="AB58" s="17">
         <v>1836</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC58" s="62">
+        <v>1773</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>11</v>
+      </c>
+      <c r="AE58" s="17">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C59" s="97"/>
       <c r="D59" s="12">
         <v>101</v>
@@ -13121,8 +14291,17 @@
       <c r="AB59" s="17">
         <v>641</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC59" s="62">
+        <v>594</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="17">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C60" s="97"/>
       <c r="D60" s="12">
         <v>102</v>
@@ -13197,8 +14376,17 @@
       <c r="AB60" s="17">
         <v>1121</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC60" s="62">
+        <v>1011</v>
+      </c>
+      <c r="AD60" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE60" s="17">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C61" s="97"/>
       <c r="D61" s="12">
         <v>103</v>
@@ -13273,8 +14461,17 @@
       <c r="AB61" s="17">
         <v>1371</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC61" s="62">
+        <v>1308</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE61" s="17">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C62" s="97"/>
       <c r="D62" s="12">
         <v>104</v>
@@ -13349,8 +14546,17 @@
       <c r="AB62" s="17">
         <v>808</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC62" s="62">
+        <v>750</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE62" s="17">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C63" s="97"/>
       <c r="D63" s="12">
         <v>105</v>
@@ -13425,9 +14631,18 @@
       <c r="AB63" s="17">
         <v>745</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="100" t="s">
+      <c r="AC63" s="62">
+        <v>699</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE63" s="17">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="104" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="97"/>
@@ -13498,9 +14713,18 @@
       <c r="AB64" s="17">
         <v>2268</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A65" s="100"/>
+      <c r="AC64" s="62">
+        <v>2247</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>17</v>
+      </c>
+      <c r="AE64" s="17">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A65" s="104"/>
       <c r="C65" s="97"/>
       <c r="D65" s="12">
         <v>107</v>
@@ -13575,9 +14799,18 @@
       <c r="AB65" s="17">
         <v>785</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A66" s="100"/>
+      <c r="AC65" s="62">
+        <v>745</v>
+      </c>
+      <c r="AD65" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE65" s="17">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A66" s="104"/>
       <c r="C66" s="97"/>
       <c r="D66" s="12">
         <v>108</v>
@@ -13650,8 +14883,17 @@
       <c r="AB66" s="17">
         <v>501</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC66" s="62">
+        <v>444</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE66" s="17">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C67" s="97"/>
       <c r="D67" s="12">
         <v>109</v>
@@ -13724,8 +14966,17 @@
       <c r="AB67" s="17">
         <v>3004</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC67" s="62">
+        <v>3033</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE67" s="17">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C68" s="97"/>
       <c r="D68" s="12">
         <v>110</v>
@@ -13798,8 +15049,17 @@
       <c r="AB68" s="17">
         <v>2350</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC68" s="62">
+        <v>2261</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE68" s="17">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C69" s="97"/>
       <c r="D69" s="12">
         <v>111</v>
@@ -13874,8 +15134,17 @@
       <c r="AB69" s="17">
         <v>4972</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC69" s="62">
+        <v>4930</v>
+      </c>
+      <c r="AD69" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE69" s="17">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C70" s="97"/>
       <c r="D70" s="12">
         <v>112</v>
@@ -13948,8 +15217,17 @@
       <c r="AB70" s="17">
         <v>1110</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC70" s="62">
+        <v>1059</v>
+      </c>
+      <c r="AD70" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE70" s="17">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C71" s="97"/>
       <c r="D71" s="12">
         <v>113</v>
@@ -14020,8 +15298,17 @@
       <c r="AB71" s="17">
         <v>2456</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC71" s="62">
+        <v>2435</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE71" s="17">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C72" s="97"/>
       <c r="D72" s="12">
         <v>114</v>
@@ -14092,8 +15379,17 @@
       <c r="AB72" s="17">
         <v>2573</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC72" s="62">
+        <v>2546</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE72" s="17">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C73" s="97"/>
       <c r="D73" s="12">
         <v>115</v>
@@ -14164,8 +15460,17 @@
       <c r="AB73" s="17">
         <v>4726</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC73" s="62">
+        <v>4676</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>38</v>
+      </c>
+      <c r="AE73" s="17">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C74" s="97"/>
       <c r="D74" s="12">
         <v>116</v>
@@ -14236,8 +15541,17 @@
       <c r="AB74" s="17">
         <v>3876</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC74" s="62">
+        <v>3853</v>
+      </c>
+      <c r="AD74" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE74" s="17">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C75" s="97"/>
       <c r="D75" s="12">
         <v>117</v>
@@ -14306,8 +15620,17 @@
       <c r="AB75" s="17">
         <v>2290</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC75" s="62">
+        <v>2253</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE75" s="17">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C76" s="97"/>
       <c r="D76" s="12">
         <v>118</v>
@@ -14376,8 +15699,17 @@
       <c r="AB76" s="17">
         <v>1868</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC76" s="62">
+        <v>1826</v>
+      </c>
+      <c r="AD76" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE76" s="17">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C77" s="97"/>
       <c r="D77" s="12">
         <v>119</v>
@@ -14446,8 +15778,17 @@
       <c r="AB77" s="17">
         <v>160</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC77" s="62">
+        <v>79</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C78" s="97"/>
       <c r="D78" s="12">
         <v>120</v>
@@ -14518,8 +15859,17 @@
       <c r="AB78" s="17">
         <v>2342</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC78" s="62">
+        <v>2285</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE78" s="17">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C79" s="97"/>
       <c r="D79" s="19" t="s">
         <v>5</v>
@@ -14529,113 +15879,125 @@
         <v>4050647.4545454546</v>
       </c>
       <c r="F79" s="27">
-        <f t="shared" ref="F79:G79" si="7">AVERAGE(F55,F57:F76,F78)</f>
+        <f t="shared" ref="F79:G79" si="9">AVERAGE(F55,F57:F76,F78)</f>
         <v>13716.818181818182</v>
       </c>
       <c r="G79" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3992</v>
       </c>
       <c r="H79" s="26">
-        <f t="shared" ref="H79:J79" si="8" xml:space="preserve"> AVERAGE(H55:H78)</f>
+        <f t="shared" ref="H79:J79" si="10" xml:space="preserve"> AVERAGE(H55:H78)</f>
         <v>5106807.583333333</v>
       </c>
       <c r="I79" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16157.333333333334</v>
       </c>
       <c r="J79" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10887</v>
       </c>
       <c r="K79" s="26">
-        <f t="shared" ref="K79:Y79" si="9" xml:space="preserve"> AVERAGE(K55:K78)</f>
+        <f t="shared" ref="K79:Y79" si="11" xml:space="preserve"> AVERAGE(K55:K78)</f>
         <v>1614236.7916666667</v>
       </c>
       <c r="L79" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8565.6666666666661</v>
       </c>
       <c r="M79" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>37989.199999999997</v>
       </c>
       <c r="N79" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>412760.04166666669</v>
       </c>
       <c r="O79" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2079.1666666666665</v>
       </c>
       <c r="P79" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>58374.315789473687</v>
       </c>
       <c r="Q79" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2096.7083333333335</v>
       </c>
       <c r="R79" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.75</v>
       </c>
       <c r="S79" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2096.75</v>
       </c>
       <c r="T79" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5513.666666666667</v>
       </c>
       <c r="U79" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>40.833333333333336</v>
       </c>
       <c r="V79" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5502.791666666667</v>
       </c>
       <c r="W79" s="63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2034.5416666666667</v>
       </c>
       <c r="X79" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19.958333333333332</v>
       </c>
       <c r="Y79" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2164</v>
       </c>
       <c r="Z79" s="63">
-        <f t="shared" ref="Z79:AB79" si="10" xml:space="preserve"> AVERAGE(Z55:Z78)</f>
+        <f t="shared" ref="Z79:AB79" si="12" xml:space="preserve"> AVERAGE(Z55:Z78)</f>
         <v>1966.0416666666667</v>
       </c>
       <c r="AA79" s="60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18.083333333333332</v>
       </c>
       <c r="AB79" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2008.0833333333333</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="C80" s="109" t="s">
+      <c r="AC79" s="63">
+        <f t="shared" ref="AC79:AE79" si="13" xml:space="preserve"> AVERAGE(AC55:AC78)</f>
+        <v>1963.0416666666667</v>
+      </c>
+      <c r="AD79" s="60">
+        <f t="shared" si="13"/>
+        <v>12.833333333333334</v>
+      </c>
+      <c r="AE79" s="32">
+        <f t="shared" si="13"/>
+        <v>1959.1666666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C80" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="110"/>
+      <c r="D80" s="103"/>
       <c r="E80" s="30">
         <f>(AVERAGE(E5:E28,E30:E48,E50:E53,E55,E57:E76,E78))</f>
         <v>1347862.3043478262</v>
       </c>
       <c r="F80" s="29">
-        <f t="shared" ref="F80:G80" si="11">(AVERAGE(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78))</f>
+        <f t="shared" ref="F80:G80" si="14">(AVERAGE(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78))</f>
         <v>4566.666666666667</v>
       </c>
       <c r="G80" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>44345.225806451614</v>
       </c>
       <c r="H80" s="30">
@@ -14643,71 +16005,71 @@
         <v>1756797.888888889</v>
       </c>
       <c r="I80" s="39">
-        <f t="shared" ref="I80:Y80" si="12">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I80:Y80" si="15">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
         <v>5559.7361111111113</v>
       </c>
       <c r="J80" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7178.3269230769229</v>
       </c>
       <c r="K80" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>553538.3194444445</v>
       </c>
       <c r="L80" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2937.3194444444443</v>
       </c>
       <c r="M80" s="57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>27042.126984126986</v>
       </c>
       <c r="N80" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>140189.19444444444</v>
       </c>
       <c r="O80" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>706.51388888888891</v>
       </c>
       <c r="P80" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>19343.089552238805</v>
       </c>
       <c r="Q80" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>736.68055555555554</v>
       </c>
       <c r="R80" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5.5</v>
       </c>
       <c r="S80" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>750.69444444444446</v>
       </c>
       <c r="T80" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1925.2083333333333</v>
       </c>
       <c r="U80" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14.152777777777779</v>
       </c>
       <c r="V80" s="70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1953.3472222222222</v>
       </c>
       <c r="W80" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>715.25</v>
       </c>
       <c r="X80" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.9861111111111107</v>
       </c>
       <c r="Y80" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>780.93055555555554</v>
       </c>
       <c r="Z80" s="30">
@@ -14715,29 +16077,41 @@
         <v>691.94444444444446</v>
       </c>
       <c r="AA80" s="29">
-        <f t="shared" ref="Z80:AB80" si="13">AVERAGE(AA5:AA28,AA30:AA53,AA55:AA78)</f>
+        <f t="shared" ref="AA80:AB80" si="16">AVERAGE(AA5:AA28,AA30:AA53,AA55:AA78)</f>
         <v>6.3888888888888893</v>
       </c>
       <c r="AB80" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>721.36111111111109</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.3">
-      <c r="C81" s="101" t="s">
+      <c r="AC80" s="30">
+        <f>AVERAGE(AC5:AC28,AC30:AC53,AC55:AC78)</f>
+        <v>690.83333333333337</v>
+      </c>
+      <c r="AD80" s="29">
+        <f t="shared" ref="AD80:AE80" si="17">AVERAGE(AD5:AD28,AD30:AD53,AD55:AD78)</f>
+        <v>4.5277777777777777</v>
+      </c>
+      <c r="AE80" s="31">
+        <f t="shared" si="17"/>
+        <v>697.36111111111109</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="C81" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="102"/>
+      <c r="D81" s="106"/>
       <c r="E81" s="41">
         <f>SUM(E5:E28,E30:E48,E50:E53,E55,E57:E76,E78)</f>
         <v>93002499</v>
       </c>
       <c r="F81" s="15">
-        <f t="shared" ref="F81:G81" si="14">SUM(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78)</f>
+        <f t="shared" ref="F81:G81" si="18">SUM(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78)</f>
         <v>315100</v>
       </c>
       <c r="G81" s="42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1374702</v>
       </c>
       <c r="H81" s="43">
@@ -14745,71 +16119,71 @@
         <v>126489448</v>
       </c>
       <c r="I81" s="44">
-        <f t="shared" ref="I81:Y81" si="15">SUM(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I81:Y81" si="19">SUM(I5:I28,I30:I53,I55:I78)</f>
         <v>400301</v>
       </c>
       <c r="J81" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>373273</v>
       </c>
       <c r="K81" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>39854759</v>
       </c>
       <c r="L81" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>211487</v>
       </c>
       <c r="M81" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1703654</v>
       </c>
       <c r="N81" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10093622</v>
       </c>
       <c r="O81" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>50869</v>
       </c>
       <c r="P81" s="71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1295987</v>
       </c>
       <c r="Q81" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>53041</v>
       </c>
       <c r="R81" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>396</v>
       </c>
       <c r="S81" s="71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>54050</v>
       </c>
       <c r="T81" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>138615</v>
       </c>
       <c r="U81" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1019</v>
       </c>
       <c r="V81" s="71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>140641</v>
       </c>
       <c r="W81" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>51498</v>
       </c>
       <c r="X81" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>503</v>
       </c>
       <c r="Y81" s="65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>56227</v>
       </c>
       <c r="Z81" s="64">
@@ -14817,19 +16191,31 @@
         <v>49820</v>
       </c>
       <c r="AA81" s="61">
-        <f t="shared" ref="Z81:AB81" si="16">SUM(AA5:AA28,AA30:AA53,AA55:AA78)</f>
+        <f t="shared" ref="AA81:AB81" si="20">SUM(AA5:AA28,AA30:AA53,AA55:AA78)</f>
         <v>460</v>
       </c>
       <c r="AB81" s="65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>51938</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C82" s="107" t="s">
+      <c r="AC81" s="64">
+        <f>SUM(AC5:AC28,AC30:AC53,AC55:AC78)</f>
+        <v>49740</v>
+      </c>
+      <c r="AD81" s="61">
+        <f t="shared" ref="AD81:AE81" si="21">SUM(AD5:AD28,AD30:AD53,AD55:AD78)</f>
+        <v>326</v>
+      </c>
+      <c r="AE81" s="65">
+        <f t="shared" si="21"/>
+        <v>50210</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="108"/>
+      <c r="D82" s="101"/>
       <c r="E82" s="46"/>
       <c r="F82" s="47">
         <f>E81/F81</f>
@@ -14890,23 +16276,25 @@
         <f>Z81/AB81</f>
         <v>0.95922060918787788</v>
       </c>
+      <c r="AC82" s="85"/>
+      <c r="AD82" s="47">
+        <f>AC81/AD81</f>
+        <v>152.57668711656441</v>
+      </c>
+      <c r="AE82" s="80">
+        <f>AC81/AE81</f>
+        <v>0.99063931487751444</v>
+      </c>
     </row>
     <row r="118" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="Z2:AB3"/>
-    <mergeCell ref="W2:Y3"/>
+  <mergeCells count="18">
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="C30:C54"/>
-    <mergeCell ref="C55:C79"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:V3"/>
@@ -14914,6 +16302,14 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:P3"/>
+    <mergeCell ref="AC2:AE3"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="C30:C54"/>
+    <mergeCell ref="C55:C79"/>
+    <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="W2:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16168,8 +17564,8 @@
       </c>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="100"/>
-      <c r="D84" s="100"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="104"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>

--- a/showcase_binaries_and_assets/IQ_circuit_solver_stats.xlsx
+++ b/showcase_binaries_and_assets/IQ_circuit_solver_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Projets_persos\Prog\C\IQ_circuit_solver\showcase_binaries_and_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB30565-9022-4ABE-A3AD-F03276DD0799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E92660-E808-4AAA-99F1-B944CF7A02FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{22D5D88B-9009-499F-A617-719D769432EB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>Level_num</t>
   </si>
@@ -184,6 +184,15 @@
   <si>
     <t>V6.1</t>
   </si>
+  <si>
+    <t>V7 : added combinations skip</t>
+  </si>
+  <si>
+    <t>V6.2</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -652,6 +661,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -659,7 +681,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -887,6 +909,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,42 +923,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -992,10 +984,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,6 +1019,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3040,6 +3071,134 @@
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
             <a:t>Since I'm not willing to repeat the same experience a couple times, to get the average solving times, the "solving time without display" stat is not relevant anymore.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1259205</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627FC6C8-D402-42B7-9A84-485D8BDED782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35562540" y="15354300"/>
+          <a:ext cx="3446145" cy="3390899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>V6.1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> -&gt; V7 comments</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>You can see the corresponding change in the README.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Supposition : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>This might be a big free improvement, as we might find the right combination earlier without any added computational cost.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Results : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>This is not as huge as a change I thought (only - 3% of total valid board states).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>Maybe because a lot of wrong skipped combination were already efficient, e.g. : the algorithm didn't waste too much time on it before it realizes that this was not the solution combination.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3558,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EA32E1-4AE2-41F3-A97D-46388028FF7D}">
-  <dimension ref="B1:N161"/>
+  <dimension ref="B1:O161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="B144" workbookViewId="0">
+      <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3574,7 +3733,7 @@
     <col min="8" max="8" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>27</v>
       </c>
@@ -3582,25 +3741,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D3" s="89" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="93"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
@@ -3631,11 +3791,14 @@
       <c r="M4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D5" s="86" t="s">
         <v>14</v>
       </c>
@@ -3666,11 +3829,14 @@
       <c r="M5" s="1">
         <v>50</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D6" s="86"/>
       <c r="E6" s="1">
         <v>50</v>
@@ -3699,11 +3865,14 @@
       <c r="M6" s="1">
         <v>18</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D7" s="86"/>
       <c r="E7" s="1">
         <v>51</v>
@@ -3732,11 +3901,14 @@
       <c r="M7" s="1">
         <v>13</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D8" s="86"/>
       <c r="E8" s="1">
         <v>52</v>
@@ -3765,11 +3937,14 @@
       <c r="M8" s="1">
         <v>26</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D9" s="86"/>
       <c r="E9" s="1">
         <v>53</v>
@@ -3798,11 +3973,14 @@
       <c r="M9" s="1">
         <v>35</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D10" s="86"/>
       <c r="E10" s="1">
         <v>54</v>
@@ -3831,11 +4009,14 @@
       <c r="M10" s="1">
         <v>33</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D11" s="86"/>
       <c r="E11" s="1">
         <v>55</v>
@@ -3864,11 +4045,14 @@
       <c r="M11" s="1">
         <v>63</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D12" s="86"/>
       <c r="E12" s="1">
         <v>56</v>
@@ -3897,11 +4081,14 @@
       <c r="M12" s="1">
         <v>63</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D13" s="86"/>
       <c r="E13" s="1">
         <v>57</v>
@@ -3930,11 +4117,14 @@
       <c r="M13" s="1">
         <v>26</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D14" s="86"/>
       <c r="E14" s="1">
         <v>58</v>
@@ -3963,11 +4153,14 @@
       <c r="M14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D15" s="86"/>
       <c r="E15" s="1">
         <v>59</v>
@@ -3996,11 +4189,14 @@
       <c r="M15" s="1">
         <v>34</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D16" s="86"/>
       <c r="E16" s="1">
         <v>60</v>
@@ -4029,11 +4225,14 @@
       <c r="M16" s="1">
         <v>63</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D17" s="86"/>
       <c r="E17" s="1">
         <v>61</v>
@@ -4062,11 +4261,14 @@
       <c r="M17" s="1">
         <v>12</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D18" s="86"/>
       <c r="E18" s="1">
         <v>62</v>
@@ -4095,11 +4297,14 @@
       <c r="M18" s="1">
         <v>43</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D19" s="86"/>
       <c r="E19" s="1">
         <v>63</v>
@@ -4128,11 +4333,14 @@
       <c r="M19" s="1">
         <v>43</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D20" s="86"/>
       <c r="E20" s="1">
         <v>64</v>
@@ -4161,11 +4369,14 @@
       <c r="M20" s="1">
         <v>24</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D21" s="86"/>
       <c r="E21" s="1">
         <v>65</v>
@@ -4194,11 +4405,14 @@
       <c r="M21" s="1">
         <v>28</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D22" s="86"/>
       <c r="E22" s="1">
         <v>66</v>
@@ -4227,11 +4441,14 @@
       <c r="M22" s="1">
         <v>38</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D23" s="86"/>
       <c r="E23" s="1">
         <v>67</v>
@@ -4260,11 +4477,14 @@
       <c r="M23" s="1">
         <v>23</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D24" s="86"/>
       <c r="E24" s="1">
         <v>68</v>
@@ -4293,11 +4513,14 @@
       <c r="M24" s="1">
         <v>15</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D25" s="86"/>
       <c r="E25" s="1">
         <v>69</v>
@@ -4326,11 +4549,14 @@
       <c r="M25" s="1">
         <v>10</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D26" s="86"/>
       <c r="E26" s="1">
         <v>70</v>
@@ -4359,11 +4585,14 @@
       <c r="M26" s="1">
         <v>17</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D27" s="86"/>
       <c r="E27" s="1">
         <v>71</v>
@@ -4392,11 +4621,14 @@
       <c r="M27" s="1">
         <v>16</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D28" s="86"/>
       <c r="E28" s="1">
         <v>72</v>
@@ -4425,11 +4657,14 @@
       <c r="M28" s="1">
         <v>28</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D29" s="86"/>
       <c r="E29" s="3" t="s">
         <v>3</v>
@@ -4463,15 +4698,19 @@
         <v>30.5</v>
       </c>
       <c r="M29" s="72">
-        <f t="shared" ref="M29:N29" si="1">AVERAGE(M5:M28)</f>
+        <f t="shared" ref="M29:O29" si="1">AVERAGE(M5:M28)</f>
         <v>30.5</v>
       </c>
-      <c r="N29" s="51">
+      <c r="N29" s="72">
         <f t="shared" si="1"/>
         <v>30.5</v>
       </c>
-    </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="51">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D30" s="86" t="s">
         <v>15</v>
       </c>
@@ -4502,11 +4741,14 @@
       <c r="M30" s="1">
         <v>10</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D31" s="86"/>
       <c r="E31" s="1">
         <v>74</v>
@@ -4535,11 +4777,14 @@
       <c r="M31" s="1">
         <v>6</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D32" s="86"/>
       <c r="E32" s="1">
         <v>75</v>
@@ -4568,11 +4813,14 @@
       <c r="M32" s="1">
         <v>25</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D33" s="86"/>
       <c r="E33" s="1">
         <v>76</v>
@@ -4601,11 +4849,14 @@
       <c r="M33" s="1">
         <v>23</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D34" s="86"/>
       <c r="E34" s="1">
         <v>77</v>
@@ -4634,11 +4885,14 @@
       <c r="M34" s="1">
         <v>12</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D35" s="86"/>
       <c r="E35" s="1">
         <v>78</v>
@@ -4667,11 +4921,14 @@
       <c r="M35" s="1">
         <v>21</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D36" s="86"/>
       <c r="E36" s="1">
         <v>79</v>
@@ -4700,11 +4957,14 @@
       <c r="M36" s="1">
         <v>15</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="86"/>
       <c r="E37" s="1">
         <v>80</v>
@@ -4733,11 +4993,14 @@
       <c r="M37" s="1">
         <v>14</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="86"/>
       <c r="E38" s="1">
         <v>81</v>
@@ -4766,11 +5029,14 @@
       <c r="M38" s="1">
         <v>73</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="86"/>
       <c r="E39" s="1">
         <v>82</v>
@@ -4799,11 +5065,14 @@
       <c r="M39" s="1">
         <v>26</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="86"/>
       <c r="E40" s="1">
         <v>83</v>
@@ -4832,11 +5101,14 @@
       <c r="M40" s="1">
         <v>11</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="86"/>
       <c r="E41" s="1">
         <v>84</v>
@@ -4865,11 +5137,14 @@
       <c r="M41" s="1">
         <v>23</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="86"/>
       <c r="E42" s="1">
         <v>85</v>
@@ -4898,11 +5173,14 @@
       <c r="M42" s="1">
         <v>35</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" s="86"/>
       <c r="E43" s="1">
         <v>86</v>
@@ -4931,11 +5209,14 @@
       <c r="M43" s="1">
         <v>40</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" s="86"/>
       <c r="E44" s="1">
         <v>87</v>
@@ -4964,11 +5245,14 @@
       <c r="M44" s="1">
         <v>59</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" s="86"/>
       <c r="E45" s="1">
         <v>88</v>
@@ -4997,11 +5281,14 @@
       <c r="M45" s="1">
         <v>42</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" s="86"/>
       <c r="E46" s="1">
         <v>89</v>
@@ -5030,11 +5317,14 @@
       <c r="M46" s="1">
         <v>12</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" s="86"/>
       <c r="E47" s="1">
         <v>90</v>
@@ -5063,11 +5353,14 @@
       <c r="M47" s="1">
         <v>168</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="17">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" s="86"/>
       <c r="E48" s="1">
         <v>91</v>
@@ -5096,11 +5389,14 @@
       <c r="M48" s="1">
         <v>169</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="86"/>
       <c r="E49" s="1">
         <v>92</v>
@@ -5129,11 +5425,14 @@
       <c r="M49" s="1">
         <v>195</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="17">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="86"/>
       <c r="E50" s="1">
         <v>93</v>
@@ -5162,11 +5461,14 @@
       <c r="M50" s="1">
         <v>186</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="17">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="86"/>
       <c r="E51" s="1">
         <v>94</v>
@@ -5195,11 +5497,14 @@
       <c r="M51" s="1">
         <v>337</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="1">
         <v>337</v>
       </c>
-    </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="17">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="86"/>
       <c r="E52" s="1">
         <v>95</v>
@@ -5228,11 +5533,14 @@
       <c r="M52" s="1">
         <v>139</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="86"/>
       <c r="E53" s="1">
         <v>96</v>
@@ -5261,11 +5569,14 @@
       <c r="M53" s="1">
         <v>262</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="1">
         <v>262</v>
       </c>
-    </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="17">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D54" s="86"/>
       <c r="E54" s="3" t="s">
         <v>4</v>
@@ -5299,15 +5610,19 @@
         <v>80.708333333333329</v>
       </c>
       <c r="M54" s="72">
-        <f t="shared" ref="M54:N54" si="3">AVERAGE(M30:M53)</f>
+        <f t="shared" ref="M54:O54" si="3">AVERAGE(M30:M53)</f>
         <v>79.291666666666671</v>
       </c>
-      <c r="N54" s="51">
+      <c r="N54" s="72">
         <f t="shared" si="3"/>
         <v>78.958333333333329</v>
       </c>
-    </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="51">
+        <f t="shared" si="3"/>
+        <v>77.541666666666671</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D55" s="86" t="s">
         <v>16</v>
       </c>
@@ -5338,11 +5653,14 @@
       <c r="M55" s="1">
         <v>991</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N55" s="1">
         <v>973</v>
       </c>
-    </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="17">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D56" s="86"/>
       <c r="E56" s="1">
         <v>98</v>
@@ -5371,11 +5689,14 @@
       <c r="M56" s="1">
         <v>2699</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="1">
         <v>2703</v>
       </c>
-    </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="17">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D57" s="86"/>
       <c r="E57" s="1">
         <v>99</v>
@@ -5404,11 +5725,14 @@
       <c r="M57" s="1">
         <v>2622</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="1">
         <v>2630</v>
       </c>
-    </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O57" s="17">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="58" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D58" s="86"/>
       <c r="E58" s="1">
         <v>100</v>
@@ -5437,11 +5761,14 @@
       <c r="M58" s="1">
         <v>1773</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="1">
         <v>1773</v>
       </c>
-    </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="17">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D59" s="86"/>
       <c r="E59" s="1">
         <v>101</v>
@@ -5470,11 +5797,14 @@
       <c r="M59" s="1">
         <v>594</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N59" s="1">
         <v>594</v>
       </c>
-    </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O59" s="17">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D60" s="86"/>
       <c r="E60" s="1">
         <v>102</v>
@@ -5503,11 +5833,14 @@
       <c r="M60" s="1">
         <v>1065</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="1">
         <v>1011</v>
       </c>
-    </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O60" s="17">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D61" s="86"/>
       <c r="E61" s="1">
         <v>103</v>
@@ -5536,11 +5869,14 @@
       <c r="M61" s="1">
         <v>1336</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="1">
         <v>1308</v>
       </c>
-    </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="17">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D62" s="86"/>
       <c r="E62" s="1">
         <v>104</v>
@@ -5569,11 +5905,14 @@
       <c r="M62" s="1">
         <v>753</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="1">
         <v>750</v>
       </c>
-    </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="17">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D63" s="86"/>
       <c r="E63" s="1">
         <v>105</v>
@@ -5602,11 +5941,14 @@
       <c r="M63" s="1">
         <v>699</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="1">
         <v>699</v>
       </c>
-    </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="17">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D64" s="86"/>
       <c r="E64" s="1">
         <v>106</v>
@@ -5635,11 +5977,14 @@
       <c r="M64" s="1">
         <v>2247</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="1">
         <v>2247</v>
       </c>
-    </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="17">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D65" s="86"/>
       <c r="E65" s="1">
         <v>107</v>
@@ -5668,11 +6013,14 @@
       <c r="M65" s="1">
         <v>719</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="1">
         <v>745</v>
       </c>
-    </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="17">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D66" s="86"/>
       <c r="E66" s="1">
         <v>108</v>
@@ -5701,11 +6049,14 @@
       <c r="M66" s="1">
         <v>444</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N66" s="1">
         <v>444</v>
       </c>
-    </row>
-    <row r="67" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O66" s="17">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D67" s="86"/>
       <c r="E67" s="1">
         <v>109</v>
@@ -5734,11 +6085,14 @@
       <c r="M67" s="1">
         <v>3025</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N67" s="1">
         <v>3033</v>
       </c>
-    </row>
-    <row r="68" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="17">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="68" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D68" s="86"/>
       <c r="E68" s="1">
         <v>110</v>
@@ -5767,11 +6121,14 @@
       <c r="M68" s="1">
         <v>2270</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N68" s="1">
         <v>2261</v>
       </c>
-    </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="17">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="69" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D69" s="86"/>
       <c r="E69" s="1">
         <v>111</v>
@@ -5800,11 +6157,14 @@
       <c r="M69" s="1">
         <v>4930</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="1">
         <v>4930</v>
       </c>
-    </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="17">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="70" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D70" s="86"/>
       <c r="E70" s="1">
         <v>112</v>
@@ -5833,11 +6193,14 @@
       <c r="M70" s="1">
         <v>1059</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N70" s="1">
         <v>1059</v>
       </c>
-    </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="17">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="71" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D71" s="86"/>
       <c r="E71" s="1">
         <v>113</v>
@@ -5866,11 +6229,14 @@
       <c r="M71" s="1">
         <v>2436</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="1">
         <v>2435</v>
       </c>
-    </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="17">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="72" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D72" s="86"/>
       <c r="E72" s="1">
         <v>114</v>
@@ -5899,11 +6265,14 @@
       <c r="M72" s="1">
         <v>2547</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N72" s="1">
         <v>2546</v>
       </c>
-    </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O72" s="17">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="73" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D73" s="86"/>
       <c r="E73" s="1">
         <v>115</v>
@@ -5932,11 +6301,14 @@
       <c r="M73" s="1">
         <v>4676</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N73" s="1">
         <v>4676</v>
       </c>
-    </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O73" s="17">
+        <v>4676</v>
+      </c>
+    </row>
+    <row r="74" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D74" s="86"/>
       <c r="E74" s="1">
         <v>116</v>
@@ -5965,11 +6337,14 @@
       <c r="M74" s="1">
         <v>3857</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N74" s="1">
         <v>3853</v>
       </c>
-    </row>
-    <row r="75" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O74" s="17">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="75" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D75" s="86"/>
       <c r="E75" s="1">
         <v>117</v>
@@ -5998,11 +6373,14 @@
       <c r="M75" s="1">
         <v>2253</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N75" s="1">
         <v>2253</v>
       </c>
-    </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="17">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="76" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D76" s="86"/>
       <c r="E76" s="1">
         <v>118</v>
@@ -6031,11 +6409,14 @@
       <c r="M76" s="1">
         <v>1826</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N76" s="1">
         <v>1826</v>
       </c>
-    </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O76" s="17">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="77" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D77" s="86"/>
       <c r="E77" s="1">
         <v>119</v>
@@ -6064,11 +6445,14 @@
       <c r="M77" s="1">
         <v>79</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N77" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D78" s="86"/>
       <c r="E78" s="1">
         <v>120</v>
@@ -6097,11 +6481,14 @@
       <c r="M78" s="1">
         <v>2285</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N78" s="1">
         <v>2285</v>
       </c>
-    </row>
-    <row r="79" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O78" s="17">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="79" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D79" s="86"/>
       <c r="E79" s="3" t="s">
         <v>5</v>
@@ -6138,12 +6525,16 @@
         <f t="shared" ref="M79:N79" si="5" xml:space="preserve"> AVERAGE(M55:M78)</f>
         <v>1966.0416666666667</v>
       </c>
-      <c r="N79" s="52">
+      <c r="N79" s="73">
         <f t="shared" si="5"/>
         <v>1963.0416666666667</v>
       </c>
-    </row>
-    <row r="80" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O79" s="52">
+        <f t="shared" ref="O79" si="6" xml:space="preserve"> AVERAGE(O55:O78)</f>
+        <v>1906.625</v>
+      </c>
+    </row>
+    <row r="80" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D80" s="87" t="s">
         <v>8</v>
       </c>
@@ -6161,86 +6552,95 @@
         <v>553538.3194444445</v>
       </c>
       <c r="I80" s="74">
-        <f t="shared" ref="I80:L80" si="6">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I80:L80" si="7">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
         <v>140189.19444444444</v>
       </c>
       <c r="J80" s="74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>736.68055555555554</v>
       </c>
       <c r="K80" s="74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1925.2083333333333</v>
       </c>
       <c r="L80" s="74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>715.25</v>
       </c>
       <c r="M80" s="74">
-        <f t="shared" ref="M80:N80" si="7">AVERAGE(M5:M28,M30:M53,M55:M78)</f>
+        <f t="shared" ref="M80:N80" si="8">AVERAGE(M5:M28,M30:M53,M55:M78)</f>
         <v>691.94444444444446</v>
       </c>
-      <c r="N80" s="67">
-        <f t="shared" si="7"/>
+      <c r="N80" s="74">
+        <f t="shared" si="8"/>
         <v>690.83333333333337</v>
       </c>
-    </row>
-    <row r="81" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D81" s="92" t="s">
+      <c r="O80" s="67">
+        <f t="shared" ref="O80" si="9">AVERAGE(O5:O28,O30:O53,O55:O78)</f>
+        <v>668.13888888888891</v>
+      </c>
+    </row>
+    <row r="81" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D81" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="93"/>
+      <c r="E81" s="90"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18">
-        <f t="shared" ref="G81:L81" si="8">SUM(G5:G28,G30:G53,G55:G78)</f>
+        <f t="shared" ref="G81:L81" si="10">SUM(G5:G28,G30:G53,G55:G78)</f>
         <v>126489448</v>
       </c>
       <c r="H81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39854759</v>
       </c>
       <c r="I81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10093622</v>
       </c>
       <c r="J81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53041</v>
       </c>
       <c r="K81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>138615</v>
       </c>
       <c r="L81" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51498</v>
       </c>
       <c r="M81" s="18">
-        <f t="shared" ref="M81:N81" si="9">SUM(M5:M28,M30:M53,M55:M78)</f>
+        <f t="shared" ref="M81:N81" si="11">SUM(M5:M28,M30:M53,M55:M78)</f>
         <v>49820</v>
       </c>
-      <c r="N81" s="68">
-        <f t="shared" si="9"/>
+      <c r="N81" s="18">
+        <f t="shared" si="11"/>
         <v>49740</v>
       </c>
-    </row>
-    <row r="82" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D83" s="89" t="s">
+      <c r="O81" s="68">
+        <f t="shared" ref="O81" si="12">SUM(O5:O28,O30:O53,O55:O78)</f>
+        <v>48106</v>
+      </c>
+    </row>
+    <row r="82" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D83" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="90"/>
-      <c r="L83" s="90"/>
-      <c r="M83" s="90"/>
-      <c r="N83" s="91"/>
-    </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="92"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="92"/>
+      <c r="M83" s="92"/>
+      <c r="N83" s="92"/>
+      <c r="O83" s="93"/>
+    </row>
+    <row r="84" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D84" s="4" t="s">
         <v>1</v>
       </c>
@@ -6271,11 +6671,14 @@
       <c r="M84" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D85" s="86" t="s">
         <v>14</v>
       </c>
@@ -6313,948 +6716,1048 @@
         <f xml:space="preserve"> -1 + M5/J5 * 1</f>
         <v>0</v>
       </c>
-      <c r="N85" s="81">
+      <c r="N85" s="82">
         <f xml:space="preserve"> -1 + N5/M5 * 1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O85" s="81">
+        <f xml:space="preserve"> -1 + O5/N5 * 1</f>
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="86" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D86" s="86"/>
       <c r="E86" s="1">
         <v>50</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="34">
-        <f t="shared" ref="G86:I111" si="10" xml:space="preserve"> -1 + G6/F6 * 1</f>
+        <f t="shared" ref="G86:I111" si="13" xml:space="preserve"> -1 + G6/F6 * 1</f>
         <v>0</v>
       </c>
       <c r="H86" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I86" s="34">
-        <f t="shared" ref="I86:I108" si="11" xml:space="preserve"> -1 + I6/H6 * 1</f>
+        <f t="shared" ref="I86:I108" si="14" xml:space="preserve"> -1 + I6/H6 * 1</f>
         <v>-3.3057851239669422E-2</v>
       </c>
       <c r="J86" s="82">
-        <f t="shared" ref="J86:J149" si="12" xml:space="preserve"> -1 + J6/I6 * 1</f>
+        <f t="shared" ref="J86:J149" si="15" xml:space="preserve"> -1 + J6/I6 * 1</f>
         <v>-0.84615384615384615</v>
       </c>
       <c r="K86" s="82">
-        <f t="shared" ref="K86:L149" si="13" xml:space="preserve"> -1 + K6/I6 * 1</f>
+        <f t="shared" ref="K86:L149" si="16" xml:space="preserve"> -1 + K6/I6 * 1</f>
         <v>0</v>
       </c>
       <c r="L86" s="82">
-        <f t="shared" ref="L86:L108" si="14" xml:space="preserve"> -1 + L6/J6 * 1</f>
+        <f t="shared" ref="L86:L108" si="17" xml:space="preserve"> -1 + L6/J6 * 1</f>
         <v>0</v>
       </c>
       <c r="M86" s="82">
-        <f t="shared" ref="M86:M108" si="15" xml:space="preserve"> -1 + M6/J6 * 1</f>
-        <v>0</v>
-      </c>
-      <c r="N86" s="81">
-        <f t="shared" ref="N86:N149" si="16" xml:space="preserve"> -1 + N6/M6 * 1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" ref="M86:M108" si="18" xml:space="preserve"> -1 + M6/J6 * 1</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="82">
+        <f t="shared" ref="N86:O149" si="19" xml:space="preserve"> -1 + N6/M6 * 1</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D87" s="86"/>
       <c r="E87" s="1">
         <v>51</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H87" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I87" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.4</v>
       </c>
       <c r="J87" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.96231884057971018</v>
       </c>
       <c r="K87" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.95652173913043481</v>
       </c>
       <c r="L87" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M87" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N87" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D88" s="86"/>
       <c r="E88" s="1">
         <v>52</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H88" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I88" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.4444444444444509E-2</v>
       </c>
       <c r="J88" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.44680851063829785</v>
       </c>
       <c r="K88" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.21276595744680848</v>
       </c>
       <c r="L88" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M88" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="89" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D89" s="86"/>
       <c r="E89" s="1">
         <v>53</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H89" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I89" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2499999999999956E-2</v>
       </c>
       <c r="J89" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.56790123456790131</v>
       </c>
       <c r="K89" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.2345679012345734E-2</v>
       </c>
       <c r="L89" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M89" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.54285714285714293</v>
+      </c>
+    </row>
+    <row r="90" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D90" s="86"/>
       <c r="E90" s="1">
         <v>54</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H90" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I90" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J90" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.52857142857142858</v>
       </c>
       <c r="K90" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L90" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M90" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="91" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D91" s="86"/>
       <c r="E91" s="1">
         <v>55</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H91" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I91" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-8.0459770114942541E-2</v>
       </c>
       <c r="J91" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.21250000000000002</v>
       </c>
       <c r="K91" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.13749999999999996</v>
       </c>
       <c r="L91" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M91" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.34920634920634919</v>
+      </c>
+    </row>
+    <row r="92" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D92" s="86"/>
       <c r="E92" s="1">
         <v>56</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H92" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I92" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="J92" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.125</v>
       </c>
       <c r="K92" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.11111111111111116</v>
       </c>
       <c r="L92" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M92" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N92" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.34920634920634919</v>
+      </c>
+    </row>
+    <row r="93" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D93" s="86"/>
       <c r="E93" s="1">
         <v>57</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H93" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I93" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.36842105263157898</v>
       </c>
       <c r="J93" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.69047619047619047</v>
       </c>
       <c r="K93" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.3928571428571429</v>
       </c>
       <c r="L93" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M93" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="94" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D94" s="86"/>
       <c r="E94" s="1">
         <v>58</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H94" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I94" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.64544319600499378</v>
       </c>
       <c r="J94" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.96126760563380287</v>
       </c>
       <c r="K94" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.90845070422535212</v>
       </c>
       <c r="L94" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M94" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D95" s="86"/>
       <c r="E95" s="1">
         <v>59</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H95" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I95" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.2989690721649485</v>
       </c>
       <c r="J95" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.75</v>
       </c>
       <c r="K95" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.375</v>
       </c>
       <c r="L95" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M95" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="96" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D96" s="86"/>
       <c r="E96" s="1">
         <v>60</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H96" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I96" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="J96" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.16000000000000003</v>
       </c>
       <c r="K96" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.21333333333333337</v>
       </c>
       <c r="L96" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M96" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D97" s="86"/>
       <c r="E97" s="1">
         <v>61</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H97" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I97" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="J97" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.91489361702127658</v>
       </c>
       <c r="K97" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.87943262411347523</v>
       </c>
       <c r="L97" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M97" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N97" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D98" s="86"/>
       <c r="E98" s="1">
         <v>62</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H98" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I98" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.20512820512820518</v>
       </c>
       <c r="J98" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.30645161290322576</v>
       </c>
       <c r="K98" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.29032258064516125</v>
       </c>
       <c r="L98" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M98" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.60465116279069764</v>
+      </c>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D99" s="86"/>
       <c r="E99" s="1">
         <v>63</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H99" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I99" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J99" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.9090909090909092</v>
       </c>
       <c r="K99" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L99" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M99" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.13953488372093026</v>
+      </c>
+    </row>
+    <row r="100" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D100" s="86"/>
       <c r="E100" s="1">
         <v>64</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H100" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I100" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.15189873417721511</v>
       </c>
       <c r="J100" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.73626373626373631</v>
       </c>
       <c r="K100" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.19780219780219777</v>
       </c>
       <c r="L100" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M100" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="101" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D101" s="86"/>
       <c r="E101" s="1">
         <v>65</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H101" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I101" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-9.4594594594594628E-2</v>
       </c>
       <c r="J101" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.58208955223880599</v>
       </c>
       <c r="K101" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.17910447761194026</v>
       </c>
       <c r="L101" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M101" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N101" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="102" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D102" s="86"/>
       <c r="E102" s="1">
         <v>66</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H102" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I102" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.33796296296296291</v>
       </c>
       <c r="J102" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.73426573426573427</v>
       </c>
       <c r="K102" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.34965034965034969</v>
       </c>
       <c r="L102" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M102" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.52631578947368429</v>
+      </c>
+    </row>
+    <row r="103" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D103" s="86"/>
       <c r="E103" s="1">
         <v>67</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H103" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I103" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0909090909090908</v>
       </c>
       <c r="J103" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.5</v>
       </c>
       <c r="K103" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.73913043478260865</v>
       </c>
       <c r="L103" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M103" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N103" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D104" s="86"/>
       <c r="E104" s="1">
         <v>68</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H104" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I104" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2.2727272727272707E-2</v>
       </c>
       <c r="J104" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.66666666666666674</v>
       </c>
       <c r="K104" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.64444444444444438</v>
       </c>
       <c r="L104" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M104" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N104" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D105" s="86"/>
       <c r="E105" s="1">
         <v>69</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H105" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I105" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.70653311406787256</v>
       </c>
       <c r="J105" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.99490575649516044</v>
       </c>
       <c r="K105" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.99184921039225671</v>
       </c>
       <c r="L105" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M105" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N105" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D106" s="86"/>
       <c r="E106" s="1">
         <v>70</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H106" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I106" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.68532289628180032</v>
       </c>
       <c r="J106" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.97885572139303478</v>
       </c>
       <c r="K106" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.95771144278606968</v>
       </c>
       <c r="L106" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M106" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N106" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O106" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D107" s="86"/>
       <c r="E107" s="1">
         <v>71</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H107" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I107" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.13978494623655913</v>
       </c>
       <c r="J107" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.9</v>
       </c>
       <c r="K107" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.91249999999999998</v>
       </c>
       <c r="L107" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M107" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N107" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D108" s="86"/>
       <c r="E108" s="1">
         <v>72</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H108" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I108" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-2.1276595744680882E-2</v>
       </c>
       <c r="J108" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.39130434782608692</v>
       </c>
       <c r="K108" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.69565217391304346</v>
       </c>
       <c r="L108" s="82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M108" s="82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D109" s="86"/>
       <c r="E109" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="35">
-        <f t="shared" ref="G109:N109" si="17">AVERAGE(G85:G108)</f>
+        <f t="shared" ref="G109:N109" si="20">AVERAGE(G85:G108)</f>
         <v>0</v>
       </c>
       <c r="H109" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I109" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.11346025597859227</v>
       </c>
       <c r="J109" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.44856467543969653</v>
       </c>
       <c r="K109" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-0.4253653189391719</v>
       </c>
       <c r="L109" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M109" s="35">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N109" s="36">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="36">
+        <f t="shared" ref="O109" si="21">AVERAGE(O85:O108)</f>
+        <v>-0.25708173435678122</v>
+      </c>
+    </row>
+    <row r="110" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D110" s="86" t="s">
         <v>15</v>
       </c>
@@ -7263,741 +7766,817 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H110" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.25937500000000002</v>
       </c>
       <c r="I110" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.92194092827004215</v>
       </c>
       <c r="J110" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.72972972972972971</v>
       </c>
       <c r="K110" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.72972972972972971</v>
       </c>
       <c r="L110" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M110" s="82">
         <f xml:space="preserve"> -1 + M30/J30 * 1</f>
         <v>0</v>
       </c>
-      <c r="N110" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N110" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D111" s="86"/>
       <c r="E111" s="1">
         <v>74</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="34">
-        <f t="shared" ref="G111:H111" si="18" xml:space="preserve"> -1 + G31/F31 * 1</f>
+        <f t="shared" ref="G111:H111" si="22" xml:space="preserve"> -1 + G31/F31 * 1</f>
         <v>0</v>
       </c>
       <c r="H111" s="34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-0.21739130434782605</v>
       </c>
       <c r="I111" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.11805555555555558</v>
       </c>
       <c r="J111" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.94488188976377951</v>
       </c>
       <c r="K111" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.94488188976377951</v>
       </c>
       <c r="L111" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M111" s="82">
-        <f t="shared" ref="M111:M133" si="19" xml:space="preserve"> -1 + M31/J31 * 1</f>
+        <f t="shared" ref="M111:M133" si="23" xml:space="preserve"> -1 + M31/J31 * 1</f>
         <v>-0.1428571428571429</v>
       </c>
-      <c r="N111" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N111" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D112" s="86"/>
       <c r="E112" s="1">
         <v>75</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="34">
-        <f t="shared" ref="G112:I127" si="20" xml:space="preserve"> -1 + G32/F32 * 1</f>
+        <f t="shared" ref="G112:I127" si="24" xml:space="preserve"> -1 + G32/F32 * 1</f>
         <v>0</v>
       </c>
       <c r="H112" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.77243589743589747</v>
       </c>
       <c r="I112" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.60563380281690149</v>
       </c>
       <c r="J112" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.77192982456140347</v>
       </c>
       <c r="K112" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.77192982456140347</v>
       </c>
       <c r="L112" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M112" s="82">
+        <f t="shared" si="23"/>
+        <v>-3.8461538461538436E-2</v>
+      </c>
+      <c r="N112" s="82">
         <f t="shared" si="19"/>
-        <v>-3.8461538461538436E-2</v>
-      </c>
-      <c r="N112" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O112" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D113" s="86"/>
       <c r="E113" s="1">
         <v>76</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="34">
-        <f t="shared" ref="G113:H113" si="21" xml:space="preserve"> -1 + G33/F33 * 1</f>
+        <f t="shared" ref="G113:H113" si="25" xml:space="preserve"> -1 + G33/F33 * 1</f>
         <v>0</v>
       </c>
       <c r="H113" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.11111111111111116</v>
       </c>
       <c r="I113" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J113" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.4375</v>
       </c>
       <c r="K113" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4375</v>
       </c>
       <c r="L113" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M113" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N113" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O113" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D114" s="86"/>
       <c r="E114" s="1">
         <v>77</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="34">
-        <f t="shared" ref="G114:H114" si="22" xml:space="preserve"> -1 + G34/F34 * 1</f>
+        <f t="shared" ref="G114:H114" si="26" xml:space="preserve"> -1 + G34/F34 * 1</f>
         <v>0</v>
       </c>
       <c r="H114" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>-0.72662977713553967</v>
       </c>
       <c r="I114" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.94554987322188322</v>
       </c>
       <c r="J114" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.9905288082083662</v>
       </c>
       <c r="K114" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.9905288082083662</v>
       </c>
       <c r="L114" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M114" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N114" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O114" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D115" s="86"/>
       <c r="E115" s="1">
         <v>78</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="34">
-        <f t="shared" ref="G115:H115" si="23" xml:space="preserve"> -1 + G35/F35 * 1</f>
+        <f t="shared" ref="G115:H115" si="27" xml:space="preserve"> -1 + G35/F35 * 1</f>
         <v>-3.0735162024231322E-5</v>
       </c>
       <c r="H115" s="34">
+        <f t="shared" si="27"/>
+        <v>-0.89525134835458098</v>
+      </c>
+      <c r="I115" s="34">
+        <f t="shared" si="24"/>
+        <v>-0.58730927230046948</v>
+      </c>
+      <c r="J115" s="82">
+        <f t="shared" si="15"/>
+        <v>-0.99962671975541262</v>
+      </c>
+      <c r="K115" s="82">
+        <f t="shared" si="16"/>
+        <v>-0.99962671975541262</v>
+      </c>
+      <c r="L115" s="82">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="82">
         <f t="shared" si="23"/>
-        <v>-0.89525134835458098</v>
-      </c>
-      <c r="I115" s="34">
-        <f t="shared" si="20"/>
-        <v>-0.58730927230046948</v>
-      </c>
-      <c r="J115" s="82">
-        <f t="shared" si="12"/>
-        <v>-0.99962671975541262</v>
-      </c>
-      <c r="K115" s="82">
-        <f t="shared" si="13"/>
-        <v>-0.99962671975541262</v>
-      </c>
-      <c r="L115" s="82">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="82">
+        <v>0</v>
+      </c>
+      <c r="N115" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N115" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O115" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D116" s="86"/>
       <c r="E116" s="1">
         <v>79</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="34">
-        <f t="shared" ref="G116:H116" si="24" xml:space="preserve"> -1 + G36/F36 * 1</f>
+        <f t="shared" ref="G116:H116" si="28" xml:space="preserve"> -1 + G36/F36 * 1</f>
         <v>-5.2631578947368585E-3</v>
       </c>
       <c r="H116" s="34">
+        <f t="shared" si="28"/>
+        <v>-0.12698412698412698</v>
+      </c>
+      <c r="I116" s="34">
         <f t="shared" si="24"/>
-        <v>-0.12698412698412698</v>
-      </c>
-      <c r="I116" s="34">
-        <f t="shared" si="20"/>
         <v>-4.8484848484848464E-2</v>
       </c>
       <c r="J116" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.90445859872611467</v>
       </c>
       <c r="K116" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.27388535031847139</v>
       </c>
       <c r="L116" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M116" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N116" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O116" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.26666666666666672</v>
+      </c>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D117" s="86"/>
       <c r="E117" s="1">
         <v>80</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="34">
-        <f t="shared" ref="G117:H117" si="25" xml:space="preserve"> -1 + G37/F37 * 1</f>
+        <f t="shared" ref="G117:H117" si="29" xml:space="preserve"> -1 + G37/F37 * 1</f>
         <v>0</v>
       </c>
       <c r="H117" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.21052631578947367</v>
       </c>
       <c r="I117" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J117" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.53333333333333333</v>
       </c>
       <c r="K117" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="L117" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M117" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N117" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O117" s="81">
+        <f t="shared" si="19"/>
+        <v>-7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D118" s="86"/>
       <c r="E118" s="1">
         <v>81</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="34">
-        <f t="shared" ref="G118:H118" si="26" xml:space="preserve"> -1 + G38/F38 * 1</f>
+        <f t="shared" ref="G118:H118" si="30" xml:space="preserve"> -1 + G38/F38 * 1</f>
         <v>-1.1009376318826813E-4</v>
       </c>
       <c r="H118" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.50283522654285873</v>
       </c>
       <c r="I118" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.66672818544219692</v>
       </c>
       <c r="J118" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.9914719238010854</v>
       </c>
       <c r="K118" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.97286521209436261</v>
       </c>
       <c r="L118" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-5.1948051948051965E-2</v>
       </c>
       <c r="M118" s="82">
+        <f t="shared" si="23"/>
+        <v>-5.1948051948051965E-2</v>
+      </c>
+      <c r="N118" s="82">
         <f t="shared" si="19"/>
-        <v>-5.1948051948051965E-2</v>
-      </c>
-      <c r="N118" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O118" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D119" s="86"/>
       <c r="E119" s="1">
         <v>82</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="34">
-        <f t="shared" ref="G119:H119" si="27" xml:space="preserve"> -1 + G39/F39 * 1</f>
+        <f t="shared" ref="G119:H119" si="31" xml:space="preserve"> -1 + G39/F39 * 1</f>
         <v>0</v>
       </c>
       <c r="H119" s="34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-0.52272727272727271</v>
       </c>
       <c r="I119" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J119" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.65476190476190477</v>
       </c>
       <c r="K119" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.69047619047619047</v>
       </c>
       <c r="L119" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-3.4482758620689613E-2</v>
       </c>
       <c r="M119" s="82">
+        <f t="shared" si="23"/>
+        <v>-0.10344827586206895</v>
+      </c>
+      <c r="N119" s="82">
         <f t="shared" si="19"/>
-        <v>-0.10344827586206895</v>
-      </c>
-      <c r="N119" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O119" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D120" s="86"/>
       <c r="E120" s="1">
         <v>83</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="34">
-        <f t="shared" ref="G120:H120" si="28" xml:space="preserve"> -1 + G40/F40 * 1</f>
+        <f t="shared" ref="G120:H120" si="32" xml:space="preserve"> -1 + G40/F40 * 1</f>
         <v>0</v>
       </c>
       <c r="H120" s="34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-0.56803005008347252</v>
       </c>
       <c r="I120" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.62222222222222223</v>
       </c>
       <c r="J120" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.97186700767263423</v>
       </c>
       <c r="K120" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.90792838874680304</v>
       </c>
       <c r="L120" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M120" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N120" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O120" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D121" s="86"/>
       <c r="E121" s="1">
         <v>84</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="34">
-        <f t="shared" ref="G121:H121" si="29" xml:space="preserve"> -1 + G41/F41 * 1</f>
+        <f t="shared" ref="G121:H121" si="33" xml:space="preserve"> -1 + G41/F41 * 1</f>
         <v>0</v>
       </c>
       <c r="H121" s="34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>-0.12903225806451613</v>
       </c>
       <c r="I121" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J121" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.14814814814814814</v>
       </c>
       <c r="K121" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.407407407407407E-2</v>
       </c>
       <c r="L121" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M121" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N121" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O121" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.26086956521739135</v>
+      </c>
+    </row>
+    <row r="122" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D122" s="86"/>
       <c r="E122" s="1">
         <v>85</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="34">
-        <f t="shared" ref="G122:H122" si="30" xml:space="preserve"> -1 + G42/F42 * 1</f>
+        <f t="shared" ref="G122:H122" si="34" xml:space="preserve"> -1 + G42/F42 * 1</f>
         <v>0</v>
       </c>
       <c r="H122" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-0.63389656938044037</v>
       </c>
       <c r="I122" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.56503496503496509</v>
       </c>
       <c r="J122" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.962486602357985</v>
       </c>
       <c r="K122" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.88317256162915325</v>
       </c>
       <c r="L122" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M122" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N122" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O122" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D123" s="86"/>
       <c r="E123" s="1">
         <v>86</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="34">
-        <f t="shared" ref="G123:H123" si="31" xml:space="preserve"> -1 + G43/F43 * 1</f>
+        <f t="shared" ref="G123:H123" si="35" xml:space="preserve"> -1 + G43/F43 * 1</f>
         <v>0</v>
       </c>
       <c r="H123" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-0.46081955427749821</v>
       </c>
       <c r="I123" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.36533333333333329</v>
       </c>
       <c r="J123" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.91596638655462181</v>
       </c>
       <c r="K123" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.73949579831932777</v>
       </c>
       <c r="L123" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M123" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="82">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N123" s="81">
-        <f t="shared" si="16"/>
         <v>-9.9999999999999978E-2</v>
       </c>
-    </row>
-    <row r="124" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O123" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D124" s="86"/>
       <c r="E124" s="1">
         <v>87</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="34">
-        <f t="shared" ref="G124:H124" si="32" xml:space="preserve"> -1 + G44/F44 * 1</f>
+        <f t="shared" ref="G124:H124" si="36" xml:space="preserve"> -1 + G44/F44 * 1</f>
         <v>-1.4098572519531949E-3</v>
       </c>
       <c r="H124" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-0.42843696688040478</v>
       </c>
       <c r="I124" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.62885961300946891</v>
       </c>
       <c r="J124" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.98252911813643928</v>
       </c>
       <c r="K124" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.96311702717692738</v>
       </c>
       <c r="L124" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-6.3492063492063489E-2</v>
       </c>
       <c r="M124" s="82">
+        <f t="shared" si="23"/>
+        <v>-6.3492063492063489E-2</v>
+      </c>
+      <c r="N124" s="82">
         <f t="shared" si="19"/>
-        <v>-6.3492063492063489E-2</v>
-      </c>
-      <c r="N124" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O124" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D125" s="86"/>
       <c r="E125" s="1">
         <v>88</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="34">
-        <f t="shared" ref="G125:H125" si="33" xml:space="preserve"> -1 + G45/F45 * 1</f>
+        <f t="shared" ref="G125:H125" si="37" xml:space="preserve"> -1 + G45/F45 * 1</f>
         <v>-7.6573976181825376E-2</v>
       </c>
       <c r="H125" s="34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-0.71803681442602829</v>
       </c>
       <c r="I125" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.95871041770769716</v>
       </c>
       <c r="J125" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.99596593455849391</v>
       </c>
       <c r="K125" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.99596593455849391</v>
       </c>
       <c r="L125" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M125" s="82">
+        <f t="shared" si="23"/>
+        <v>-6.6666666666666652E-2</v>
+      </c>
+      <c r="N125" s="82">
         <f t="shared" si="19"/>
-        <v>-6.6666666666666652E-2</v>
-      </c>
-      <c r="N125" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O125" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D126" s="86"/>
       <c r="E126" s="1">
         <v>89</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="34">
-        <f t="shared" ref="G126:H126" si="34" xml:space="preserve"> -1 + G46/F46 * 1</f>
+        <f t="shared" ref="G126:H126" si="38" xml:space="preserve"> -1 + G46/F46 * 1</f>
         <v>-7.0615048243349854E-5</v>
       </c>
       <c r="H126" s="34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>-0.56386920110202565</v>
       </c>
       <c r="I126" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.93827457854223884</v>
       </c>
       <c r="J126" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.99960650577124865</v>
       </c>
       <c r="K126" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.99960650577124865</v>
       </c>
       <c r="L126" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M126" s="82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="82">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N126" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O126" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D127" s="86"/>
       <c r="E127" s="1">
         <v>90</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="34">
-        <f t="shared" ref="G127:H127" si="35" xml:space="preserve"> -1 + G47/F47 * 1</f>
+        <f t="shared" ref="G127:H127" si="39" xml:space="preserve"> -1 + G47/F47 * 1</f>
         <v>-1.5206234556197629E-5</v>
       </c>
       <c r="H127" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-0.67228545577579579</v>
       </c>
       <c r="I127" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.87009883532086674</v>
       </c>
       <c r="J127" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.96856581532416508</v>
       </c>
       <c r="K127" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.96856581532416508</v>
       </c>
       <c r="L127" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-3.4090909090909061E-2</v>
       </c>
       <c r="M127" s="82">
+        <f t="shared" si="23"/>
+        <v>-4.5454545454545414E-2</v>
+      </c>
+      <c r="N127" s="82">
         <f t="shared" si="19"/>
-        <v>-4.5454545454545414E-2</v>
-      </c>
-      <c r="N127" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O127" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D128" s="86"/>
       <c r="E128" s="1">
         <v>91</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="34">
-        <f t="shared" ref="G128:I133" si="36" xml:space="preserve"> -1 + G48/F48 * 1</f>
+        <f t="shared" ref="G128:I133" si="40" xml:space="preserve"> -1 + G48/F48 * 1</f>
         <v>0</v>
       </c>
       <c r="H128" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.58930891412765596</v>
       </c>
       <c r="I128" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0.5828868819837747</v>
       </c>
       <c r="J128" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.99393998001482775</v>
       </c>
       <c r="K128" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.99393998001482775</v>
       </c>
       <c r="L128" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-3.1914893617021267E-2</v>
       </c>
       <c r="M128" s="82">
+        <f t="shared" si="23"/>
+        <v>-0.10106382978723405</v>
+      </c>
+      <c r="N128" s="82">
         <f t="shared" si="19"/>
-        <v>-0.10106382978723405</v>
-      </c>
-      <c r="N128" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O128" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D129" s="86"/>
       <c r="E129" s="1">
         <v>92</v>
@@ -8005,230 +8584,254 @@
       <c r="F129" s="11"/>
       <c r="G129" s="34"/>
       <c r="H129" s="34">
-        <f t="shared" ref="H129" si="37" xml:space="preserve"> -1 + H49/G49 * 1</f>
+        <f t="shared" ref="H129" si="41" xml:space="preserve"> -1 + H49/G49 * 1</f>
         <v>-0.59303704205552066</v>
       </c>
       <c r="I129" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.64890229944854849</v>
       </c>
       <c r="J129" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.98773115220483643</v>
       </c>
       <c r="K129" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.95750355618776672</v>
       </c>
       <c r="L129" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-4.3478260869565188E-2</v>
       </c>
       <c r="M129" s="82">
+        <f t="shared" si="23"/>
+        <v>-5.7971014492753659E-2</v>
+      </c>
+      <c r="N129" s="82">
         <f t="shared" si="19"/>
-        <v>-5.7971014492753659E-2</v>
-      </c>
-      <c r="N129" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O129" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D130" s="86"/>
       <c r="E130" s="1">
         <v>93</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="34">
-        <f t="shared" ref="G130:H130" si="38" xml:space="preserve"> -1 + G50/F50 * 1</f>
+        <f t="shared" ref="G130:H130" si="42" xml:space="preserve"> -1 + G50/F50 * 1</f>
         <v>-3.4740780331373733E-3</v>
       </c>
       <c r="H130" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>-0.65915795119334941</v>
       </c>
       <c r="I130" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.36506687647521641</v>
       </c>
       <c r="J130" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.76703841387856264</v>
       </c>
       <c r="K130" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.60099132589838911</v>
       </c>
       <c r="L130" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M130" s="82">
+        <f t="shared" si="23"/>
+        <v>-1.0638297872340385E-2</v>
+      </c>
+      <c r="N130" s="82">
         <f t="shared" si="19"/>
-        <v>-1.0638297872340385E-2</v>
-      </c>
-      <c r="N130" s="81">
-        <f t="shared" si="16"/>
         <v>-5.3763440860215006E-3</v>
       </c>
-    </row>
-    <row r="131" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O130" s="81">
+        <f t="shared" si="19"/>
+        <v>-6.4864864864864868E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D131" s="86"/>
       <c r="E131" s="1">
         <v>94</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="34">
-        <f t="shared" ref="G131:H131" si="39" xml:space="preserve"> -1 + G51/F51 * 1</f>
+        <f t="shared" ref="G131:H131" si="43" xml:space="preserve"> -1 + G51/F51 * 1</f>
         <v>-1.4950060436414558E-2</v>
       </c>
       <c r="H131" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-0.54491733402221643</v>
       </c>
       <c r="I131" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.42035052863123534</v>
       </c>
       <c r="J131" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.95801199657240788</v>
       </c>
       <c r="K131" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.83584282041865587</v>
       </c>
       <c r="L131" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.1661807580174877E-2</v>
       </c>
       <c r="M131" s="82">
+        <f t="shared" si="23"/>
+        <v>-1.7492711370262426E-2</v>
+      </c>
+      <c r="N131" s="82">
         <f t="shared" si="19"/>
-        <v>-1.7492711370262426E-2</v>
-      </c>
-      <c r="N131" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O131" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D132" s="86"/>
       <c r="E132" s="1">
         <v>95</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="34">
-        <f t="shared" ref="G132:H132" si="40" xml:space="preserve"> -1 + G52/F52 * 1</f>
+        <f t="shared" ref="G132:H132" si="44" xml:space="preserve"> -1 + G52/F52 * 1</f>
         <v>0</v>
       </c>
       <c r="H132" s="34">
+        <f t="shared" si="44"/>
+        <v>-0.64425572068884174</v>
+      </c>
+      <c r="I132" s="34">
         <f t="shared" si="40"/>
-        <v>-0.64425572068884174</v>
-      </c>
-      <c r="I132" s="34">
-        <f t="shared" si="36"/>
         <v>-0.19761273209549068</v>
       </c>
       <c r="J132" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.87355371900826451</v>
       </c>
       <c r="K132" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.70578512396694215</v>
       </c>
       <c r="L132" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-9.1503267973856217E-2</v>
       </c>
       <c r="M132" s="82">
+        <f t="shared" si="23"/>
+        <v>-9.1503267973856217E-2</v>
+      </c>
+      <c r="N132" s="82">
         <f t="shared" si="19"/>
-        <v>-9.1503267973856217E-2</v>
-      </c>
-      <c r="N132" s="81">
-        <f t="shared" si="16"/>
         <v>-2.1582733812949617E-2</v>
       </c>
-    </row>
-    <row r="133" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O132" s="81">
+        <f t="shared" si="19"/>
+        <v>-8.0882352941176516E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D133" s="86"/>
       <c r="E133" s="1">
         <v>96</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="34">
-        <f t="shared" ref="G133:J158" si="41" xml:space="preserve"> -1 + G53/F53 * 1</f>
+        <f t="shared" ref="G133:J158" si="45" xml:space="preserve"> -1 + G53/F53 * 1</f>
         <v>-1.0452156840099369E-2</v>
       </c>
       <c r="H133" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.5655345471521942</v>
       </c>
       <c r="I133" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>-0.39704499664204163</v>
       </c>
       <c r="J133" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.93985297393628875</v>
       </c>
       <c r="K133" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.75740699487636443</v>
       </c>
       <c r="L133" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.1111111111111072E-2</v>
       </c>
       <c r="M133" s="82">
+        <f t="shared" si="23"/>
+        <v>-2.9629629629629672E-2</v>
+      </c>
+      <c r="N133" s="82">
         <f t="shared" si="19"/>
-        <v>-2.9629629629629672E-2</v>
-      </c>
-      <c r="N133" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="4:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O133" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D134" s="86"/>
       <c r="E134" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="35">
-        <f t="shared" ref="G134:N134" si="42">AVERAGE(G110:G133)</f>
+        <f t="shared" ref="G134:N134" si="46">AVERAGE(G110:G133)</f>
         <v>-4.8847798628773378E-3</v>
       </c>
       <c r="H134" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-0.50482857331911035</v>
       </c>
       <c r="I134" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-0.37821080737240176</v>
       </c>
       <c r="J134" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-0.8145202702825024</v>
       </c>
       <c r="K134" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-0.7341591513279524</v>
       </c>
       <c r="L134" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-1.5570130179310115E-2</v>
       </c>
       <c r="M134" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-3.4192793161173095E-2</v>
       </c>
-      <c r="N134" s="36">
-        <f t="shared" si="42"/>
+      <c r="N134" s="35">
+        <f t="shared" si="46"/>
         <v>-5.2899615791237959E-3</v>
       </c>
-    </row>
-    <row r="135" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O134" s="36">
+        <f t="shared" ref="O134" si="47">AVERAGE(O110:O133)</f>
+        <v>-3.1029667546611284E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D135" s="86" t="s">
         <v>16</v>
       </c>
@@ -8237,39 +8840,43 @@
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-2.3860653781915264E-4</v>
       </c>
       <c r="H135" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.17852028639618134</v>
       </c>
       <c r="I135" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J135" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.70976176641487509</v>
       </c>
       <c r="K135" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-8.7158628704242513E-4</v>
       </c>
       <c r="L135" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-5.0050050050050032E-3</v>
       </c>
       <c r="M135" s="82">
         <f xml:space="preserve"> -1 + M55/J55 * 1</f>
         <v>-8.0080080080080496E-3</v>
       </c>
-      <c r="N135" s="81">
-        <f t="shared" si="16"/>
+      <c r="N135" s="82">
+        <f t="shared" si="19"/>
         <v>-1.816347124117057E-2</v>
       </c>
-    </row>
-    <row r="136" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O135" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.40184994861253853</v>
+      </c>
+    </row>
+    <row r="136" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D136" s="86"/>
       <c r="E136" s="1">
         <v>98</v>
@@ -8277,815 +8884,899 @@
       <c r="F136" s="11"/>
       <c r="G136" s="34"/>
       <c r="H136" s="34">
-        <f t="shared" ref="H136" si="43" xml:space="preserve"> -1 + H56/G56 * 1</f>
+        <f t="shared" ref="H136" si="48" xml:space="preserve"> -1 + H56/G56 * 1</f>
         <v>-0.57095280603486331</v>
       </c>
       <c r="I136" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.48800228636753362</v>
       </c>
       <c r="J136" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.93757117020564007</v>
       </c>
       <c r="K136" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.82742760175943908</v>
       </c>
       <c r="L136" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.2889842632331958E-2</v>
       </c>
       <c r="M136" s="82">
-        <f t="shared" ref="M136:M158" si="44" xml:space="preserve"> -1 + M56/J56 * 1</f>
+        <f t="shared" ref="M136:M158" si="49" xml:space="preserve"> -1 + M56/J56 * 1</f>
         <v>-3.4692417739628056E-2</v>
       </c>
-      <c r="N136" s="81">
-        <f t="shared" si="16"/>
+      <c r="N136" s="82">
+        <f t="shared" si="19"/>
         <v>1.4820303816227565E-3</v>
       </c>
-    </row>
-    <row r="137" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O136" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D137" s="86"/>
       <c r="E137" s="1">
         <v>99</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-4.0899795501022629E-3</v>
       </c>
       <c r="H137" s="34">
-        <f t="shared" ref="H137" si="45" xml:space="preserve"> -1 + H57/G57 * 1</f>
+        <f t="shared" ref="H137" si="50" xml:space="preserve"> -1 + H57/G57 * 1</f>
         <v>-0.50513347022587274</v>
       </c>
       <c r="I137" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J137" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10.107883817427386</v>
       </c>
       <c r="K137" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.74273858921161828</v>
       </c>
       <c r="L137" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-8.9652596189764289E-3</v>
       </c>
       <c r="M137" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-2.0545386626821038E-2</v>
       </c>
-      <c r="N137" s="81">
-        <f t="shared" si="16"/>
+      <c r="N137" s="82">
+        <f t="shared" si="19"/>
         <v>3.0511060259343914E-3</v>
       </c>
-    </row>
-    <row r="138" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O137" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D138" s="86"/>
       <c r="E138" s="1">
         <v>100</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-7.0012859504806624E-3</v>
       </c>
       <c r="H138" s="34">
-        <f t="shared" ref="H138" si="46" xml:space="preserve"> -1 + H58/G58 * 1</f>
+        <f t="shared" ref="H138" si="51" xml:space="preserve"> -1 + H58/G58 * 1</f>
         <v>-0.73561679235088206</v>
       </c>
       <c r="I138" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.48182868313488536</v>
       </c>
       <c r="J138" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.96088056246248821</v>
       </c>
       <c r="K138" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.75047157678127407</v>
       </c>
       <c r="L138" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.6438356164383605E-2</v>
       </c>
       <c r="M138" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-2.8493150684931523E-2</v>
       </c>
-      <c r="N138" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N138" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O138" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D139" s="86"/>
       <c r="E139" s="1">
         <v>101</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-6.4149560117302551E-3</v>
       </c>
       <c r="H139" s="34">
-        <f t="shared" ref="H139" si="47" xml:space="preserve"> -1 + H59/G59 * 1</f>
+        <f t="shared" ref="H139" si="52" xml:space="preserve"> -1 + H59/G59 * 1</f>
         <v>-0.58448625714812763</v>
       </c>
       <c r="I139" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.17003329633740294</v>
       </c>
       <c r="J139" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.8365873228135865</v>
       </c>
       <c r="K139" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.52875100294196309</v>
       </c>
       <c r="L139" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.3093289689034338E-2</v>
       </c>
       <c r="M139" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-2.7823240589198051E-2</v>
       </c>
-      <c r="N139" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N139" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O139" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.15993265993265993</v>
+      </c>
+    </row>
+    <row r="140" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D140" s="86"/>
       <c r="E140" s="1">
         <v>102</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.2828736369467908E-3</v>
       </c>
       <c r="H140" s="34">
-        <f t="shared" ref="H140" si="48" xml:space="preserve"> -1 + H60/G60 * 1</f>
+        <f t="shared" ref="H140" si="53" xml:space="preserve"> -1 + H60/G60 * 1</f>
         <v>-0.59280667951188182</v>
       </c>
       <c r="I140" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.21293375394321767</v>
       </c>
       <c r="J140" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3326653306613228</v>
       </c>
       <c r="K140" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.48296593186372749</v>
       </c>
       <c r="L140" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-7.0446735395188975E-2</v>
       </c>
       <c r="M140" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-8.5051546391752608E-2</v>
       </c>
-      <c r="N140" s="81">
-        <f t="shared" si="16"/>
+      <c r="N140" s="82">
+        <f t="shared" si="19"/>
         <v>-5.070422535211272E-2</v>
       </c>
-    </row>
-    <row r="141" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O140" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.10880316518298716</v>
+      </c>
+    </row>
+    <row r="141" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D141" s="86"/>
       <c r="E141" s="1">
         <v>103</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H141" s="34">
-        <f t="shared" ref="H141" si="49" xml:space="preserve"> -1 + H61/G61 * 1</f>
+        <f t="shared" ref="H141" si="54" xml:space="preserve"> -1 + H61/G61 * 1</f>
         <v>-0.10130414531904985</v>
       </c>
       <c r="I141" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-8.4218709510230916E-4</v>
       </c>
       <c r="J141" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.91058808273357972</v>
       </c>
       <c r="K141" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.4264410296310759E-3</v>
       </c>
       <c r="L141" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.9006526468455363E-2</v>
       </c>
       <c r="M141" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-3.1182015953589604E-2</v>
       </c>
-      <c r="N141" s="81">
-        <f t="shared" si="16"/>
+      <c r="N141" s="82">
+        <f t="shared" si="19"/>
         <v>-2.0958083832335328E-2</v>
       </c>
-    </row>
-    <row r="142" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O141" s="81">
+        <f t="shared" si="19"/>
+        <v>-7.415902140672781E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D142" s="86"/>
       <c r="E142" s="1">
         <v>104</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H142" s="34">
-        <f t="shared" ref="H142" si="50" xml:space="preserve"> -1 + H62/G62 * 1</f>
+        <f t="shared" ref="H142" si="55" xml:space="preserve"> -1 + H62/G62 * 1</f>
         <v>-0.17351752021563338</v>
       </c>
       <c r="I142" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>8.1532816958818088E-4</v>
       </c>
       <c r="J142" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.6924643584521385</v>
       </c>
       <c r="K142" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-8.1466395112017587E-4</v>
       </c>
       <c r="L142" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.6490066225165476E-3</v>
       </c>
       <c r="M142" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-2.6490066225165476E-3</v>
       </c>
-      <c r="N142" s="81">
-        <f t="shared" si="16"/>
+      <c r="N142" s="82">
+        <f t="shared" si="19"/>
         <v>-3.9840637450199168E-3</v>
       </c>
-    </row>
-    <row r="143" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O142" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.42666666666666664</v>
+      </c>
+    </row>
+    <row r="143" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D143" s="86"/>
       <c r="E143" s="1">
         <v>105</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.094717825189262E-2</v>
       </c>
       <c r="H143" s="34">
-        <f t="shared" ref="H143" si="51" xml:space="preserve"> -1 + H63/G63 * 1</f>
+        <f t="shared" ref="H143" si="56" xml:space="preserve"> -1 + H63/G63 * 1</f>
         <v>-0.44118990149390047</v>
       </c>
       <c r="I143" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.47657405245544404</v>
       </c>
       <c r="J143" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.94639803732064531</v>
       </c>
       <c r="K143" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.78038807523604192</v>
       </c>
       <c r="L143" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-8.3217753120665705E-3</v>
       </c>
       <c r="M143" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-3.0513176144244092E-2</v>
       </c>
-      <c r="N143" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N143" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O143" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.20171673819742486</v>
+      </c>
+    </row>
+    <row r="144" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D144" s="86"/>
       <c r="E144" s="1">
         <v>106</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.7131363111770437E-2</v>
       </c>
       <c r="H144" s="34">
-        <f t="shared" ref="H144" si="52" xml:space="preserve"> -1 + H64/G64 * 1</f>
+        <f t="shared" ref="H144" si="57" xml:space="preserve"> -1 + H64/G64 * 1</f>
         <v>-0.73004263572983952</v>
       </c>
       <c r="I144" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.73584413911841062</v>
       </c>
       <c r="J144" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.9969425708834726</v>
       </c>
       <c r="K144" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.99409427351096269</v>
       </c>
       <c r="L144" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.6856903063365523E-2</v>
       </c>
       <c r="M144" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-5.7070919009651666E-2</v>
       </c>
-      <c r="N144" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N144" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O144" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D145" s="86"/>
       <c r="E145" s="1">
         <v>107</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H145" s="34">
-        <f t="shared" ref="H145" si="53" xml:space="preserve"> -1 + H65/G65 * 1</f>
+        <f t="shared" ref="H145" si="58" xml:space="preserve"> -1 + H65/G65 * 1</f>
         <v>-0.1379980563654033</v>
       </c>
       <c r="I145" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="J145" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.17700112739571594</v>
       </c>
       <c r="K145" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-2.7057497181510737E-2</v>
       </c>
       <c r="L145" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-9.5890410958904271E-3</v>
       </c>
       <c r="M145" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-1.5068493150684925E-2</v>
       </c>
-      <c r="N145" s="81">
-        <f t="shared" si="16"/>
+      <c r="N145" s="82">
+        <f t="shared" si="19"/>
         <v>3.6161335187760768E-2</v>
       </c>
-    </row>
-    <row r="146" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O145" s="81">
+        <f t="shared" si="19"/>
+        <v>-0.16375838926174502</v>
+      </c>
+    </row>
+    <row r="146" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D146" s="86"/>
       <c r="E146" s="1">
         <v>108</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-2.4644646691890815E-2</v>
       </c>
       <c r="H146" s="34">
-        <f t="shared" ref="H146" si="54" xml:space="preserve"> -1 + H66/G66 * 1</f>
+        <f t="shared" ref="H146" si="59" xml:space="preserve"> -1 + H66/G66 * 1</f>
         <v>-0.64990039840637448</v>
       </c>
       <c r="I146" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.53709665344014379</v>
       </c>
       <c r="J146" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.97590166585799776</v>
       </c>
       <c r="K146" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.71701978543317701</v>
       </c>
       <c r="L146" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-6.7114093959731447E-3</v>
       </c>
       <c r="M146" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-6.7114093959731447E-3</v>
       </c>
-      <c r="N146" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N146" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O146" s="81">
+        <f t="shared" si="19"/>
+        <v>-2.7027027027026973E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D147" s="86"/>
       <c r="E147" s="1">
         <v>109</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-2.0389447236180858E-2</v>
       </c>
       <c r="H147" s="34">
-        <f t="shared" ref="H147" si="55" xml:space="preserve"> -1 + H67/G67 * 1</f>
+        <f t="shared" ref="H147" si="60" xml:space="preserve"> -1 + H67/G67 * 1</f>
         <v>-0.51279650837212687</v>
       </c>
       <c r="I147" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.49789421963289227</v>
       </c>
       <c r="J147" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.94500751406703243</v>
       </c>
       <c r="K147" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.86963967427393141</v>
       </c>
       <c r="L147" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.9701302828090239E-2</v>
       </c>
       <c r="M147" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-3.8767079758500134E-2</v>
       </c>
-      <c r="N147" s="81">
-        <f t="shared" si="16"/>
+      <c r="N147" s="82">
+        <f t="shared" si="19"/>
         <v>2.6446280991736515E-3</v>
       </c>
-    </row>
-    <row r="148" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O147" s="81">
+        <f t="shared" si="19"/>
+        <v>-1.6485328058028381E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D148" s="86"/>
       <c r="E148" s="1">
         <v>110</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-2.8321050992720087E-3</v>
       </c>
       <c r="H148" s="34">
-        <f t="shared" ref="H148" si="56" xml:space="preserve"> -1 + H68/G68 * 1</f>
+        <f t="shared" ref="H148" si="61" xml:space="preserve"> -1 + H68/G68 * 1</f>
         <v>-0.59816356877323418</v>
       </c>
       <c r="I148" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.47976760967306231</v>
       </c>
       <c r="J148" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.91716754988085503</v>
       </c>
       <c r="K148" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.77895934843688874</v>
       </c>
       <c r="L148" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.2451696006869906E-2</v>
       </c>
       <c r="M148" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-2.5332760841562885E-2</v>
       </c>
-      <c r="N148" s="81">
-        <f t="shared" si="16"/>
+      <c r="N148" s="82">
+        <f t="shared" si="19"/>
         <v>-3.9647577092510877E-3</v>
       </c>
-    </row>
-    <row r="149" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O148" s="81">
+        <f t="shared" si="19"/>
+        <v>-7.0765148164528835E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D149" s="86"/>
       <c r="E149" s="1">
         <v>111</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H149" s="34">
-        <f t="shared" ref="H149" si="57" xml:space="preserve"> -1 + H69/G69 * 1</f>
+        <f t="shared" ref="H149" si="62" xml:space="preserve"> -1 + H69/G69 * 1</f>
         <v>-0.61795373085695671</v>
       </c>
       <c r="I149" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.26716417910447765</v>
       </c>
       <c r="J149" s="82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.47279604306080891</v>
       </c>
       <c r="K149" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.64183881291824263</v>
       </c>
       <c r="L149" s="82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.6791781904385572E-2</v>
       </c>
       <c r="M149" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-2.6076649545634156E-2</v>
       </c>
-      <c r="N149" s="81">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N149" s="82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O149" s="81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D150" s="86"/>
       <c r="E150" s="1">
         <v>112</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.5279931611888897E-2</v>
       </c>
       <c r="H150" s="34">
-        <f t="shared" ref="H150" si="58" xml:space="preserve"> -1 + H70/G70 * 1</f>
+        <f t="shared" ref="H150" si="63" xml:space="preserve"> -1 + H70/G70 * 1</f>
         <v>-0.56206812312417109</v>
       </c>
       <c r="I150" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.49716101526078815</v>
       </c>
       <c r="J150" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.97678242437449236</v>
       </c>
       <c r="K150" s="82">
-        <f t="shared" ref="K150:L158" si="59" xml:space="preserve"> -1 + K70/I70 * 1</f>
+        <f t="shared" ref="K150:L158" si="64" xml:space="preserve"> -1 + K70/I70 * 1</f>
         <v>-0.85954555359654505</v>
       </c>
       <c r="L150" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-7.5938566552900988E-2</v>
       </c>
       <c r="M150" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-9.6416382252559774E-2</v>
       </c>
-      <c r="N150" s="81">
-        <f t="shared" ref="N150:N158" si="60" xml:space="preserve"> -1 + N70/M70 * 1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N150" s="82">
+        <f t="shared" ref="N150:O158" si="65" xml:space="preserve"> -1 + N70/M70 * 1</f>
+        <v>0</v>
+      </c>
+      <c r="O150" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D151" s="86"/>
       <c r="E151" s="1">
         <v>113</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.5945176023399288E-2</v>
       </c>
       <c r="H151" s="34">
-        <f t="shared" ref="H151" si="61" xml:space="preserve"> -1 + H71/G71 * 1</f>
+        <f t="shared" ref="H151" si="66" xml:space="preserve"> -1 + H71/G71 * 1</f>
         <v>-0.63781615622849275</v>
       </c>
       <c r="I151" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.53421891793991727</v>
       </c>
       <c r="J151" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.96700578801091308</v>
       </c>
       <c r="K151" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.85969810551008441</v>
       </c>
       <c r="L151" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-3.4775888717156089E-2</v>
       </c>
       <c r="M151" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-5.8732612055641398E-2</v>
       </c>
-      <c r="N151" s="81">
-        <f t="shared" si="60"/>
+      <c r="N151" s="82">
+        <f t="shared" si="65"/>
         <v>-4.1050903119865811E-4</v>
       </c>
-    </row>
-    <row r="152" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O151" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D152" s="86"/>
       <c r="E152" s="1">
         <v>114</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-9.9970514874050398E-3</v>
       </c>
       <c r="H152" s="34">
-        <f t="shared" ref="H152" si="62" xml:space="preserve"> -1 + H72/G72 * 1</f>
+        <f t="shared" ref="H152" si="67" xml:space="preserve"> -1 + H72/G72 * 1</f>
         <v>-0.62592719296480381</v>
       </c>
       <c r="I152" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.45206791186090545</v>
       </c>
       <c r="J152" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.94792546193571192</v>
       </c>
       <c r="K152" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.80181436173346166</v>
       </c>
       <c r="L152" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-2.2247360482654632E-2</v>
       </c>
       <c r="M152" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-3.9592760180995445E-2</v>
       </c>
-      <c r="N152" s="81">
-        <f t="shared" si="60"/>
+      <c r="N152" s="82">
+        <f t="shared" si="65"/>
         <v>-3.9261876717711086E-4</v>
       </c>
-    </row>
-    <row r="153" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O152" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D153" s="86"/>
       <c r="E153" s="1">
         <v>115</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-6.3534371128166622E-3</v>
       </c>
       <c r="H153" s="34">
-        <f t="shared" ref="H153" si="63" xml:space="preserve"> -1 + H73/G73 * 1</f>
+        <f t="shared" ref="H153" si="68" xml:space="preserve"> -1 + H73/G73 * 1</f>
         <v>-0.73977405457959644</v>
       </c>
       <c r="I153" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.71628928692125715</v>
       </c>
       <c r="J153" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.99040637742245841</v>
       </c>
       <c r="K153" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.99267329454345532</v>
       </c>
       <c r="L153" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-4.4317096466093608E-2</v>
       </c>
       <c r="M153" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-0.10678127984718244</v>
       </c>
-      <c r="N153" s="81">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N153" s="82">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O153" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D154" s="86"/>
       <c r="E154" s="1">
         <v>116</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.3530743842271598E-4</v>
       </c>
       <c r="H154" s="34">
-        <f t="shared" ref="H154" si="64" xml:space="preserve"> -1 + H74/G74 * 1</f>
+        <f t="shared" ref="H154" si="69" xml:space="preserve"> -1 + H74/G74 * 1</f>
         <v>-0.68564990813623239</v>
       </c>
       <c r="I154" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.65491568397005029</v>
       </c>
       <c r="J154" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.9659117869907623</v>
       </c>
       <c r="K154" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.98701984524839093</v>
       </c>
       <c r="L154" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-5.6578356533453111E-2</v>
       </c>
       <c r="M154" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-0.1340368208352043</v>
       </c>
-      <c r="N154" s="81">
-        <f t="shared" si="60"/>
+      <c r="N154" s="82">
+        <f t="shared" si="65"/>
         <v>-1.0370754472387445E-3</v>
       </c>
-    </row>
-    <row r="155" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O154" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D155" s="86"/>
       <c r="E155" s="1">
         <v>117</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-6.5906829507377251E-3</v>
       </c>
       <c r="H155" s="34">
-        <f t="shared" ref="H155" si="65" xml:space="preserve"> -1 + H75/G75 * 1</f>
+        <f t="shared" ref="H155" si="70" xml:space="preserve"> -1 + H75/G75 * 1</f>
         <v>-0.63107464008438052</v>
       </c>
       <c r="I155" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.73498074799358415</v>
       </c>
       <c r="J155" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.99883813758570106</v>
       </c>
       <c r="K155" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.99554665078544458</v>
       </c>
       <c r="L155" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-3.8128930817610041E-2</v>
       </c>
       <c r="M155" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-0.11438679245283023</v>
       </c>
-      <c r="N155" s="81">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N155" s="82">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O155" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D156" s="86"/>
       <c r="E156" s="1">
         <v>118</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.5813475073090943E-2</v>
       </c>
       <c r="H156" s="34">
-        <f t="shared" ref="H156" si="66" xml:space="preserve"> -1 + H76/G76 * 1</f>
+        <f t="shared" ref="H156" si="71" xml:space="preserve"> -1 + H76/G76 * 1</f>
         <v>-0.68130107449832256</v>
       </c>
       <c r="I156" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.73524652710875937</v>
       </c>
       <c r="J156" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.99877800452521071</v>
       </c>
       <c r="K156" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.99548144569331187</v>
       </c>
       <c r="L156" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-5.7648660916931438E-2</v>
       </c>
       <c r="M156" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-0.17113027689514304</v>
       </c>
-      <c r="N156" s="81">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N156" s="82">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O156" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D157" s="86"/>
       <c r="E157" s="1">
         <v>119</v>
@@ -9093,156 +9784,172 @@
       <c r="F157" s="11"/>
       <c r="G157" s="34"/>
       <c r="H157" s="34">
-        <f t="shared" ref="H157" si="67" xml:space="preserve"> -1 + H77/G77 * 1</f>
+        <f t="shared" ref="H157" si="72" xml:space="preserve"> -1 + H77/G77 * 1</f>
         <v>-0.7125844098857832</v>
       </c>
       <c r="I157" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.77955697502291965</v>
       </c>
       <c r="J157" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.99996185405822269</v>
       </c>
       <c r="K157" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.99775030861445668</v>
       </c>
       <c r="L157" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M157" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-4.8192771084337394E-2</v>
       </c>
-      <c r="N157" s="81">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N157" s="82">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D158" s="86"/>
       <c r="E158" s="1">
         <v>120</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-1.4734990624492017E-2</v>
       </c>
       <c r="H158" s="34">
-        <f t="shared" ref="H158" si="68" xml:space="preserve"> -1 + H78/G78 * 1</f>
+        <f t="shared" ref="H158" si="73" xml:space="preserve"> -1 + H78/G78 * 1</f>
         <v>-0.66145757607625522</v>
       </c>
       <c r="I158" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.75930225874679103</v>
       </c>
       <c r="J158" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-0.99873089091994038</v>
       </c>
       <c r="K158" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-0.99767428382537915</v>
       </c>
       <c r="L158" s="82">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-1.4799154334038001E-2</v>
       </c>
       <c r="M158" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>-3.3826638477801318E-2</v>
       </c>
-      <c r="N158" s="81">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N158" s="82">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="O158" s="81">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D159" s="86"/>
       <c r="E159" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="35">
-        <f t="shared" ref="G159:N159" si="69">AVERAGE(G135:G158)</f>
+        <f t="shared" ref="G159:N159" si="74">AVERAGE(G135:G158)</f>
         <v>-8.1737497454699611E-3</v>
       </c>
       <c r="H159" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-0.54450149553243199</v>
       </c>
       <c r="I159" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-0.4254543773732482</v>
       </c>
       <c r="J159" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-0.28905280263174676</v>
       </c>
       <c r="K159" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-0.69298619626529556</v>
       </c>
       <c r="L159" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-2.5556331084307146E-2</v>
       </c>
       <c r="M159" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-5.1711733106016324E-2</v>
       </c>
-      <c r="N159" s="36">
-        <f t="shared" si="69"/>
+      <c r="N159" s="35">
+        <f t="shared" si="74"/>
         <v>-2.3448210596255237E-3</v>
       </c>
-    </row>
-    <row r="160" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O159" s="36">
+        <f t="shared" ref="O159" si="75">AVERAGE(O135:O158)</f>
+        <v>-6.614481079842742E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D160" s="87" t="s">
         <v>8</v>
       </c>
       <c r="E160" s="88"/>
       <c r="F160" s="16"/>
       <c r="G160" s="37">
-        <f t="shared" ref="G160:N160" si="70">(AVERAGE(G85:G108,G110:G133,G135:G158))</f>
+        <f t="shared" ref="G160:N160" si="76">(AVERAGE(G85:G108,G110:G133,G135:G158))</f>
         <v>-4.2343830615437384E-3</v>
       </c>
       <c r="H160" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-0.34977668961718067</v>
       </c>
       <c r="I160" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-0.30570848024141412</v>
       </c>
       <c r="J160" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-0.51737924945131508</v>
       </c>
       <c r="K160" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-0.61750355551080693</v>
       </c>
       <c r="L160" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-1.3708820421205754E-2</v>
       </c>
       <c r="M160" s="37">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>-2.8634842089063132E-2</v>
       </c>
-      <c r="N160" s="38">
-        <f t="shared" si="70"/>
+      <c r="N160" s="37">
+        <f t="shared" si="76"/>
         <v>-2.5449275462497731E-3</v>
       </c>
-    </row>
-    <row r="161" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D161" s="92" t="s">
+      <c r="O160" s="38">
+        <f t="shared" ref="O160" si="77">(AVERAGE(O85:O108,O110:O133,O135:O158))</f>
+        <v>-0.11808540423393993</v>
+      </c>
+    </row>
+    <row r="161" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D161" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E161" s="93"/>
+      <c r="E161" s="90"/>
       <c r="F161" s="18" t="s">
         <v>33</v>
       </c>
@@ -9273,25 +9980,29 @@
         <f xml:space="preserve"> -1 + M81/J81 * 1</f>
         <v>-6.0726607718557313E-2</v>
       </c>
-      <c r="N161" s="33">
+      <c r="N161" s="69">
         <f xml:space="preserve"> -1 + N81/M81 * 1</f>
         <v>-1.6057808109193328E-3</v>
       </c>
+      <c r="O161" s="33">
+        <f xml:space="preserve"> -1 + O81/N81 * 1</f>
+        <v>-3.2850824286288716E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D5:D29"/>
+    <mergeCell ref="D30:D54"/>
+    <mergeCell ref="D55:D79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D3:O3"/>
     <mergeCell ref="D135:D159"/>
     <mergeCell ref="D160:E160"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="D161:E161"/>
     <mergeCell ref="D85:D109"/>
     <mergeCell ref="D110:D134"/>
-    <mergeCell ref="D83:N83"/>
-    <mergeCell ref="D5:D29"/>
-    <mergeCell ref="D30:D54"/>
-    <mergeCell ref="D55:D79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D83:O83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -9306,10 +10017,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE79279-43FE-4514-886C-88FC286043C2}">
-  <dimension ref="A1:AE118"/>
+  <dimension ref="A1:AH118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X78" workbookViewId="0">
-      <selection activeCell="AH79" sqref="AH79"/>
+    <sheetView tabSelected="1" topLeftCell="Z81" workbookViewId="0">
+      <selection activeCell="AG75" sqref="AG75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9338,94 +10049,105 @@
     <col min="26" max="26" width="12.77734375" customWidth="1"/>
     <col min="27" max="27" width="18.44140625" customWidth="1"/>
     <col min="28" max="28" width="20.6640625" customWidth="1"/>
-    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="30" max="30" width="19.109375" customWidth="1"/>
     <col min="31" max="31" width="18.21875" customWidth="1"/>
+    <col min="32" max="32" width="15.88671875" customWidth="1"/>
+    <col min="33" max="33" width="18.88671875" customWidth="1"/>
+    <col min="34" max="34" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="118" t="s">
+    <row r="1" spans="3:34" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="118" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="118" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="118" t="s">
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="111" t="s">
+      <c r="O2" s="109"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="94" t="s">
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="94" t="s">
+      <c r="X2" s="115"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="94" t="s">
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="96"/>
-    </row>
-    <row r="3" spans="3:31" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="115" t="s">
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
+    </row>
+    <row r="3" spans="3:34" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="116"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="116" t="s">
+      <c r="R3" s="106"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="116"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="99"/>
-    </row>
-    <row r="4" spans="3:31" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="106"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="117"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="119"/>
+    </row>
+    <row r="4" spans="3:34" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="75" t="s">
         <v>1</v>
       </c>
@@ -9510,12 +10232,21 @@
       <c r="AD4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AE4" s="84" t="s">
+      <c r="AE4" s="130" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C5" s="97" t="s">
+      <c r="AF4" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C5" s="117" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12">
@@ -9599,12 +10330,21 @@
       <c r="AD5" s="1">
         <v>1</v>
       </c>
-      <c r="AE5" s="17">
+      <c r="AE5" s="55">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C6" s="97"/>
+      <c r="AF5" s="62">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C6" s="117"/>
       <c r="D6" s="12">
         <v>50</v>
       </c>
@@ -9686,12 +10426,21 @@
       <c r="AD6" s="1">
         <v>0</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="55">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C7" s="97"/>
+      <c r="AF6" s="62">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C7" s="117"/>
       <c r="D7" s="12">
         <v>51</v>
       </c>
@@ -9773,12 +10522,21 @@
       <c r="AD7" s="1">
         <v>0</v>
       </c>
-      <c r="AE7" s="17">
+      <c r="AE7" s="55">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C8" s="97"/>
+      <c r="AF7" s="62">
+        <v>13</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C8" s="117"/>
       <c r="D8" s="12">
         <v>52</v>
       </c>
@@ -9860,12 +10618,21 @@
       <c r="AD8" s="1">
         <v>0</v>
       </c>
-      <c r="AE8" s="17">
+      <c r="AE8" s="55">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C9" s="97"/>
+      <c r="AF8" s="62">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C9" s="117"/>
       <c r="D9" s="12">
         <v>53</v>
       </c>
@@ -9947,12 +10714,21 @@
       <c r="AD9" s="1">
         <v>1</v>
       </c>
-      <c r="AE9" s="17">
+      <c r="AE9" s="55">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C10" s="97"/>
+      <c r="AF9" s="62">
+        <v>16</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C10" s="117"/>
       <c r="D10" s="12">
         <v>54</v>
       </c>
@@ -10034,12 +10810,21 @@
       <c r="AD10" s="1">
         <v>0</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="55">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C11" s="97"/>
+      <c r="AF10" s="62">
+        <v>15</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C11" s="117"/>
       <c r="D11" s="12">
         <v>55</v>
       </c>
@@ -10121,12 +10906,21 @@
       <c r="AD11" s="1">
         <v>0</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="55">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C12" s="97"/>
+      <c r="AF11" s="62">
+        <v>41</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C12" s="117"/>
       <c r="D12" s="12">
         <v>56</v>
       </c>
@@ -10208,12 +11002,21 @@
       <c r="AD12" s="1">
         <v>1</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="55">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C13" s="97"/>
+      <c r="AF12" s="62">
+        <v>41</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C13" s="117"/>
       <c r="D13" s="12">
         <v>57</v>
       </c>
@@ -10295,12 +11098,21 @@
       <c r="AD13" s="1">
         <v>0</v>
       </c>
-      <c r="AE13" s="17">
+      <c r="AE13" s="55">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C14" s="97"/>
+      <c r="AF13" s="62">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C14" s="117"/>
       <c r="D14" s="12">
         <v>58</v>
       </c>
@@ -10382,12 +11194,21 @@
       <c r="AD14" s="1">
         <v>0</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="AE14" s="55">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C15" s="97"/>
+      <c r="AF14" s="62">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C15" s="117"/>
       <c r="D15" s="12">
         <v>59</v>
       </c>
@@ -10469,12 +11290,21 @@
       <c r="AD15" s="1">
         <v>0</v>
       </c>
-      <c r="AE15" s="17">
+      <c r="AE15" s="55">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C16" s="97"/>
+      <c r="AF15" s="62">
+        <v>20</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C16" s="117"/>
       <c r="D16" s="12">
         <v>60</v>
       </c>
@@ -10556,12 +11386,21 @@
       <c r="AD16" s="1">
         <v>1</v>
       </c>
-      <c r="AE16" s="17">
+      <c r="AE16" s="55">
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C17" s="97"/>
+      <c r="AF16" s="62">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C17" s="117"/>
       <c r="D17" s="12">
         <v>61</v>
       </c>
@@ -10643,12 +11482,21 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-      <c r="AE17" s="17">
+      <c r="AE17" s="55">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C18" s="97"/>
+      <c r="AF17" s="62">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C18" s="117"/>
       <c r="D18" s="12">
         <v>62</v>
       </c>
@@ -10730,12 +11578,21 @@
       <c r="AD18" s="1">
         <v>0</v>
       </c>
-      <c r="AE18" s="17">
+      <c r="AE18" s="55">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C19" s="97"/>
+      <c r="AF18" s="62">
+        <v>17</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C19" s="117"/>
       <c r="D19" s="12">
         <v>63</v>
       </c>
@@ -10817,12 +11674,21 @@
       <c r="AD19" s="1">
         <v>0</v>
       </c>
-      <c r="AE19" s="17">
+      <c r="AE19" s="55">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C20" s="97"/>
+      <c r="AF19" s="62">
+        <v>37</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C20" s="117"/>
       <c r="D20" s="12">
         <v>64</v>
       </c>
@@ -10904,12 +11770,21 @@
       <c r="AD20" s="1">
         <v>1</v>
       </c>
-      <c r="AE20" s="17">
+      <c r="AE20" s="55">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C21" s="97"/>
+      <c r="AF20" s="62">
+        <v>17</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C21" s="117"/>
       <c r="D21" s="12">
         <v>65</v>
       </c>
@@ -10991,12 +11866,21 @@
       <c r="AD21" s="1">
         <v>0</v>
       </c>
-      <c r="AE21" s="17">
+      <c r="AE21" s="55">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C22" s="97"/>
+      <c r="AF21" s="62">
+        <v>16</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C22" s="117"/>
       <c r="D22" s="12">
         <v>66</v>
       </c>
@@ -11078,12 +11962,21 @@
       <c r="AD22" s="1">
         <v>0</v>
       </c>
-      <c r="AE22" s="17">
+      <c r="AE22" s="55">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C23" s="97"/>
+      <c r="AF22" s="62">
+        <v>18</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C23" s="117"/>
       <c r="D23" s="12">
         <v>67</v>
       </c>
@@ -11165,12 +12058,21 @@
       <c r="AD23" s="1">
         <v>1</v>
       </c>
-      <c r="AE23" s="17">
+      <c r="AE23" s="55">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C24" s="97"/>
+      <c r="AF23" s="62">
+        <v>23</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C24" s="117"/>
       <c r="D24" s="12">
         <v>68</v>
       </c>
@@ -11252,12 +12154,21 @@
       <c r="AD24" s="1">
         <v>0</v>
       </c>
-      <c r="AE24" s="17">
+      <c r="AE24" s="55">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C25" s="97"/>
+      <c r="AF24" s="62">
+        <v>15</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C25" s="117"/>
       <c r="D25" s="12">
         <v>69</v>
       </c>
@@ -11339,12 +12250,21 @@
       <c r="AD25" s="1">
         <v>0</v>
       </c>
-      <c r="AE25" s="17">
+      <c r="AE25" s="55">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C26" s="97"/>
+      <c r="AF25" s="62">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C26" s="117"/>
       <c r="D26" s="12">
         <v>70</v>
       </c>
@@ -11426,12 +12346,21 @@
       <c r="AD26" s="1">
         <v>0</v>
       </c>
-      <c r="AE26" s="17">
+      <c r="AE26" s="55">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C27" s="97"/>
+      <c r="AF26" s="62">
+        <v>17</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C27" s="117"/>
       <c r="D27" s="12">
         <v>71</v>
       </c>
@@ -11513,12 +12442,21 @@
       <c r="AD27" s="1">
         <v>0</v>
       </c>
-      <c r="AE27" s="17">
+      <c r="AE27" s="55">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C28" s="97"/>
+      <c r="AF27" s="62">
+        <v>16</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C28" s="117"/>
       <c r="D28" s="12">
         <v>72</v>
       </c>
@@ -11600,12 +12538,21 @@
       <c r="AD28" s="1">
         <v>0</v>
       </c>
-      <c r="AE28" s="17">
+      <c r="AE28" s="55">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C29" s="97"/>
+      <c r="AF28" s="62">
+        <v>28</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C29" s="117"/>
       <c r="D29" s="19" t="s">
         <v>3</v>
       </c>
@@ -11713,13 +12660,25 @@
         <f t="shared" ref="AD29:AE29" si="3">AVERAGE(AD5:AD28)</f>
         <v>0.25</v>
       </c>
-      <c r="AE29" s="28">
+      <c r="AE29" s="54">
         <f t="shared" si="3"/>
         <v>33.958333333333336</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C30" s="97" t="s">
+      <c r="AF29" s="26">
+        <f>AVERAGE(AF5:AF28)</f>
+        <v>20.25</v>
+      </c>
+      <c r="AG29" s="27">
+        <f>AVERAGE(AG5:AG28)</f>
+        <v>0.125</v>
+      </c>
+      <c r="AH29" s="28">
+        <f t="shared" ref="AH29" si="4">AVERAGE(AH5:AH28)</f>
+        <v>29.333333333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C30" s="117" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="12">
@@ -11803,12 +12762,21 @@
       <c r="AD30" s="1">
         <v>0</v>
       </c>
-      <c r="AE30" s="17">
+      <c r="AE30" s="55">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C31" s="97"/>
+      <c r="AF30" s="62">
+        <v>10</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C31" s="117"/>
       <c r="D31" s="12">
         <v>74</v>
       </c>
@@ -11890,12 +12858,21 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-      <c r="AE31" s="17">
+      <c r="AE31" s="55">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C32" s="97"/>
+      <c r="AF31" s="62">
+        <v>6</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C32" s="117"/>
       <c r="D32" s="12">
         <v>75</v>
       </c>
@@ -11977,12 +12954,21 @@
       <c r="AD32" s="1">
         <v>1</v>
       </c>
-      <c r="AE32" s="17">
+      <c r="AE32" s="55">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C33" s="97"/>
+      <c r="AF32" s="62">
+        <v>25</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C33" s="117"/>
       <c r="D33" s="12">
         <v>76</v>
       </c>
@@ -12064,12 +13050,21 @@
       <c r="AD33" s="1">
         <v>0</v>
       </c>
-      <c r="AE33" s="17">
+      <c r="AE33" s="55">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C34" s="97"/>
+      <c r="AF33" s="62">
+        <v>23</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C34" s="117"/>
       <c r="D34" s="12">
         <v>77</v>
       </c>
@@ -12151,12 +13146,21 @@
       <c r="AD34" s="1">
         <v>0</v>
       </c>
-      <c r="AE34" s="17">
+      <c r="AE34" s="55">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C35" s="97"/>
+      <c r="AF34" s="62">
+        <v>12</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C35" s="117"/>
       <c r="D35" s="12">
         <v>78</v>
       </c>
@@ -12236,12 +13240,21 @@
       <c r="AD35" s="1">
         <v>0</v>
       </c>
-      <c r="AE35" s="17">
+      <c r="AE35" s="55">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C36" s="97"/>
+      <c r="AF35" s="62">
+        <v>21</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C36" s="117"/>
       <c r="D36" s="12">
         <v>79</v>
       </c>
@@ -12321,12 +13334,21 @@
       <c r="AD36" s="1">
         <v>0</v>
       </c>
-      <c r="AE36" s="17">
+      <c r="AE36" s="55">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C37" s="97"/>
+      <c r="AF36" s="62">
+        <v>11</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C37" s="117"/>
       <c r="D37" s="12">
         <v>80</v>
       </c>
@@ -12406,12 +13428,21 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-      <c r="AE37" s="17">
+      <c r="AE37" s="55">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C38" s="97"/>
+      <c r="AF37" s="62">
+        <v>13</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C38" s="117"/>
       <c r="D38" s="12">
         <v>81</v>
       </c>
@@ -12491,12 +13522,21 @@
       <c r="AD38" s="1">
         <v>0</v>
       </c>
-      <c r="AE38" s="17">
+      <c r="AE38" s="55">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C39" s="97"/>
+      <c r="AF38" s="62">
+        <v>73</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="17">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C39" s="117"/>
       <c r="D39" s="12">
         <v>82</v>
       </c>
@@ -12576,12 +13616,21 @@
       <c r="AD39" s="1">
         <v>1</v>
       </c>
-      <c r="AE39" s="17">
+      <c r="AE39" s="55">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C40" s="97"/>
+      <c r="AF39" s="62">
+        <v>26</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C40" s="117"/>
       <c r="D40" s="12">
         <v>83</v>
       </c>
@@ -12661,12 +13710,21 @@
       <c r="AD40" s="1">
         <v>0</v>
       </c>
-      <c r="AE40" s="17">
+      <c r="AE40" s="55">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C41" s="97"/>
+      <c r="AF40" s="62">
+        <v>11</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C41" s="117"/>
       <c r="D41" s="12">
         <v>84</v>
       </c>
@@ -12746,12 +13804,21 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-      <c r="AE41" s="17">
+      <c r="AE41" s="55">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C42" s="97"/>
+      <c r="AF41" s="62">
+        <v>17</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C42" s="117"/>
       <c r="D42" s="12">
         <v>85</v>
       </c>
@@ -12831,12 +13898,21 @@
       <c r="AD42" s="1">
         <v>0</v>
       </c>
-      <c r="AE42" s="17">
+      <c r="AE42" s="55">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C43" s="97"/>
+      <c r="AF42" s="62">
+        <v>35</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C43" s="117"/>
       <c r="D43" s="12">
         <v>86</v>
       </c>
@@ -12916,12 +13992,21 @@
       <c r="AD43" s="1">
         <v>0</v>
       </c>
-      <c r="AE43" s="17">
+      <c r="AE43" s="55">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C44" s="97"/>
+      <c r="AF43" s="62">
+        <v>36</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C44" s="117"/>
       <c r="D44" s="12">
         <v>87</v>
       </c>
@@ -13001,12 +14086,21 @@
       <c r="AD44" s="1">
         <v>1</v>
       </c>
-      <c r="AE44" s="17">
+      <c r="AE44" s="55">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C45" s="97"/>
+      <c r="AF44" s="62">
+        <v>59</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C45" s="117"/>
       <c r="D45" s="12">
         <v>88</v>
       </c>
@@ -13084,12 +14178,21 @@
       <c r="AD45" s="1">
         <v>0</v>
       </c>
-      <c r="AE45" s="17">
+      <c r="AE45" s="55">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C46" s="97"/>
+      <c r="AF45" s="62">
+        <v>42</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C46" s="117"/>
       <c r="D46" s="12">
         <v>89</v>
       </c>
@@ -13167,12 +14270,21 @@
       <c r="AD46" s="1">
         <v>0</v>
       </c>
-      <c r="AE46" s="17">
+      <c r="AE46" s="55">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C47" s="97"/>
+      <c r="AF46" s="62">
+        <v>12</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C47" s="117"/>
       <c r="D47" s="12">
         <v>90</v>
       </c>
@@ -13250,12 +14362,21 @@
       <c r="AD47" s="1">
         <v>1</v>
       </c>
-      <c r="AE47" s="17">
+      <c r="AE47" s="55">
         <v>255</v>
       </c>
-    </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C48" s="97"/>
+      <c r="AF47" s="62">
+        <v>168</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH47" s="17">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C48" s="117"/>
       <c r="D48" s="12">
         <v>91</v>
       </c>
@@ -13335,12 +14456,21 @@
       <c r="AD48" s="1">
         <v>1</v>
       </c>
-      <c r="AE48" s="17">
+      <c r="AE48" s="55">
         <v>234</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C49" s="97"/>
+      <c r="AF48" s="62">
+        <v>169</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="17">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C49" s="117"/>
       <c r="D49" s="12">
         <v>92</v>
       </c>
@@ -13418,12 +14548,21 @@
       <c r="AD49" s="1">
         <v>1</v>
       </c>
-      <c r="AE49" s="17">
+      <c r="AE49" s="55">
         <v>262</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C50" s="97"/>
+      <c r="AF49" s="62">
+        <v>195</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="17">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C50" s="117"/>
       <c r="D50" s="12">
         <v>93</v>
       </c>
@@ -13503,12 +14642,21 @@
       <c r="AD50" s="1">
         <v>1</v>
       </c>
-      <c r="AE50" s="17">
+      <c r="AE50" s="55">
         <v>251</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C51" s="97"/>
+      <c r="AF50" s="62">
+        <v>173</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="17">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C51" s="117"/>
       <c r="D51" s="12">
         <v>94</v>
       </c>
@@ -13588,12 +14736,21 @@
       <c r="AD51" s="1">
         <v>2</v>
       </c>
-      <c r="AE51" s="17">
+      <c r="AE51" s="55">
         <v>412</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C52" s="97"/>
+      <c r="AF51" s="62">
+        <v>337</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH51" s="17">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C52" s="117"/>
       <c r="D52" s="12">
         <v>95</v>
       </c>
@@ -13673,12 +14830,21 @@
       <c r="AD52" s="1">
         <v>1</v>
       </c>
-      <c r="AE52" s="17">
+      <c r="AE52" s="55">
         <v>215</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C53" s="97"/>
+      <c r="AF52" s="62">
+        <v>125</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="17">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C53" s="117"/>
       <c r="D53" s="12">
         <v>96</v>
       </c>
@@ -13758,12 +14924,21 @@
       <c r="AD53" s="1">
         <v>2</v>
       </c>
-      <c r="AE53" s="17">
+      <c r="AE53" s="55">
         <v>330</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C54" s="97"/>
+      <c r="AF53" s="62">
+        <v>262</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH53" s="17">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C54" s="117"/>
       <c r="D54" s="19" t="s">
         <v>4</v>
       </c>
@@ -13780,11 +14955,11 @@
         <v>226271.66666666666</v>
       </c>
       <c r="H54" s="26">
-        <f t="shared" ref="H54:I54" si="4">AVERAGE(H30:H53)</f>
+        <f t="shared" ref="H54:I54" si="5">AVERAGE(H30:H53)</f>
         <v>163067.70833333334</v>
       </c>
       <c r="I54" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>520</v>
       </c>
       <c r="J54" s="28">
@@ -13792,11 +14967,11 @@
         <v>13797.894736842105</v>
       </c>
       <c r="K54" s="26">
-        <f t="shared" ref="K54:L54" si="5">AVERAGE(K30:K53)</f>
+        <f t="shared" ref="K54:L54" si="6">AVERAGE(K30:K53)</f>
         <v>45859.791666666664</v>
       </c>
       <c r="L54" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>244</v>
       </c>
       <c r="M54" s="54">
@@ -13804,80 +14979,92 @@
         <v>46671.5</v>
       </c>
       <c r="N54" s="26">
-        <f t="shared" ref="N54:Y54" si="6">AVERAGE(N30:N53)</f>
+        <f t="shared" ref="N54:Y54" si="7">AVERAGE(N30:N53)</f>
         <v>7598.833333333333</v>
       </c>
       <c r="O54" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.333333333333336</v>
       </c>
       <c r="P54" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7550.791666666667</v>
       </c>
       <c r="Q54" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82.833333333333329</v>
       </c>
       <c r="R54" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="S54" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>113.95833333333333</v>
       </c>
       <c r="T54" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>215.75</v>
       </c>
       <c r="U54" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.375</v>
       </c>
       <c r="V54" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>262.75</v>
       </c>
       <c r="W54" s="26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80.708333333333329</v>
       </c>
       <c r="X54" s="27">
-        <f t="shared" si="6"/>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="Y54" s="28">
-        <f t="shared" si="6"/>
-        <v>117.29166666666667</v>
-      </c>
-      <c r="Z54" s="26">
-        <f t="shared" ref="Z54:AB54" si="7">AVERAGE(Z30:Z53)</f>
-        <v>79.291666666666671</v>
-      </c>
-      <c r="AA54" s="27">
         <f t="shared" si="7"/>
         <v>0.70833333333333337</v>
       </c>
+      <c r="Y54" s="28">
+        <f t="shared" si="7"/>
+        <v>117.29166666666667</v>
+      </c>
+      <c r="Z54" s="26">
+        <f t="shared" ref="Z54:AB54" si="8">AVERAGE(Z30:Z53)</f>
+        <v>79.291666666666671</v>
+      </c>
+      <c r="AA54" s="27">
+        <f t="shared" si="8"/>
+        <v>0.70833333333333337</v>
+      </c>
       <c r="AB54" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>103.66666666666667</v>
       </c>
       <c r="AC54" s="26">
-        <f t="shared" ref="AC54:AE54" si="8">AVERAGE(AC30:AC53)</f>
+        <f t="shared" ref="AC54:AE54" si="9">AVERAGE(AC30:AC53)</f>
         <v>78.958333333333329</v>
       </c>
       <c r="AD54" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="AE54" s="28">
-        <f t="shared" si="8"/>
+      <c r="AE54" s="54">
+        <f t="shared" si="9"/>
         <v>98.958333333333329</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C55" s="97" t="s">
+      <c r="AF54" s="26">
+        <f t="shared" ref="AF54:AH54" si="10">AVERAGE(AF30:AF53)</f>
+        <v>77.541666666666671</v>
+      </c>
+      <c r="AG54" s="27">
+        <f>AVERAGE(AG30:AG53)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH54" s="28">
+        <f t="shared" si="10"/>
+        <v>121.91666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C55" s="117" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="12">
@@ -13961,12 +15148,21 @@
       <c r="AD55" s="1">
         <v>5</v>
       </c>
-      <c r="AE55" s="17">
+      <c r="AE55" s="55">
         <v>1022</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C56" s="97"/>
+      <c r="AF55" s="62">
+        <v>582</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH55" s="17">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C56" s="117"/>
       <c r="D56" s="12">
         <v>98</v>
       </c>
@@ -14044,12 +15240,21 @@
       <c r="AD56" s="1">
         <v>15</v>
       </c>
-      <c r="AE56" s="17">
+      <c r="AE56" s="55">
         <v>2622</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C57" s="97"/>
+      <c r="AF56" s="62">
+        <v>2703</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH56" s="17">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C57" s="117"/>
       <c r="D57" s="12">
         <v>99</v>
       </c>
@@ -14129,12 +15334,21 @@
       <c r="AD57" s="1">
         <v>15</v>
       </c>
-      <c r="AE57" s="17">
+      <c r="AE57" s="55">
         <v>2557</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C58" s="97"/>
+      <c r="AF57" s="62">
+        <v>2630</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH57" s="17">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C58" s="117"/>
       <c r="D58" s="12">
         <v>100</v>
       </c>
@@ -14212,12 +15426,21 @@
       <c r="AD58" s="1">
         <v>11</v>
       </c>
-      <c r="AE58" s="17">
+      <c r="AE58" s="55">
         <v>1798</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C59" s="97"/>
+      <c r="AF58" s="62">
+        <v>1773</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>12</v>
+      </c>
+      <c r="AH58" s="17">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C59" s="117"/>
       <c r="D59" s="12">
         <v>101</v>
       </c>
@@ -14297,12 +15520,21 @@
       <c r="AD59" s="1">
         <v>4</v>
       </c>
-      <c r="AE59" s="17">
+      <c r="AE59" s="55">
         <v>650</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C60" s="97"/>
+      <c r="AF59" s="62">
+        <v>499</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH59" s="17">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C60" s="117"/>
       <c r="D60" s="12">
         <v>102</v>
       </c>
@@ -14382,12 +15614,21 @@
       <c r="AD60" s="1">
         <v>6</v>
       </c>
-      <c r="AE60" s="17">
+      <c r="AE60" s="55">
         <v>1033</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C61" s="97"/>
+      <c r="AF60" s="62">
+        <v>901</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH60" s="17">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C61" s="117"/>
       <c r="D61" s="12">
         <v>103</v>
       </c>
@@ -14467,12 +15708,21 @@
       <c r="AD61" s="1">
         <v>7</v>
       </c>
-      <c r="AE61" s="17">
+      <c r="AE61" s="55">
         <v>1327</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C62" s="97"/>
+      <c r="AF61" s="62">
+        <v>1211</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH61" s="17">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C62" s="117"/>
       <c r="D62" s="12">
         <v>104</v>
       </c>
@@ -14552,12 +15802,21 @@
       <c r="AD62" s="1">
         <v>3</v>
       </c>
-      <c r="AE62" s="17">
+      <c r="AE62" s="55">
         <v>773</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C63" s="97"/>
+      <c r="AF62" s="62">
+        <v>430</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH62" s="17">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C63" s="117"/>
       <c r="D63" s="12">
         <v>105</v>
       </c>
@@ -14637,15 +15896,24 @@
       <c r="AD63" s="1">
         <v>4</v>
       </c>
-      <c r="AE63" s="17">
+      <c r="AE63" s="55">
         <v>725</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="104" t="s">
+      <c r="AF63" s="62">
+        <v>558</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH63" s="17">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="97"/>
+      <c r="C64" s="117"/>
       <c r="D64" s="12">
         <v>106</v>
       </c>
@@ -14719,13 +15987,22 @@
       <c r="AD64" s="1">
         <v>17</v>
       </c>
-      <c r="AE64" s="17">
+      <c r="AE64" s="55">
         <v>2207</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A65" s="104"/>
-      <c r="C65" s="97"/>
+      <c r="AF64" s="62">
+        <v>2247</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH64" s="17">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A65" s="94"/>
+      <c r="C65" s="117"/>
       <c r="D65" s="12">
         <v>107</v>
       </c>
@@ -14805,13 +16082,22 @@
       <c r="AD65" s="1">
         <v>4</v>
       </c>
-      <c r="AE65" s="17">
+      <c r="AE65" s="55">
         <v>849</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A66" s="104"/>
-      <c r="C66" s="97"/>
+      <c r="AF65" s="62">
+        <v>623</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH65" s="17">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A66" s="94"/>
+      <c r="C66" s="117"/>
       <c r="D66" s="12">
         <v>108</v>
       </c>
@@ -14889,12 +16175,21 @@
       <c r="AD66" s="1">
         <v>3</v>
       </c>
-      <c r="AE66" s="17">
+      <c r="AE66" s="55">
         <v>519</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C67" s="97"/>
+      <c r="AF66" s="62">
+        <v>432</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH66" s="17">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C67" s="117"/>
       <c r="D67" s="12">
         <v>109</v>
       </c>
@@ -14972,12 +16267,21 @@
       <c r="AD67" s="1">
         <v>18</v>
       </c>
-      <c r="AE67" s="17">
+      <c r="AE67" s="55">
         <v>2939</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C68" s="97"/>
+      <c r="AF67" s="62">
+        <v>2983</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH67" s="17">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C68" s="117"/>
       <c r="D68" s="12">
         <v>110</v>
       </c>
@@ -15055,12 +16359,21 @@
       <c r="AD68" s="1">
         <v>13</v>
       </c>
-      <c r="AE68" s="17">
+      <c r="AE68" s="55">
         <v>2287</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C69" s="97"/>
+      <c r="AF68" s="62">
+        <v>2245</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH68" s="17">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C69" s="117"/>
       <c r="D69" s="12">
         <v>111</v>
       </c>
@@ -15140,12 +16453,21 @@
       <c r="AD69" s="1">
         <v>29</v>
       </c>
-      <c r="AE69" s="17">
+      <c r="AE69" s="55">
         <v>4707</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C70" s="97"/>
+      <c r="AF69" s="62">
+        <v>4930</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>33</v>
+      </c>
+      <c r="AH69" s="17">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C70" s="117"/>
       <c r="D70" s="12">
         <v>112</v>
       </c>
@@ -15223,12 +16545,21 @@
       <c r="AD70" s="1">
         <v>7</v>
       </c>
-      <c r="AE70" s="17">
+      <c r="AE70" s="55">
         <v>1166</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C71" s="97"/>
+      <c r="AF70" s="62">
+        <v>1059</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH70" s="17">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C71" s="117"/>
       <c r="D71" s="12">
         <v>113</v>
       </c>
@@ -15304,12 +16635,21 @@
       <c r="AD71" s="1">
         <v>15</v>
       </c>
-      <c r="AE71" s="17">
+      <c r="AE71" s="55">
         <v>2379</v>
       </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C72" s="97"/>
+      <c r="AF71" s="62">
+        <v>2435</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>17</v>
+      </c>
+      <c r="AH71" s="17">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C72" s="117"/>
       <c r="D72" s="12">
         <v>114</v>
       </c>
@@ -15385,12 +16725,21 @@
       <c r="AD72" s="1">
         <v>14</v>
       </c>
-      <c r="AE72" s="17">
+      <c r="AE72" s="55">
         <v>2464</v>
       </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C73" s="97"/>
+      <c r="AF72" s="62">
+        <v>2546</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>19</v>
+      </c>
+      <c r="AH72" s="17">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C73" s="117"/>
       <c r="D73" s="12">
         <v>115</v>
       </c>
@@ -15466,12 +16815,21 @@
       <c r="AD73" s="1">
         <v>38</v>
       </c>
-      <c r="AE73" s="17">
+      <c r="AE73" s="55">
         <v>4466</v>
       </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C74" s="97"/>
+      <c r="AF73" s="62">
+        <v>4676</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>52</v>
+      </c>
+      <c r="AH73" s="17">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C74" s="117"/>
       <c r="D74" s="12">
         <v>116</v>
       </c>
@@ -15547,12 +16905,21 @@
       <c r="AD74" s="1">
         <v>27</v>
       </c>
-      <c r="AE74" s="17">
+      <c r="AE74" s="55">
         <v>3779</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C75" s="97"/>
+      <c r="AF74" s="62">
+        <v>3853</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>39</v>
+      </c>
+      <c r="AH74" s="17">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C75" s="117"/>
       <c r="D75" s="12">
         <v>117</v>
       </c>
@@ -15626,12 +16993,21 @@
       <c r="AD75" s="1">
         <v>18</v>
       </c>
-      <c r="AE75" s="17">
+      <c r="AE75" s="55">
         <v>2503</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C76" s="97"/>
+      <c r="AF75" s="62">
+        <v>2253</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>25</v>
+      </c>
+      <c r="AH75" s="17">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C76" s="117"/>
       <c r="D76" s="12">
         <v>118</v>
       </c>
@@ -15705,12 +17081,21 @@
       <c r="AD76" s="1">
         <v>15</v>
       </c>
-      <c r="AE76" s="17">
+      <c r="AE76" s="55">
         <v>1863</v>
       </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C77" s="97"/>
+      <c r="AF76" s="62">
+        <v>1826</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH76" s="17">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C77" s="117"/>
       <c r="D77" s="12">
         <v>119</v>
       </c>
@@ -15784,12 +17169,21 @@
       <c r="AD77" s="1">
         <v>0</v>
       </c>
-      <c r="AE77" s="17">
+      <c r="AE77" s="55">
         <v>60</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C78" s="97"/>
+      <c r="AF77" s="62">
+        <v>79</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH77" s="17">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C78" s="117"/>
       <c r="D78" s="12">
         <v>120</v>
       </c>
@@ -15865,12 +17259,21 @@
       <c r="AD78" s="1">
         <v>20</v>
       </c>
-      <c r="AE78" s="17">
+      <c r="AE78" s="55">
         <v>2325</v>
       </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C79" s="97"/>
+      <c r="AF78" s="62">
+        <v>2285</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>26</v>
+      </c>
+      <c r="AH78" s="17">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C79" s="117"/>
       <c r="D79" s="19" t="s">
         <v>5</v>
       </c>
@@ -15879,125 +17282,137 @@
         <v>4050647.4545454546</v>
       </c>
       <c r="F79" s="27">
-        <f t="shared" ref="F79:G79" si="9">AVERAGE(F55,F57:F76,F78)</f>
+        <f t="shared" ref="F79:G79" si="11">AVERAGE(F55,F57:F76,F78)</f>
         <v>13716.818181818182</v>
       </c>
       <c r="G79" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3992</v>
       </c>
       <c r="H79" s="26">
-        <f t="shared" ref="H79:J79" si="10" xml:space="preserve"> AVERAGE(H55:H78)</f>
+        <f t="shared" ref="H79:J79" si="12" xml:space="preserve"> AVERAGE(H55:H78)</f>
         <v>5106807.583333333</v>
       </c>
       <c r="I79" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>16157.333333333334</v>
       </c>
       <c r="J79" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10887</v>
       </c>
       <c r="K79" s="26">
-        <f t="shared" ref="K79:Y79" si="11" xml:space="preserve"> AVERAGE(K55:K78)</f>
+        <f t="shared" ref="K79:Y79" si="13" xml:space="preserve"> AVERAGE(K55:K78)</f>
         <v>1614236.7916666667</v>
       </c>
       <c r="L79" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8565.6666666666661</v>
       </c>
       <c r="M79" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37989.199999999997</v>
       </c>
       <c r="N79" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>412760.04166666669</v>
       </c>
       <c r="O79" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2079.1666666666665</v>
       </c>
       <c r="P79" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>58374.315789473687</v>
       </c>
       <c r="Q79" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2096.7083333333335</v>
       </c>
       <c r="R79" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15.75</v>
       </c>
       <c r="S79" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2096.75</v>
       </c>
       <c r="T79" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5513.666666666667</v>
       </c>
       <c r="U79" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40.833333333333336</v>
       </c>
       <c r="V79" s="56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5502.791666666667</v>
       </c>
       <c r="W79" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2034.5416666666667</v>
       </c>
       <c r="X79" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19.958333333333332</v>
       </c>
       <c r="Y79" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2164</v>
       </c>
       <c r="Z79" s="63">
-        <f t="shared" ref="Z79:AB79" si="12" xml:space="preserve"> AVERAGE(Z55:Z78)</f>
+        <f t="shared" ref="Z79:AB79" si="14" xml:space="preserve"> AVERAGE(Z55:Z78)</f>
         <v>1966.0416666666667</v>
       </c>
       <c r="AA79" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.083333333333332</v>
       </c>
       <c r="AB79" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2008.0833333333333</v>
       </c>
       <c r="AC79" s="63">
-        <f t="shared" ref="AC79:AE79" si="13" xml:space="preserve"> AVERAGE(AC55:AC78)</f>
+        <f t="shared" ref="AC79:AE79" si="15" xml:space="preserve"> AVERAGE(AC55:AC78)</f>
         <v>1963.0416666666667</v>
       </c>
       <c r="AD79" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12.833333333333334</v>
       </c>
-      <c r="AE79" s="32">
-        <f t="shared" si="13"/>
+      <c r="AE79" s="56">
+        <f t="shared" si="15"/>
         <v>1959.1666666666667</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C80" s="102" t="s">
+      <c r="AF79" s="63">
+        <f t="shared" ref="AF79:AH79" si="16" xml:space="preserve"> AVERAGE(AF55:AF78)</f>
+        <v>1906.625</v>
+      </c>
+      <c r="AG79" s="60">
+        <f t="shared" si="16"/>
+        <v>15.5</v>
+      </c>
+      <c r="AH79" s="32">
+        <f t="shared" si="16"/>
+        <v>1943.7916666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C80" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="103"/>
+      <c r="D80" s="123"/>
       <c r="E80" s="30">
         <f>(AVERAGE(E5:E28,E30:E48,E50:E53,E55,E57:E76,E78))</f>
         <v>1347862.3043478262</v>
       </c>
       <c r="F80" s="29">
-        <f t="shared" ref="F80:G80" si="14">(AVERAGE(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78))</f>
+        <f t="shared" ref="F80:G80" si="17">(AVERAGE(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78))</f>
         <v>4566.666666666667</v>
       </c>
       <c r="G80" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>44345.225806451614</v>
       </c>
       <c r="H80" s="30">
@@ -16005,71 +17420,71 @@
         <v>1756797.888888889</v>
       </c>
       <c r="I80" s="39">
-        <f t="shared" ref="I80:Y80" si="15">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I80:Y80" si="18">AVERAGE(I5:I28,I30:I53,I55:I78)</f>
         <v>5559.7361111111113</v>
       </c>
       <c r="J80" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7178.3269230769229</v>
       </c>
       <c r="K80" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>553538.3194444445</v>
       </c>
       <c r="L80" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2937.3194444444443</v>
       </c>
       <c r="M80" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27042.126984126986</v>
       </c>
       <c r="N80" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>140189.19444444444</v>
       </c>
       <c r="O80" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>706.51388888888891</v>
       </c>
       <c r="P80" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19343.089552238805</v>
       </c>
       <c r="Q80" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>736.68055555555554</v>
       </c>
       <c r="R80" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.5</v>
       </c>
       <c r="S80" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>750.69444444444446</v>
       </c>
       <c r="T80" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1925.2083333333333</v>
       </c>
       <c r="U80" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>14.152777777777779</v>
       </c>
       <c r="V80" s="70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1953.3472222222222</v>
       </c>
       <c r="W80" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>715.25</v>
       </c>
       <c r="X80" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6.9861111111111107</v>
       </c>
       <c r="Y80" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>780.93055555555554</v>
       </c>
       <c r="Z80" s="30">
@@ -16077,11 +17492,11 @@
         <v>691.94444444444446</v>
       </c>
       <c r="AA80" s="29">
-        <f t="shared" ref="AA80:AB80" si="16">AVERAGE(AA5:AA28,AA30:AA53,AA55:AA78)</f>
+        <f t="shared" ref="AA80:AB80" si="19">AVERAGE(AA5:AA28,AA30:AA53,AA55:AA78)</f>
         <v>6.3888888888888893</v>
       </c>
       <c r="AB80" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>721.36111111111109</v>
       </c>
       <c r="AC80" s="30">
@@ -16089,29 +17504,41 @@
         <v>690.83333333333337</v>
       </c>
       <c r="AD80" s="29">
-        <f t="shared" ref="AD80:AE80" si="17">AVERAGE(AD5:AD28,AD30:AD53,AD55:AD78)</f>
+        <f t="shared" ref="AD80:AE80" si="20">AVERAGE(AD5:AD28,AD30:AD53,AD55:AD78)</f>
         <v>4.5277777777777777</v>
       </c>
-      <c r="AE80" s="31">
-        <f t="shared" si="17"/>
+      <c r="AE80" s="70">
+        <f t="shared" si="20"/>
         <v>697.36111111111109</v>
       </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.3">
-      <c r="C81" s="105" t="s">
+      <c r="AF80" s="30">
+        <f>AVERAGE(AF5:AF28,AF30:AF53,AF55:AF78)</f>
+        <v>668.13888888888891</v>
+      </c>
+      <c r="AG80" s="29">
+        <f>AVERAGE(AG5:AG28,AG30:AG53,AG55:AG78)</f>
+        <v>5.375</v>
+      </c>
+      <c r="AH80" s="31">
+        <f t="shared" ref="AH80" si="21">AVERAGE(AH5:AH28,AH30:AH53,AH55:AH78)</f>
+        <v>698.34722222222217</v>
+      </c>
+    </row>
+    <row r="81" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C81" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="106"/>
+      <c r="D81" s="96"/>
       <c r="E81" s="41">
         <f>SUM(E5:E28,E30:E48,E50:E53,E55,E57:E76,E78)</f>
         <v>93002499</v>
       </c>
       <c r="F81" s="15">
-        <f t="shared" ref="F81:G81" si="18">SUM(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78)</f>
+        <f t="shared" ref="F81:G81" si="22">SUM(F5:F28,F30:F48,F50:F53,F55,F57:F76,F78)</f>
         <v>315100</v>
       </c>
       <c r="G81" s="42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1374702</v>
       </c>
       <c r="H81" s="43">
@@ -16119,71 +17546,71 @@
         <v>126489448</v>
       </c>
       <c r="I81" s="44">
-        <f t="shared" ref="I81:Y81" si="19">SUM(I5:I28,I30:I53,I55:I78)</f>
+        <f t="shared" ref="I81:Y81" si="23">SUM(I5:I28,I30:I53,I55:I78)</f>
         <v>400301</v>
       </c>
       <c r="J81" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>373273</v>
       </c>
       <c r="K81" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>39854759</v>
       </c>
       <c r="L81" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>211487</v>
       </c>
       <c r="M81" s="58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1703654</v>
       </c>
       <c r="N81" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10093622</v>
       </c>
       <c r="O81" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>50869</v>
       </c>
       <c r="P81" s="71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1295987</v>
       </c>
       <c r="Q81" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>53041</v>
       </c>
       <c r="R81" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>396</v>
       </c>
       <c r="S81" s="71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>54050</v>
       </c>
       <c r="T81" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>138615</v>
       </c>
       <c r="U81" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1019</v>
       </c>
       <c r="V81" s="71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>140641</v>
       </c>
       <c r="W81" s="64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>51498</v>
       </c>
       <c r="X81" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>503</v>
       </c>
       <c r="Y81" s="65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>56227</v>
       </c>
       <c r="Z81" s="64">
@@ -16191,11 +17618,11 @@
         <v>49820</v>
       </c>
       <c r="AA81" s="61">
-        <f t="shared" ref="AA81:AB81" si="20">SUM(AA5:AA28,AA30:AA53,AA55:AA78)</f>
+        <f t="shared" ref="AA81:AB81" si="24">SUM(AA5:AA28,AA30:AA53,AA55:AA78)</f>
         <v>460</v>
       </c>
       <c r="AB81" s="65">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>51938</v>
       </c>
       <c r="AC81" s="64">
@@ -16203,19 +17630,31 @@
         <v>49740</v>
       </c>
       <c r="AD81" s="61">
-        <f t="shared" ref="AD81:AE81" si="21">SUM(AD5:AD28,AD30:AD53,AD55:AD78)</f>
+        <f t="shared" ref="AD81:AE81" si="25">SUM(AD5:AD28,AD30:AD53,AD55:AD78)</f>
         <v>326</v>
       </c>
-      <c r="AE81" s="65">
-        <f t="shared" si="21"/>
+      <c r="AE81" s="71">
+        <f t="shared" si="25"/>
         <v>50210</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C82" s="100" t="s">
+      <c r="AF81" s="64">
+        <f>SUM(AF5:AF28,AF30:AF53,AF55:AF78)</f>
+        <v>48106</v>
+      </c>
+      <c r="AG81" s="61">
+        <f>SUM(AG5:AG28,AG30:AG53,AG55:AG78)</f>
+        <v>387</v>
+      </c>
+      <c r="AH81" s="65">
+        <f t="shared" ref="AH81" si="26">SUM(AH5:AH28,AH30:AH53,AH55:AH78)</f>
+        <v>50281</v>
+      </c>
+    </row>
+    <row r="82" spans="3:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="101"/>
+      <c r="D82" s="121"/>
       <c r="E82" s="46"/>
       <c r="F82" s="47">
         <f>E81/F81</f>
@@ -16281,9 +17720,18 @@
         <f>AC81/AD81</f>
         <v>152.57668711656441</v>
       </c>
-      <c r="AE82" s="80">
+      <c r="AE82" s="79">
         <f>AC81/AE81</f>
         <v>0.99063931487751444</v>
+      </c>
+      <c r="AF82" s="85"/>
+      <c r="AG82" s="47">
+        <f>AF81/AG81</f>
+        <v>124.30490956072352</v>
+      </c>
+      <c r="AH82" s="80">
+        <f>AF81/AH81</f>
+        <v>0.95674310375688632</v>
       </c>
     </row>
     <row r="118" spans="11:12" x14ac:dyDescent="0.3">
@@ -16291,7 +17739,16 @@
       <c r="L118" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="AF2:AH3"/>
+    <mergeCell ref="AC2:AE3"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C5:C29"/>
+    <mergeCell ref="C30:C54"/>
+    <mergeCell ref="C55:C79"/>
+    <mergeCell ref="Z2:AB3"/>
+    <mergeCell ref="W2:Y3"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C2:D3"/>
@@ -16302,14 +17759,6 @@
     <mergeCell ref="H2:J3"/>
     <mergeCell ref="K2:M3"/>
     <mergeCell ref="N2:P3"/>
-    <mergeCell ref="AC2:AE3"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C5:C29"/>
-    <mergeCell ref="C30:C54"/>
-    <mergeCell ref="C55:C79"/>
-    <mergeCell ref="Z2:AB3"/>
-    <mergeCell ref="W2:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16338,32 +17787,32 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
     </row>
     <row r="5" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125" t="s">
+      <c r="F5" s="126"/>
+      <c r="G5" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125" t="s">
+      <c r="H5" s="126"/>
+      <c r="I5" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="125"/>
+      <c r="J5" s="126"/>
     </row>
     <row r="6" spans="3:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
@@ -16390,7 +17839,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="118" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6">
@@ -16408,7 +17857,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="98"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="6">
         <v>50</v>
       </c>
@@ -16424,7 +17873,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="98"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="6">
         <v>51</v>
       </c>
@@ -16440,7 +17889,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="98"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="6">
         <v>52</v>
       </c>
@@ -16456,7 +17905,7 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="98"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="6">
         <v>53</v>
       </c>
@@ -16472,7 +17921,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="98"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="6">
         <v>54</v>
       </c>
@@ -16488,7 +17937,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="98"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="6">
         <v>55</v>
       </c>
@@ -16504,7 +17953,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="98"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="6">
         <v>56</v>
       </c>
@@ -16520,7 +17969,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="98"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="6">
         <v>57</v>
       </c>
@@ -16536,7 +17985,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="98"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="6">
         <v>58</v>
       </c>
@@ -16552,7 +18001,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C17" s="98"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="6">
         <v>59</v>
       </c>
@@ -16568,7 +18017,7 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C18" s="98"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="6">
         <v>60</v>
       </c>
@@ -16584,7 +18033,7 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C19" s="98"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="6">
         <v>61</v>
       </c>
@@ -16600,7 +18049,7 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C20" s="98"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="6">
         <v>62</v>
       </c>
@@ -16616,7 +18065,7 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C21" s="98"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="6">
         <v>63</v>
       </c>
@@ -16632,7 +18081,7 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C22" s="98"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="6">
         <v>64</v>
       </c>
@@ -16648,7 +18097,7 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C23" s="98"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="6">
         <v>65</v>
       </c>
@@ -16664,7 +18113,7 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C24" s="98"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="6">
         <v>66</v>
       </c>
@@ -16680,7 +18129,7 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C25" s="98"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="6">
         <v>67</v>
       </c>
@@ -16696,7 +18145,7 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C26" s="98"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="6">
         <v>68</v>
       </c>
@@ -16712,7 +18161,7 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C27" s="98"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="6">
         <v>69</v>
       </c>
@@ -16728,7 +18177,7 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C28" s="98"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="6">
         <v>70</v>
       </c>
@@ -16744,7 +18193,7 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C29" s="98"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="6">
         <v>71</v>
       </c>
@@ -16760,7 +18209,7 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C30" s="98"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="6">
         <v>72</v>
       </c>
@@ -16779,7 +18228,7 @@
       </c>
     </row>
     <row r="31" spans="3:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="98"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
@@ -16809,7 +18258,7 @@
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="118" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="6">
@@ -16827,7 +18276,7 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="98"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="6">
         <v>74</v>
       </c>
@@ -16843,7 +18292,7 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="98"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="6">
         <v>75</v>
       </c>
@@ -16859,7 +18308,7 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="98"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="6">
         <v>76</v>
       </c>
@@ -16875,7 +18324,7 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="98"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="6">
         <v>77</v>
       </c>
@@ -16891,7 +18340,7 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="98"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="6">
         <v>78</v>
       </c>
@@ -16907,7 +18356,7 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="98"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="6">
         <v>79</v>
       </c>
@@ -16923,7 +18372,7 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="98"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="6">
         <v>80</v>
       </c>
@@ -16939,7 +18388,7 @@
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="98"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="6">
         <v>81</v>
       </c>
@@ -16955,7 +18404,7 @@
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="98"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="6">
         <v>82</v>
       </c>
@@ -16971,7 +18420,7 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="98"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="6">
         <v>83</v>
       </c>
@@ -16987,7 +18436,7 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="98"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="6">
         <v>84</v>
       </c>
@@ -17003,7 +18452,7 @@
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="98"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="6">
         <v>85</v>
       </c>
@@ -17019,7 +18468,7 @@
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="98"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="6">
         <v>86</v>
       </c>
@@ -17035,7 +18484,7 @@
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="98"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="6">
         <v>87</v>
       </c>
@@ -17051,7 +18500,7 @@
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="98"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="6">
         <v>88</v>
       </c>
@@ -17067,7 +18516,7 @@
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="98"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="6">
         <v>89</v>
       </c>
@@ -17079,7 +18528,7 @@
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="98"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="6">
         <v>90</v>
       </c>
@@ -17091,7 +18540,7 @@
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50" s="98"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="6">
         <v>91</v>
       </c>
@@ -17103,7 +18552,7 @@
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51" s="98"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="6">
         <v>92</v>
       </c>
@@ -17115,7 +18564,7 @@
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C52" s="98"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="6">
         <v>93</v>
       </c>
@@ -17127,7 +18576,7 @@
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C53" s="98"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="6">
         <v>94</v>
       </c>
@@ -17139,7 +18588,7 @@
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C54" s="98"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="6">
         <v>95</v>
       </c>
@@ -17151,7 +18600,7 @@
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C55" s="98"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="6">
         <v>96</v>
       </c>
@@ -17163,7 +18612,7 @@
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56" s="98"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="9" t="s">
         <v>4</v>
       </c>
@@ -17193,7 +18642,7 @@
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C57" s="98" t="s">
+      <c r="C57" s="118" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="6">
@@ -17207,7 +18656,7 @@
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C58" s="98"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="6">
         <v>98</v>
       </c>
@@ -17219,7 +18668,7 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C59" s="98"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="6">
         <v>99</v>
       </c>
@@ -17231,7 +18680,7 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C60" s="98"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="6">
         <v>100</v>
       </c>
@@ -17243,7 +18692,7 @@
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="98"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="6">
         <v>101</v>
       </c>
@@ -17255,7 +18704,7 @@
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="98"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="6">
         <v>102</v>
       </c>
@@ -17267,7 +18716,7 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C63" s="98"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="6">
         <v>103</v>
       </c>
@@ -17279,7 +18728,7 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C64" s="98"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="6">
         <v>104</v>
       </c>
@@ -17291,7 +18740,7 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C65" s="98"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="6">
         <v>105</v>
       </c>
@@ -17303,7 +18752,7 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="98"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="6">
         <v>106</v>
       </c>
@@ -17315,7 +18764,7 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="98"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="6">
         <v>107</v>
       </c>
@@ -17327,7 +18776,7 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C68" s="98"/>
+      <c r="C68" s="118"/>
       <c r="D68" s="6">
         <v>108</v>
       </c>
@@ -17339,7 +18788,7 @@
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C69" s="98"/>
+      <c r="C69" s="118"/>
       <c r="D69" s="6">
         <v>109</v>
       </c>
@@ -17351,7 +18800,7 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C70" s="98"/>
+      <c r="C70" s="118"/>
       <c r="D70" s="6">
         <v>110</v>
       </c>
@@ -17363,7 +18812,7 @@
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="98"/>
+      <c r="C71" s="118"/>
       <c r="D71" s="6">
         <v>111</v>
       </c>
@@ -17375,7 +18824,7 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="98"/>
+      <c r="C72" s="118"/>
       <c r="D72" s="6">
         <v>112</v>
       </c>
@@ -17387,7 +18836,7 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C73" s="98"/>
+      <c r="C73" s="118"/>
       <c r="D73" s="6">
         <v>113</v>
       </c>
@@ -17399,7 +18848,7 @@
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C74" s="98"/>
+      <c r="C74" s="118"/>
       <c r="D74" s="6">
         <v>114</v>
       </c>
@@ -17411,7 +18860,7 @@
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C75" s="98"/>
+      <c r="C75" s="118"/>
       <c r="D75" s="6">
         <v>115</v>
       </c>
@@ -17423,7 +18872,7 @@
       <c r="J75" s="6"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C76" s="98"/>
+      <c r="C76" s="118"/>
       <c r="D76" s="6">
         <v>116</v>
       </c>
@@ -17435,7 +18884,7 @@
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C77" s="98"/>
+      <c r="C77" s="118"/>
       <c r="D77" s="6">
         <v>117</v>
       </c>
@@ -17447,7 +18896,7 @@
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C78" s="98"/>
+      <c r="C78" s="118"/>
       <c r="D78" s="6">
         <v>118</v>
       </c>
@@ -17459,7 +18908,7 @@
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C79" s="98"/>
+      <c r="C79" s="118"/>
       <c r="D79" s="6">
         <v>119</v>
       </c>
@@ -17471,7 +18920,7 @@
       <c r="J79" s="6"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="98"/>
+      <c r="C80" s="118"/>
       <c r="D80" s="6">
         <v>120</v>
       </c>
@@ -17483,7 +18932,7 @@
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C81" s="98"/>
+      <c r="C81" s="118"/>
       <c r="D81" s="9" t="s">
         <v>5</v>
       </c>
@@ -17513,10 +18962,10 @@
       </c>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C82" s="126" t="s">
+      <c r="C82" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="126"/>
+      <c r="D82" s="124"/>
       <c r="E82" s="14">
         <f>AVERAGE(E7:E30,E32:E55,E57:E80)</f>
         <v>16807.150000000001</v>
@@ -17543,10 +18992,10 @@
       </c>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C83" s="127" t="s">
+      <c r="C83" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="127"/>
+      <c r="D83" s="125"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6">
         <f>E82/F82</f>
@@ -17564,24 +19013,24 @@
       </c>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C84" s="104"/>
-      <c r="D84" s="104"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C7:C31"/>
+    <mergeCell ref="C32:C56"/>
     <mergeCell ref="C57:C81"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C7:C31"/>
-    <mergeCell ref="C32:C56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
